--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_5_10.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_5_10.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>129246.712920319</v>
+        <v>131094.914153109</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>800190.5120470802</v>
+        <v>1241453.964023875</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>25206690.91176504</v>
+        <v>24630881.73804684</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3974854.755013534</v>
+        <v>4205287.178371388</v>
       </c>
     </row>
     <row r="11">
@@ -8693,13 +8695,13 @@
         <v>210.0462273461148</v>
       </c>
       <c r="L11" t="n">
-        <v>270.6444670286918</v>
+        <v>255.8266834221102</v>
       </c>
       <c r="M11" t="n">
-        <v>281.0224045372727</v>
+        <v>245.6294943148315</v>
       </c>
       <c r="N11" t="n">
-        <v>279.8839375878409</v>
+        <v>243.9183330758522</v>
       </c>
       <c r="O11" t="n">
         <v>246.758517458259</v>
@@ -8769,22 +8771,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K12" t="n">
-        <v>168.166555548718</v>
+        <v>150.7517341174952</v>
       </c>
       <c r="L12" t="n">
-        <v>169.0363433314465</v>
+        <v>145.6199667947194</v>
       </c>
       <c r="M12" t="n">
-        <v>173.4035213848624</v>
+        <v>146.0777144456295</v>
       </c>
       <c r="N12" t="n">
-        <v>160.2368887416667</v>
+        <v>132.1878490032285</v>
       </c>
       <c r="O12" t="n">
-        <v>173.9674182222222</v>
+        <v>148.3080266862594</v>
       </c>
       <c r="P12" t="n">
-        <v>163.4487770454829</v>
+        <v>142.8548531659551</v>
       </c>
       <c r="Q12" t="n">
         <v>136.1300824528302</v>
@@ -8930,13 +8932,13 @@
         <v>210.0462273461148</v>
       </c>
       <c r="L14" t="n">
-        <v>270.6444670286918</v>
+        <v>255.8266834221102</v>
       </c>
       <c r="M14" t="n">
-        <v>281.0224045372727</v>
+        <v>245.6294943148315</v>
       </c>
       <c r="N14" t="n">
-        <v>279.8839375878409</v>
+        <v>243.9183330758522</v>
       </c>
       <c r="O14" t="n">
         <v>246.758517458259</v>
@@ -9006,22 +9008,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
-        <v>168.166555548718</v>
+        <v>150.7517341174952</v>
       </c>
       <c r="L15" t="n">
-        <v>169.0363433314465</v>
+        <v>145.6199667947194</v>
       </c>
       <c r="M15" t="n">
-        <v>173.4035213848624</v>
+        <v>146.0777144456295</v>
       </c>
       <c r="N15" t="n">
-        <v>160.2368887416667</v>
+        <v>132.1878490032285</v>
       </c>
       <c r="O15" t="n">
-        <v>173.9674182222222</v>
+        <v>148.3080266862594</v>
       </c>
       <c r="P15" t="n">
-        <v>163.4487770454829</v>
+        <v>142.8548531659551</v>
       </c>
       <c r="Q15" t="n">
         <v>136.1300824528302</v>
@@ -9167,13 +9169,13 @@
         <v>210.0462273461148</v>
       </c>
       <c r="L17" t="n">
-        <v>270.6444670286918</v>
+        <v>255.8266834221102</v>
       </c>
       <c r="M17" t="n">
-        <v>281.0224045372727</v>
+        <v>245.6294943148315</v>
       </c>
       <c r="N17" t="n">
-        <v>279.8839375878409</v>
+        <v>243.9183330758522</v>
       </c>
       <c r="O17" t="n">
         <v>246.758517458259</v>
@@ -9243,22 +9245,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>168.166555548718</v>
+        <v>150.7517341174952</v>
       </c>
       <c r="L18" t="n">
-        <v>169.0363433314465</v>
+        <v>145.6199667947194</v>
       </c>
       <c r="M18" t="n">
-        <v>173.4035213848624</v>
+        <v>146.0777144456295</v>
       </c>
       <c r="N18" t="n">
-        <v>160.2368887416667</v>
+        <v>132.1878490032285</v>
       </c>
       <c r="O18" t="n">
-        <v>173.9674182222222</v>
+        <v>148.3080266862594</v>
       </c>
       <c r="P18" t="n">
-        <v>163.4487770454829</v>
+        <v>142.8548531659551</v>
       </c>
       <c r="Q18" t="n">
         <v>136.1300824528302</v>
@@ -9404,13 +9406,13 @@
         <v>210.0462273461148</v>
       </c>
       <c r="L20" t="n">
-        <v>270.6444670286918</v>
+        <v>255.8266834221102</v>
       </c>
       <c r="M20" t="n">
-        <v>281.0224045372727</v>
+        <v>245.6294943148315</v>
       </c>
       <c r="N20" t="n">
-        <v>279.8839375878409</v>
+        <v>243.9183330758522</v>
       </c>
       <c r="O20" t="n">
         <v>246.758517458259</v>
@@ -9480,22 +9482,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K21" t="n">
-        <v>168.166555548718</v>
+        <v>150.7517341174952</v>
       </c>
       <c r="L21" t="n">
-        <v>169.0363433314465</v>
+        <v>145.6199667947194</v>
       </c>
       <c r="M21" t="n">
-        <v>173.4035213848624</v>
+        <v>146.0777144456295</v>
       </c>
       <c r="N21" t="n">
-        <v>160.2368887416667</v>
+        <v>132.1878490032285</v>
       </c>
       <c r="O21" t="n">
-        <v>173.9674182222222</v>
+        <v>148.3080266862594</v>
       </c>
       <c r="P21" t="n">
-        <v>163.4487770454829</v>
+        <v>142.8548531659551</v>
       </c>
       <c r="Q21" t="n">
         <v>136.1300824528302</v>
@@ -9641,13 +9643,13 @@
         <v>210.0462273461148</v>
       </c>
       <c r="L23" t="n">
-        <v>270.6444670286918</v>
+        <v>255.8266834221102</v>
       </c>
       <c r="M23" t="n">
-        <v>281.0224045372727</v>
+        <v>245.6294943148315</v>
       </c>
       <c r="N23" t="n">
-        <v>279.8839375878409</v>
+        <v>243.9183330758522</v>
       </c>
       <c r="O23" t="n">
         <v>246.758517458259</v>
@@ -9717,22 +9719,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K24" t="n">
-        <v>168.166555548718</v>
+        <v>150.7517341174952</v>
       </c>
       <c r="L24" t="n">
-        <v>169.0363433314465</v>
+        <v>145.6199667947194</v>
       </c>
       <c r="M24" t="n">
-        <v>173.4035213848624</v>
+        <v>146.0777144456295</v>
       </c>
       <c r="N24" t="n">
-        <v>160.2368887416667</v>
+        <v>132.1878490032285</v>
       </c>
       <c r="O24" t="n">
-        <v>173.9674182222222</v>
+        <v>148.3080266862594</v>
       </c>
       <c r="P24" t="n">
-        <v>163.4487770454829</v>
+        <v>142.8548531659551</v>
       </c>
       <c r="Q24" t="n">
         <v>136.1300824528302</v>
@@ -9878,13 +9880,13 @@
         <v>210.0462273461148</v>
       </c>
       <c r="L26" t="n">
-        <v>270.6444670286918</v>
+        <v>255.8266834221102</v>
       </c>
       <c r="M26" t="n">
-        <v>281.0224045372727</v>
+        <v>245.6294943148315</v>
       </c>
       <c r="N26" t="n">
-        <v>279.8839375878409</v>
+        <v>243.9183330758522</v>
       </c>
       <c r="O26" t="n">
         <v>246.758517458259</v>
@@ -9954,22 +9956,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K27" t="n">
-        <v>168.166555548718</v>
+        <v>150.7517341174952</v>
       </c>
       <c r="L27" t="n">
-        <v>169.0363433314465</v>
+        <v>145.6199667947194</v>
       </c>
       <c r="M27" t="n">
-        <v>173.4035213848624</v>
+        <v>146.0777144456295</v>
       </c>
       <c r="N27" t="n">
-        <v>160.2368887416667</v>
+        <v>132.1878490032285</v>
       </c>
       <c r="O27" t="n">
-        <v>173.9674182222222</v>
+        <v>148.3080266862594</v>
       </c>
       <c r="P27" t="n">
-        <v>163.4487770454829</v>
+        <v>142.8548531659551</v>
       </c>
       <c r="Q27" t="n">
         <v>136.1300824528302</v>
@@ -10115,13 +10117,13 @@
         <v>210.0462273461148</v>
       </c>
       <c r="L29" t="n">
-        <v>270.6444670286918</v>
+        <v>255.8266834221102</v>
       </c>
       <c r="M29" t="n">
-        <v>281.0224045372727</v>
+        <v>245.6294943148315</v>
       </c>
       <c r="N29" t="n">
-        <v>279.8839375878409</v>
+        <v>243.9183330758522</v>
       </c>
       <c r="O29" t="n">
         <v>246.758517458259</v>
@@ -10191,22 +10193,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K30" t="n">
-        <v>168.166555548718</v>
+        <v>150.7517341174952</v>
       </c>
       <c r="L30" t="n">
-        <v>169.0363433314465</v>
+        <v>145.6199667947194</v>
       </c>
       <c r="M30" t="n">
-        <v>173.4035213848624</v>
+        <v>146.0777144456295</v>
       </c>
       <c r="N30" t="n">
-        <v>160.2368887416667</v>
+        <v>132.1878490032285</v>
       </c>
       <c r="O30" t="n">
-        <v>173.9674182222222</v>
+        <v>148.3080266862594</v>
       </c>
       <c r="P30" t="n">
-        <v>163.4487770454829</v>
+        <v>142.8548531659551</v>
       </c>
       <c r="Q30" t="n">
         <v>136.1300824528302</v>
@@ -10352,13 +10354,13 @@
         <v>210.0462273461148</v>
       </c>
       <c r="L32" t="n">
-        <v>270.6444670286918</v>
+        <v>255.8266834221102</v>
       </c>
       <c r="M32" t="n">
-        <v>281.0224045372727</v>
+        <v>245.6294943148315</v>
       </c>
       <c r="N32" t="n">
-        <v>279.8839375878409</v>
+        <v>243.9183330758522</v>
       </c>
       <c r="O32" t="n">
         <v>246.758517458259</v>
@@ -10428,22 +10430,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K33" t="n">
-        <v>168.166555548718</v>
+        <v>150.7517341174952</v>
       </c>
       <c r="L33" t="n">
-        <v>169.0363433314465</v>
+        <v>145.6199667947194</v>
       </c>
       <c r="M33" t="n">
-        <v>173.4035213848624</v>
+        <v>146.0777144456295</v>
       </c>
       <c r="N33" t="n">
-        <v>160.2368887416667</v>
+        <v>132.1878490032285</v>
       </c>
       <c r="O33" t="n">
-        <v>173.9674182222222</v>
+        <v>148.3080266862594</v>
       </c>
       <c r="P33" t="n">
-        <v>163.4487770454829</v>
+        <v>142.8548531659551</v>
       </c>
       <c r="Q33" t="n">
         <v>136.1300824528302</v>
@@ -10589,13 +10591,13 @@
         <v>210.0462273461148</v>
       </c>
       <c r="L35" t="n">
-        <v>270.6444670286918</v>
+        <v>255.8266834221102</v>
       </c>
       <c r="M35" t="n">
-        <v>281.0224045372727</v>
+        <v>245.6294943148315</v>
       </c>
       <c r="N35" t="n">
-        <v>279.8839375878409</v>
+        <v>243.9183330758522</v>
       </c>
       <c r="O35" t="n">
         <v>246.758517458259</v>
@@ -10665,22 +10667,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K36" t="n">
-        <v>168.166555548718</v>
+        <v>150.7517341174952</v>
       </c>
       <c r="L36" t="n">
-        <v>169.0363433314465</v>
+        <v>145.6199667947194</v>
       </c>
       <c r="M36" t="n">
-        <v>173.4035213848624</v>
+        <v>146.0777144456295</v>
       </c>
       <c r="N36" t="n">
-        <v>160.2368887416667</v>
+        <v>132.1878490032285</v>
       </c>
       <c r="O36" t="n">
-        <v>173.9674182222222</v>
+        <v>148.3080266862594</v>
       </c>
       <c r="P36" t="n">
-        <v>163.4487770454829</v>
+        <v>142.8548531659551</v>
       </c>
       <c r="Q36" t="n">
         <v>136.1300824528302</v>
@@ -10826,13 +10828,13 @@
         <v>210.0462273461148</v>
       </c>
       <c r="L38" t="n">
-        <v>270.6444670286918</v>
+        <v>255.8266834221102</v>
       </c>
       <c r="M38" t="n">
-        <v>281.0224045372727</v>
+        <v>245.6294943148315</v>
       </c>
       <c r="N38" t="n">
-        <v>279.8839375878409</v>
+        <v>243.9183330758522</v>
       </c>
       <c r="O38" t="n">
         <v>246.758517458259</v>
@@ -10902,22 +10904,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K39" t="n">
-        <v>168.166555548718</v>
+        <v>150.7517341174952</v>
       </c>
       <c r="L39" t="n">
-        <v>169.0363433314465</v>
+        <v>145.6199667947194</v>
       </c>
       <c r="M39" t="n">
-        <v>173.4035213848624</v>
+        <v>146.0777144456295</v>
       </c>
       <c r="N39" t="n">
-        <v>160.2368887416667</v>
+        <v>132.1878490032285</v>
       </c>
       <c r="O39" t="n">
-        <v>173.9674182222222</v>
+        <v>148.3080266862594</v>
       </c>
       <c r="P39" t="n">
-        <v>163.4487770454829</v>
+        <v>142.8548531659551</v>
       </c>
       <c r="Q39" t="n">
         <v>136.1300824528302</v>
@@ -11063,13 +11065,13 @@
         <v>210.0462273461148</v>
       </c>
       <c r="L41" t="n">
-        <v>270.6444670286918</v>
+        <v>255.8266834221102</v>
       </c>
       <c r="M41" t="n">
-        <v>281.0224045372727</v>
+        <v>245.6294943148315</v>
       </c>
       <c r="N41" t="n">
-        <v>279.8839375878409</v>
+        <v>243.9183330758522</v>
       </c>
       <c r="O41" t="n">
         <v>246.758517458259</v>
@@ -11139,22 +11141,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K42" t="n">
-        <v>168.166555548718</v>
+        <v>150.7517341174952</v>
       </c>
       <c r="L42" t="n">
-        <v>169.0363433314465</v>
+        <v>145.6199667947194</v>
       </c>
       <c r="M42" t="n">
-        <v>173.4035213848624</v>
+        <v>146.0777144456295</v>
       </c>
       <c r="N42" t="n">
-        <v>160.2368887416667</v>
+        <v>132.1878490032285</v>
       </c>
       <c r="O42" t="n">
-        <v>173.9674182222222</v>
+        <v>148.3080266862594</v>
       </c>
       <c r="P42" t="n">
-        <v>163.4487770454829</v>
+        <v>142.8548531659551</v>
       </c>
       <c r="Q42" t="n">
         <v>136.1300824528302</v>
@@ -11300,16 +11302,16 @@
         <v>210.0462273461148</v>
       </c>
       <c r="L44" t="n">
-        <v>270.6444670286918</v>
+        <v>215.1060201295988</v>
       </c>
       <c r="M44" t="n">
-        <v>281.0224045372727</v>
+        <v>200.3199103700812</v>
       </c>
       <c r="N44" t="n">
-        <v>279.8839375878409</v>
+        <v>197.8755926931642</v>
       </c>
       <c r="O44" t="n">
-        <v>246.758517458259</v>
+        <v>203.2816633332895</v>
       </c>
       <c r="P44" t="n">
         <v>208.5255628951208</v>
@@ -11376,22 +11378,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K45" t="n">
-        <v>168.166555548718</v>
+        <v>128.4574862423794</v>
       </c>
       <c r="L45" t="n">
-        <v>169.0363433314465</v>
+        <v>115.6425992455544</v>
       </c>
       <c r="M45" t="n">
-        <v>173.4035213848624</v>
+        <v>111.0955404568352</v>
       </c>
       <c r="N45" t="n">
-        <v>160.2368887416667</v>
+        <v>96.27980096165827</v>
       </c>
       <c r="O45" t="n">
-        <v>173.9674182222222</v>
+        <v>115.4591779348292</v>
       </c>
       <c r="P45" t="n">
-        <v>163.4487770454829</v>
+        <v>116.4907560372702</v>
       </c>
       <c r="Q45" t="n">
         <v>136.1300824528302</v>
@@ -23270,22 +23272,22 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G11" t="n">
-        <v>419.2448920946117</v>
+        <v>419.0433278923953</v>
       </c>
       <c r="H11" t="n">
-        <v>351.1867109187684</v>
+        <v>349.1224415328191</v>
       </c>
       <c r="I11" t="n">
-        <v>256.6898085504863</v>
+        <v>248.9190046445362</v>
       </c>
       <c r="J11" t="n">
-        <v>111.3013968910535</v>
+        <v>94.19388718318407</v>
       </c>
       <c r="K11" t="n">
-        <v>58.46339092876153</v>
+        <v>32.82366854106931</v>
       </c>
       <c r="L11" t="n">
-        <v>16.99055923469257</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -23294,25 +23296,25 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>33.96130047619883</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>73.5786919263081</v>
+        <v>44.59350769232816</v>
       </c>
       <c r="Q11" t="n">
-        <v>133.6328276992101</v>
+        <v>111.8661614571072</v>
       </c>
       <c r="R11" t="n">
-        <v>220.4301160555486</v>
+        <v>207.7686087380687</v>
       </c>
       <c r="S11" t="n">
-        <v>236.785106778059</v>
+        <v>232.1919625200514</v>
       </c>
       <c r="T11" t="n">
-        <v>224.246294399988</v>
+        <v>223.3639471047855</v>
       </c>
       <c r="U11" t="n">
-        <v>250.1830790232068</v>
+        <v>250.1669538870295</v>
       </c>
       <c r="V11" t="n">
         <v>320.879783609152</v>
@@ -23349,16 +23351,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
-        <v>148.9622183950918</v>
+        <v>148.8543720391606</v>
       </c>
       <c r="H12" t="n">
-        <v>127.8372169228968</v>
+        <v>126.7956481695613</v>
       </c>
       <c r="I12" t="n">
-        <v>114.855819447717</v>
+        <v>111.1426883334193</v>
       </c>
       <c r="J12" t="n">
-        <v>73.03491363274843</v>
+        <v>62.8457980489157</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23379,19 +23381,19 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>34.64768193211606</v>
+        <v>20.88118919956569</v>
       </c>
       <c r="R12" t="n">
-        <v>148.2309527983001</v>
+        <v>141.5350185239054</v>
       </c>
       <c r="S12" t="n">
-        <v>195.63287444794</v>
+        <v>193.6296756875513</v>
       </c>
       <c r="T12" t="n">
-        <v>215.8480604164874</v>
+        <v>215.4133639204314</v>
       </c>
       <c r="U12" t="n">
-        <v>237.2423862021824</v>
+        <v>237.2352910471869</v>
       </c>
       <c r="V12" t="n">
         <v>240.6489209154022</v>
@@ -23428,49 +23430,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G13" t="n">
-        <v>168.883215127945</v>
+        <v>168.7928003659262</v>
       </c>
       <c r="H13" t="n">
-        <v>167.4464568944399</v>
+        <v>166.6425874648544</v>
       </c>
       <c r="I13" t="n">
-        <v>170.3394424699794</v>
+        <v>167.6204239903589</v>
       </c>
       <c r="J13" t="n">
-        <v>133.1381297789385</v>
+        <v>126.7458061042081</v>
       </c>
       <c r="K13" t="n">
-        <v>88.2262143767183</v>
+        <v>77.72166293489558</v>
       </c>
       <c r="L13" t="n">
-        <v>59.27569846418345</v>
+        <v>45.8334892091311</v>
       </c>
       <c r="M13" t="n">
-        <v>53.81519614675737</v>
+        <v>39.64227122411658</v>
       </c>
       <c r="N13" t="n">
-        <v>44.43848373237326</v>
+        <v>30.60255928634805</v>
       </c>
       <c r="O13" t="n">
-        <v>63.26597710615634</v>
+        <v>50.48626147098734</v>
       </c>
       <c r="P13" t="n">
-        <v>80.54391191246145</v>
+        <v>69.60865742247636</v>
       </c>
       <c r="Q13" t="n">
-        <v>142.493864959141</v>
+        <v>134.9228615686379</v>
       </c>
       <c r="R13" t="n">
-        <v>211.6331360021768</v>
+        <v>207.5677595208579</v>
       </c>
       <c r="S13" t="n">
-        <v>238.6174795018098</v>
+        <v>237.0417967855364</v>
       </c>
       <c r="T13" t="n">
-        <v>224.541075671891</v>
+        <v>224.154758052356</v>
       </c>
       <c r="U13" t="n">
-        <v>288.6665082522452</v>
+        <v>288.6615765379532</v>
       </c>
       <c r="V13" t="n">
         <v>245.1090151844499</v>
@@ -23507,22 +23509,22 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G14" t="n">
-        <v>419.2448920946117</v>
+        <v>419.0433278923953</v>
       </c>
       <c r="H14" t="n">
-        <v>351.1867109187684</v>
+        <v>349.1224415328191</v>
       </c>
       <c r="I14" t="n">
-        <v>256.6898085504863</v>
+        <v>248.9190046445362</v>
       </c>
       <c r="J14" t="n">
-        <v>111.3013968910535</v>
+        <v>94.19388718318407</v>
       </c>
       <c r="K14" t="n">
-        <v>58.46339092876153</v>
+        <v>32.82366854106931</v>
       </c>
       <c r="L14" t="n">
-        <v>16.99055923469257</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -23531,25 +23533,25 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>33.96130047619883</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>73.5786919263081</v>
+        <v>44.59350769232816</v>
       </c>
       <c r="Q14" t="n">
-        <v>133.6328276992101</v>
+        <v>111.8661614571072</v>
       </c>
       <c r="R14" t="n">
-        <v>220.4301160555486</v>
+        <v>207.7686087380687</v>
       </c>
       <c r="S14" t="n">
-        <v>236.785106778059</v>
+        <v>232.1919625200514</v>
       </c>
       <c r="T14" t="n">
-        <v>224.246294399988</v>
+        <v>223.3639471047855</v>
       </c>
       <c r="U14" t="n">
-        <v>250.1830790232068</v>
+        <v>250.1669538870295</v>
       </c>
       <c r="V14" t="n">
         <v>320.879783609152</v>
@@ -23586,16 +23588,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
-        <v>148.9622183950918</v>
+        <v>148.8543720391606</v>
       </c>
       <c r="H15" t="n">
-        <v>127.8372169228968</v>
+        <v>126.7956481695613</v>
       </c>
       <c r="I15" t="n">
-        <v>114.855819447717</v>
+        <v>111.1426883334193</v>
       </c>
       <c r="J15" t="n">
-        <v>73.03491363274843</v>
+        <v>62.8457980489157</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23616,19 +23618,19 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>34.64768193211606</v>
+        <v>20.88118919956569</v>
       </c>
       <c r="R15" t="n">
-        <v>148.2309527983001</v>
+        <v>141.5350185239054</v>
       </c>
       <c r="S15" t="n">
-        <v>195.63287444794</v>
+        <v>193.6296756875513</v>
       </c>
       <c r="T15" t="n">
-        <v>215.8480604164874</v>
+        <v>215.4133639204314</v>
       </c>
       <c r="U15" t="n">
-        <v>237.2423862021824</v>
+        <v>237.2352910471869</v>
       </c>
       <c r="V15" t="n">
         <v>240.6489209154022</v>
@@ -23665,49 +23667,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
-        <v>168.883215127945</v>
+        <v>168.7928003659262</v>
       </c>
       <c r="H16" t="n">
-        <v>167.4464568944399</v>
+        <v>166.6425874648544</v>
       </c>
       <c r="I16" t="n">
-        <v>170.3394424699794</v>
+        <v>167.6204239903589</v>
       </c>
       <c r="J16" t="n">
-        <v>133.1381297789385</v>
+        <v>126.7458061042081</v>
       </c>
       <c r="K16" t="n">
-        <v>88.2262143767183</v>
+        <v>77.72166293489558</v>
       </c>
       <c r="L16" t="n">
-        <v>59.27569846418345</v>
+        <v>45.8334892091311</v>
       </c>
       <c r="M16" t="n">
-        <v>53.81519614675737</v>
+        <v>39.64227122411658</v>
       </c>
       <c r="N16" t="n">
-        <v>44.43848373237326</v>
+        <v>30.60255928634805</v>
       </c>
       <c r="O16" t="n">
-        <v>63.26597710615634</v>
+        <v>50.48626147098734</v>
       </c>
       <c r="P16" t="n">
-        <v>80.54391191246145</v>
+        <v>69.60865742247636</v>
       </c>
       <c r="Q16" t="n">
-        <v>142.493864959141</v>
+        <v>134.9228615686379</v>
       </c>
       <c r="R16" t="n">
-        <v>211.6331360021768</v>
+        <v>207.5677595208579</v>
       </c>
       <c r="S16" t="n">
-        <v>238.6174795018098</v>
+        <v>237.0417967855364</v>
       </c>
       <c r="T16" t="n">
-        <v>224.541075671891</v>
+        <v>224.154758052356</v>
       </c>
       <c r="U16" t="n">
-        <v>288.6665082522452</v>
+        <v>288.6615765379532</v>
       </c>
       <c r="V16" t="n">
         <v>245.1090151844499</v>
@@ -23744,22 +23746,22 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G17" t="n">
-        <v>419.2448920946117</v>
+        <v>419.0433278923953</v>
       </c>
       <c r="H17" t="n">
-        <v>351.1867109187684</v>
+        <v>349.1224415328191</v>
       </c>
       <c r="I17" t="n">
-        <v>256.6898085504863</v>
+        <v>248.9190046445362</v>
       </c>
       <c r="J17" t="n">
-        <v>111.3013968910535</v>
+        <v>94.19388718318407</v>
       </c>
       <c r="K17" t="n">
-        <v>58.46339092876153</v>
+        <v>32.82366854106931</v>
       </c>
       <c r="L17" t="n">
-        <v>16.99055923469257</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -23768,25 +23770,25 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>33.96130047619883</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>73.5786919263081</v>
+        <v>44.59350769232816</v>
       </c>
       <c r="Q17" t="n">
-        <v>133.6328276992101</v>
+        <v>111.8661614571072</v>
       </c>
       <c r="R17" t="n">
-        <v>220.4301160555486</v>
+        <v>207.7686087380687</v>
       </c>
       <c r="S17" t="n">
-        <v>236.785106778059</v>
+        <v>232.1919625200514</v>
       </c>
       <c r="T17" t="n">
-        <v>224.246294399988</v>
+        <v>223.3639471047855</v>
       </c>
       <c r="U17" t="n">
-        <v>250.1830790232068</v>
+        <v>250.1669538870295</v>
       </c>
       <c r="V17" t="n">
         <v>320.879783609152</v>
@@ -23823,16 +23825,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>148.9622183950918</v>
+        <v>148.8543720391606</v>
       </c>
       <c r="H18" t="n">
-        <v>127.8372169228968</v>
+        <v>126.7956481695613</v>
       </c>
       <c r="I18" t="n">
-        <v>114.855819447717</v>
+        <v>111.1426883334193</v>
       </c>
       <c r="J18" t="n">
-        <v>73.03491363274843</v>
+        <v>62.8457980489157</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23853,19 +23855,19 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>34.64768193211606</v>
+        <v>20.88118919956569</v>
       </c>
       <c r="R18" t="n">
-        <v>148.2309527983001</v>
+        <v>141.5350185239054</v>
       </c>
       <c r="S18" t="n">
-        <v>195.63287444794</v>
+        <v>193.6296756875513</v>
       </c>
       <c r="T18" t="n">
-        <v>215.8480604164874</v>
+        <v>215.4133639204314</v>
       </c>
       <c r="U18" t="n">
-        <v>237.2423862021824</v>
+        <v>237.2352910471869</v>
       </c>
       <c r="V18" t="n">
         <v>240.6489209154022</v>
@@ -23902,49 +23904,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G19" t="n">
-        <v>168.883215127945</v>
+        <v>168.7928003659262</v>
       </c>
       <c r="H19" t="n">
-        <v>167.4464568944399</v>
+        <v>166.6425874648544</v>
       </c>
       <c r="I19" t="n">
-        <v>170.3394424699794</v>
+        <v>167.6204239903589</v>
       </c>
       <c r="J19" t="n">
-        <v>133.1381297789385</v>
+        <v>126.7458061042081</v>
       </c>
       <c r="K19" t="n">
-        <v>88.2262143767183</v>
+        <v>77.72166293489558</v>
       </c>
       <c r="L19" t="n">
-        <v>59.27569846418345</v>
+        <v>45.8334892091311</v>
       </c>
       <c r="M19" t="n">
-        <v>53.81519614675737</v>
+        <v>39.64227122411658</v>
       </c>
       <c r="N19" t="n">
-        <v>44.43848373237326</v>
+        <v>30.60255928634805</v>
       </c>
       <c r="O19" t="n">
-        <v>63.26597710615634</v>
+        <v>50.48626147098734</v>
       </c>
       <c r="P19" t="n">
-        <v>80.54391191246145</v>
+        <v>69.60865742247636</v>
       </c>
       <c r="Q19" t="n">
-        <v>142.493864959141</v>
+        <v>134.9228615686379</v>
       </c>
       <c r="R19" t="n">
-        <v>211.6331360021768</v>
+        <v>207.5677595208579</v>
       </c>
       <c r="S19" t="n">
-        <v>238.6174795018098</v>
+        <v>237.0417967855364</v>
       </c>
       <c r="T19" t="n">
-        <v>224.541075671891</v>
+        <v>224.154758052356</v>
       </c>
       <c r="U19" t="n">
-        <v>288.6665082522452</v>
+        <v>288.6615765379532</v>
       </c>
       <c r="V19" t="n">
         <v>245.1090151844499</v>
@@ -23981,22 +23983,22 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G20" t="n">
-        <v>419.2448920946117</v>
+        <v>419.0433278923953</v>
       </c>
       <c r="H20" t="n">
-        <v>351.1867109187684</v>
+        <v>349.1224415328191</v>
       </c>
       <c r="I20" t="n">
-        <v>256.6898085504863</v>
+        <v>248.9190046445362</v>
       </c>
       <c r="J20" t="n">
-        <v>111.3013968910535</v>
+        <v>94.19388718318407</v>
       </c>
       <c r="K20" t="n">
-        <v>58.46339092876153</v>
+        <v>32.82366854106931</v>
       </c>
       <c r="L20" t="n">
-        <v>16.99055923469257</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -24005,25 +24007,25 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>33.96130047619883</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>73.5786919263081</v>
+        <v>44.59350769232816</v>
       </c>
       <c r="Q20" t="n">
-        <v>133.6328276992101</v>
+        <v>111.8661614571072</v>
       </c>
       <c r="R20" t="n">
-        <v>220.4301160555486</v>
+        <v>207.7686087380687</v>
       </c>
       <c r="S20" t="n">
-        <v>236.785106778059</v>
+        <v>232.1919625200514</v>
       </c>
       <c r="T20" t="n">
-        <v>224.246294399988</v>
+        <v>223.3639471047855</v>
       </c>
       <c r="U20" t="n">
-        <v>250.1830790232068</v>
+        <v>250.1669538870295</v>
       </c>
       <c r="V20" t="n">
         <v>320.879783609152</v>
@@ -24060,16 +24062,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>148.9622183950918</v>
+        <v>148.8543720391606</v>
       </c>
       <c r="H21" t="n">
-        <v>127.8372169228968</v>
+        <v>126.7956481695613</v>
       </c>
       <c r="I21" t="n">
-        <v>114.855819447717</v>
+        <v>111.1426883334193</v>
       </c>
       <c r="J21" t="n">
-        <v>73.03491363274843</v>
+        <v>62.8457980489157</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24090,19 +24092,19 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>34.64768193211606</v>
+        <v>20.88118919956569</v>
       </c>
       <c r="R21" t="n">
-        <v>148.2309527983001</v>
+        <v>141.5350185239054</v>
       </c>
       <c r="S21" t="n">
-        <v>195.63287444794</v>
+        <v>193.6296756875513</v>
       </c>
       <c r="T21" t="n">
-        <v>215.8480604164874</v>
+        <v>215.4133639204314</v>
       </c>
       <c r="U21" t="n">
-        <v>237.2423862021824</v>
+        <v>237.2352910471869</v>
       </c>
       <c r="V21" t="n">
         <v>240.6489209154022</v>
@@ -24139,49 +24141,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G22" t="n">
-        <v>168.883215127945</v>
+        <v>168.7928003659262</v>
       </c>
       <c r="H22" t="n">
-        <v>167.4464568944399</v>
+        <v>166.6425874648544</v>
       </c>
       <c r="I22" t="n">
-        <v>170.3394424699794</v>
+        <v>167.6204239903589</v>
       </c>
       <c r="J22" t="n">
-        <v>133.1381297789385</v>
+        <v>126.7458061042081</v>
       </c>
       <c r="K22" t="n">
-        <v>88.2262143767183</v>
+        <v>77.72166293489558</v>
       </c>
       <c r="L22" t="n">
-        <v>59.27569846418345</v>
+        <v>45.8334892091311</v>
       </c>
       <c r="M22" t="n">
-        <v>53.81519614675737</v>
+        <v>39.64227122411658</v>
       </c>
       <c r="N22" t="n">
-        <v>44.43848373237326</v>
+        <v>30.60255928634805</v>
       </c>
       <c r="O22" t="n">
-        <v>63.26597710615634</v>
+        <v>50.48626147098734</v>
       </c>
       <c r="P22" t="n">
-        <v>80.54391191246145</v>
+        <v>69.60865742247636</v>
       </c>
       <c r="Q22" t="n">
-        <v>142.493864959141</v>
+        <v>134.9228615686379</v>
       </c>
       <c r="R22" t="n">
-        <v>211.6331360021768</v>
+        <v>207.5677595208579</v>
       </c>
       <c r="S22" t="n">
-        <v>238.6174795018098</v>
+        <v>237.0417967855364</v>
       </c>
       <c r="T22" t="n">
-        <v>224.541075671891</v>
+        <v>224.154758052356</v>
       </c>
       <c r="U22" t="n">
-        <v>288.6665082522452</v>
+        <v>288.6615765379532</v>
       </c>
       <c r="V22" t="n">
         <v>245.1090151844499</v>
@@ -24218,22 +24220,22 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G23" t="n">
-        <v>419.2448920946117</v>
+        <v>419.0433278923953</v>
       </c>
       <c r="H23" t="n">
-        <v>351.1867109187684</v>
+        <v>349.1224415328191</v>
       </c>
       <c r="I23" t="n">
-        <v>256.6898085504863</v>
+        <v>248.9190046445362</v>
       </c>
       <c r="J23" t="n">
-        <v>111.3013968910535</v>
+        <v>94.19388718318407</v>
       </c>
       <c r="K23" t="n">
-        <v>58.46339092876153</v>
+        <v>32.82366854106931</v>
       </c>
       <c r="L23" t="n">
-        <v>16.99055923469257</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -24242,25 +24244,25 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>33.96130047619883</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>73.5786919263081</v>
+        <v>44.59350769232816</v>
       </c>
       <c r="Q23" t="n">
-        <v>133.6328276992101</v>
+        <v>111.8661614571072</v>
       </c>
       <c r="R23" t="n">
-        <v>220.4301160555486</v>
+        <v>207.7686087380687</v>
       </c>
       <c r="S23" t="n">
-        <v>236.785106778059</v>
+        <v>232.1919625200514</v>
       </c>
       <c r="T23" t="n">
-        <v>224.246294399988</v>
+        <v>223.3639471047855</v>
       </c>
       <c r="U23" t="n">
-        <v>250.1830790232068</v>
+        <v>250.1669538870295</v>
       </c>
       <c r="V23" t="n">
         <v>320.879783609152</v>
@@ -24297,16 +24299,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>148.9622183950918</v>
+        <v>148.8543720391606</v>
       </c>
       <c r="H24" t="n">
-        <v>127.8372169228968</v>
+        <v>126.7956481695613</v>
       </c>
       <c r="I24" t="n">
-        <v>114.855819447717</v>
+        <v>111.1426883334193</v>
       </c>
       <c r="J24" t="n">
-        <v>73.03491363274843</v>
+        <v>62.8457980489157</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24327,19 +24329,19 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>34.64768193211606</v>
+        <v>20.88118919956569</v>
       </c>
       <c r="R24" t="n">
-        <v>148.2309527983001</v>
+        <v>141.5350185239054</v>
       </c>
       <c r="S24" t="n">
-        <v>195.63287444794</v>
+        <v>193.6296756875513</v>
       </c>
       <c r="T24" t="n">
-        <v>215.8480604164874</v>
+        <v>215.4133639204314</v>
       </c>
       <c r="U24" t="n">
-        <v>237.2423862021824</v>
+        <v>237.2352910471869</v>
       </c>
       <c r="V24" t="n">
         <v>240.6489209154022</v>
@@ -24376,49 +24378,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G25" t="n">
-        <v>168.883215127945</v>
+        <v>168.7928003659262</v>
       </c>
       <c r="H25" t="n">
-        <v>167.4464568944399</v>
+        <v>166.6425874648544</v>
       </c>
       <c r="I25" t="n">
-        <v>170.3394424699794</v>
+        <v>167.6204239903589</v>
       </c>
       <c r="J25" t="n">
-        <v>133.1381297789385</v>
+        <v>126.7458061042081</v>
       </c>
       <c r="K25" t="n">
-        <v>88.2262143767183</v>
+        <v>77.72166293489558</v>
       </c>
       <c r="L25" t="n">
-        <v>59.27569846418345</v>
+        <v>45.8334892091311</v>
       </c>
       <c r="M25" t="n">
-        <v>53.81519614675737</v>
+        <v>39.64227122411658</v>
       </c>
       <c r="N25" t="n">
-        <v>44.43848373237326</v>
+        <v>30.60255928634805</v>
       </c>
       <c r="O25" t="n">
-        <v>63.26597710615634</v>
+        <v>50.48626147098734</v>
       </c>
       <c r="P25" t="n">
-        <v>80.54391191246145</v>
+        <v>69.60865742247636</v>
       </c>
       <c r="Q25" t="n">
-        <v>142.493864959141</v>
+        <v>134.9228615686379</v>
       </c>
       <c r="R25" t="n">
-        <v>211.6331360021768</v>
+        <v>207.5677595208579</v>
       </c>
       <c r="S25" t="n">
-        <v>238.6174795018098</v>
+        <v>237.0417967855364</v>
       </c>
       <c r="T25" t="n">
-        <v>224.541075671891</v>
+        <v>224.154758052356</v>
       </c>
       <c r="U25" t="n">
-        <v>288.6665082522452</v>
+        <v>288.6615765379532</v>
       </c>
       <c r="V25" t="n">
         <v>245.1090151844499</v>
@@ -24455,22 +24457,22 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G26" t="n">
-        <v>419.2448920946117</v>
+        <v>419.0433278923953</v>
       </c>
       <c r="H26" t="n">
-        <v>351.1867109187684</v>
+        <v>349.1224415328191</v>
       </c>
       <c r="I26" t="n">
-        <v>256.6898085504863</v>
+        <v>248.9190046445362</v>
       </c>
       <c r="J26" t="n">
-        <v>111.3013968910535</v>
+        <v>94.19388718318407</v>
       </c>
       <c r="K26" t="n">
-        <v>58.46339092876153</v>
+        <v>32.82366854106931</v>
       </c>
       <c r="L26" t="n">
-        <v>16.99055923469257</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -24479,25 +24481,25 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>33.96130047619883</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>73.5786919263081</v>
+        <v>44.59350769232816</v>
       </c>
       <c r="Q26" t="n">
-        <v>133.6328276992101</v>
+        <v>111.8661614571072</v>
       </c>
       <c r="R26" t="n">
-        <v>220.4301160555486</v>
+        <v>207.7686087380687</v>
       </c>
       <c r="S26" t="n">
-        <v>236.785106778059</v>
+        <v>232.1919625200514</v>
       </c>
       <c r="T26" t="n">
-        <v>224.246294399988</v>
+        <v>223.3639471047855</v>
       </c>
       <c r="U26" t="n">
-        <v>250.1830790232068</v>
+        <v>250.1669538870295</v>
       </c>
       <c r="V26" t="n">
         <v>320.879783609152</v>
@@ -24534,16 +24536,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>148.9622183950918</v>
+        <v>148.8543720391606</v>
       </c>
       <c r="H27" t="n">
-        <v>127.8372169228968</v>
+        <v>126.7956481695613</v>
       </c>
       <c r="I27" t="n">
-        <v>114.855819447717</v>
+        <v>111.1426883334193</v>
       </c>
       <c r="J27" t="n">
-        <v>73.03491363274843</v>
+        <v>62.8457980489157</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24564,19 +24566,19 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>34.64768193211606</v>
+        <v>20.88118919956569</v>
       </c>
       <c r="R27" t="n">
-        <v>148.2309527983001</v>
+        <v>141.5350185239054</v>
       </c>
       <c r="S27" t="n">
-        <v>195.63287444794</v>
+        <v>193.6296756875513</v>
       </c>
       <c r="T27" t="n">
-        <v>215.8480604164874</v>
+        <v>215.4133639204314</v>
       </c>
       <c r="U27" t="n">
-        <v>237.2423862021824</v>
+        <v>237.2352910471869</v>
       </c>
       <c r="V27" t="n">
         <v>240.6489209154022</v>
@@ -24613,49 +24615,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
-        <v>168.883215127945</v>
+        <v>168.7928003659262</v>
       </c>
       <c r="H28" t="n">
-        <v>167.4464568944399</v>
+        <v>166.6425874648544</v>
       </c>
       <c r="I28" t="n">
-        <v>170.3394424699794</v>
+        <v>167.6204239903589</v>
       </c>
       <c r="J28" t="n">
-        <v>133.1381297789385</v>
+        <v>126.7458061042081</v>
       </c>
       <c r="K28" t="n">
-        <v>88.2262143767183</v>
+        <v>77.72166293489558</v>
       </c>
       <c r="L28" t="n">
-        <v>59.27569846418345</v>
+        <v>45.8334892091311</v>
       </c>
       <c r="M28" t="n">
-        <v>53.81519614675737</v>
+        <v>39.64227122411658</v>
       </c>
       <c r="N28" t="n">
-        <v>44.43848373237326</v>
+        <v>30.60255928634805</v>
       </c>
       <c r="O28" t="n">
-        <v>63.26597710615634</v>
+        <v>50.48626147098734</v>
       </c>
       <c r="P28" t="n">
-        <v>80.54391191246145</v>
+        <v>69.60865742247636</v>
       </c>
       <c r="Q28" t="n">
-        <v>142.493864959141</v>
+        <v>134.9228615686379</v>
       </c>
       <c r="R28" t="n">
-        <v>211.6331360021768</v>
+        <v>207.5677595208579</v>
       </c>
       <c r="S28" t="n">
-        <v>238.6174795018098</v>
+        <v>237.0417967855364</v>
       </c>
       <c r="T28" t="n">
-        <v>224.541075671891</v>
+        <v>224.154758052356</v>
       </c>
       <c r="U28" t="n">
-        <v>288.6665082522452</v>
+        <v>288.6615765379532</v>
       </c>
       <c r="V28" t="n">
         <v>245.1090151844499</v>
@@ -24692,22 +24694,22 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G29" t="n">
-        <v>419.2448920946117</v>
+        <v>419.0433278923953</v>
       </c>
       <c r="H29" t="n">
-        <v>351.1867109187684</v>
+        <v>349.1224415328191</v>
       </c>
       <c r="I29" t="n">
-        <v>256.6898085504863</v>
+        <v>248.9190046445362</v>
       </c>
       <c r="J29" t="n">
-        <v>111.3013968910535</v>
+        <v>94.19388718318407</v>
       </c>
       <c r="K29" t="n">
-        <v>58.46339092876153</v>
+        <v>32.82366854106931</v>
       </c>
       <c r="L29" t="n">
-        <v>16.99055923469257</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -24716,25 +24718,25 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>33.96130047619883</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>73.5786919263081</v>
+        <v>44.59350769232816</v>
       </c>
       <c r="Q29" t="n">
-        <v>133.6328276992101</v>
+        <v>111.8661614571072</v>
       </c>
       <c r="R29" t="n">
-        <v>220.4301160555486</v>
+        <v>207.7686087380687</v>
       </c>
       <c r="S29" t="n">
-        <v>236.785106778059</v>
+        <v>232.1919625200514</v>
       </c>
       <c r="T29" t="n">
-        <v>224.246294399988</v>
+        <v>223.3639471047855</v>
       </c>
       <c r="U29" t="n">
-        <v>250.1830790232068</v>
+        <v>250.1669538870295</v>
       </c>
       <c r="V29" t="n">
         <v>320.879783609152</v>
@@ -24771,16 +24773,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>148.9622183950918</v>
+        <v>148.8543720391606</v>
       </c>
       <c r="H30" t="n">
-        <v>127.8372169228968</v>
+        <v>126.7956481695613</v>
       </c>
       <c r="I30" t="n">
-        <v>114.855819447717</v>
+        <v>111.1426883334193</v>
       </c>
       <c r="J30" t="n">
-        <v>73.03491363274843</v>
+        <v>62.8457980489157</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24801,19 +24803,19 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>34.64768193211606</v>
+        <v>20.88118919956569</v>
       </c>
       <c r="R30" t="n">
-        <v>148.2309527983001</v>
+        <v>141.5350185239054</v>
       </c>
       <c r="S30" t="n">
-        <v>195.63287444794</v>
+        <v>193.6296756875513</v>
       </c>
       <c r="T30" t="n">
-        <v>215.8480604164874</v>
+        <v>215.4133639204314</v>
       </c>
       <c r="U30" t="n">
-        <v>237.2423862021824</v>
+        <v>237.2352910471869</v>
       </c>
       <c r="V30" t="n">
         <v>240.6489209154022</v>
@@ -24850,49 +24852,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G31" t="n">
-        <v>168.883215127945</v>
+        <v>168.7928003659262</v>
       </c>
       <c r="H31" t="n">
-        <v>167.4464568944399</v>
+        <v>166.6425874648544</v>
       </c>
       <c r="I31" t="n">
-        <v>170.3394424699794</v>
+        <v>167.6204239903589</v>
       </c>
       <c r="J31" t="n">
-        <v>133.1381297789385</v>
+        <v>126.7458061042081</v>
       </c>
       <c r="K31" t="n">
-        <v>88.2262143767183</v>
+        <v>77.72166293489558</v>
       </c>
       <c r="L31" t="n">
-        <v>59.27569846418345</v>
+        <v>45.8334892091311</v>
       </c>
       <c r="M31" t="n">
-        <v>53.81519614675737</v>
+        <v>39.64227122411658</v>
       </c>
       <c r="N31" t="n">
-        <v>44.43848373237326</v>
+        <v>30.60255928634805</v>
       </c>
       <c r="O31" t="n">
-        <v>63.26597710615634</v>
+        <v>50.48626147098734</v>
       </c>
       <c r="P31" t="n">
-        <v>80.54391191246145</v>
+        <v>69.60865742247636</v>
       </c>
       <c r="Q31" t="n">
-        <v>142.493864959141</v>
+        <v>134.9228615686379</v>
       </c>
       <c r="R31" t="n">
-        <v>211.6331360021768</v>
+        <v>207.5677595208579</v>
       </c>
       <c r="S31" t="n">
-        <v>238.6174795018098</v>
+        <v>237.0417967855364</v>
       </c>
       <c r="T31" t="n">
-        <v>224.541075671891</v>
+        <v>224.154758052356</v>
       </c>
       <c r="U31" t="n">
-        <v>288.6665082522452</v>
+        <v>288.6615765379532</v>
       </c>
       <c r="V31" t="n">
         <v>245.1090151844499</v>
@@ -24929,22 +24931,22 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G32" t="n">
-        <v>419.2448920946117</v>
+        <v>419.0433278923953</v>
       </c>
       <c r="H32" t="n">
-        <v>351.1867109187684</v>
+        <v>349.1224415328191</v>
       </c>
       <c r="I32" t="n">
-        <v>256.6898085504863</v>
+        <v>248.9190046445362</v>
       </c>
       <c r="J32" t="n">
-        <v>111.3013968910535</v>
+        <v>94.19388718318407</v>
       </c>
       <c r="K32" t="n">
-        <v>58.46339092876153</v>
+        <v>32.82366854106931</v>
       </c>
       <c r="L32" t="n">
-        <v>16.99055923469257</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -24953,25 +24955,25 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>33.96130047619883</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>73.5786919263081</v>
+        <v>44.59350769232816</v>
       </c>
       <c r="Q32" t="n">
-        <v>133.6328276992101</v>
+        <v>111.8661614571072</v>
       </c>
       <c r="R32" t="n">
-        <v>220.4301160555486</v>
+        <v>207.7686087380687</v>
       </c>
       <c r="S32" t="n">
-        <v>236.785106778059</v>
+        <v>232.1919625200514</v>
       </c>
       <c r="T32" t="n">
-        <v>224.246294399988</v>
+        <v>223.3639471047855</v>
       </c>
       <c r="U32" t="n">
-        <v>250.1830790232068</v>
+        <v>250.1669538870295</v>
       </c>
       <c r="V32" t="n">
         <v>320.879783609152</v>
@@ -25008,16 +25010,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
-        <v>148.9622183950918</v>
+        <v>148.8543720391606</v>
       </c>
       <c r="H33" t="n">
-        <v>127.8372169228968</v>
+        <v>126.7956481695613</v>
       </c>
       <c r="I33" t="n">
-        <v>114.855819447717</v>
+        <v>111.1426883334193</v>
       </c>
       <c r="J33" t="n">
-        <v>73.03491363274843</v>
+        <v>62.8457980489157</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25038,19 +25040,19 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>34.64768193211606</v>
+        <v>20.88118919956569</v>
       </c>
       <c r="R33" t="n">
-        <v>148.2309527983001</v>
+        <v>141.5350185239054</v>
       </c>
       <c r="S33" t="n">
-        <v>195.63287444794</v>
+        <v>193.6296756875513</v>
       </c>
       <c r="T33" t="n">
-        <v>215.8480604164874</v>
+        <v>215.4133639204314</v>
       </c>
       <c r="U33" t="n">
-        <v>237.2423862021824</v>
+        <v>237.2352910471869</v>
       </c>
       <c r="V33" t="n">
         <v>240.6489209154022</v>
@@ -25087,49 +25089,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
-        <v>168.883215127945</v>
+        <v>168.7928003659262</v>
       </c>
       <c r="H34" t="n">
-        <v>167.4464568944399</v>
+        <v>166.6425874648544</v>
       </c>
       <c r="I34" t="n">
-        <v>170.3394424699794</v>
+        <v>167.6204239903589</v>
       </c>
       <c r="J34" t="n">
-        <v>133.1381297789385</v>
+        <v>126.7458061042081</v>
       </c>
       <c r="K34" t="n">
-        <v>88.2262143767183</v>
+        <v>77.72166293489558</v>
       </c>
       <c r="L34" t="n">
-        <v>59.27569846418345</v>
+        <v>45.83348920913111</v>
       </c>
       <c r="M34" t="n">
-        <v>53.81519614675737</v>
+        <v>39.64227122411658</v>
       </c>
       <c r="N34" t="n">
-        <v>44.43848373237326</v>
+        <v>30.60255928634805</v>
       </c>
       <c r="O34" t="n">
-        <v>63.26597710615634</v>
+        <v>50.48626147098734</v>
       </c>
       <c r="P34" t="n">
-        <v>80.54391191246145</v>
+        <v>69.60865742247636</v>
       </c>
       <c r="Q34" t="n">
-        <v>142.493864959141</v>
+        <v>134.9228615686379</v>
       </c>
       <c r="R34" t="n">
-        <v>211.6331360021768</v>
+        <v>207.5677595208579</v>
       </c>
       <c r="S34" t="n">
-        <v>238.6174795018098</v>
+        <v>237.0417967855364</v>
       </c>
       <c r="T34" t="n">
-        <v>224.541075671891</v>
+        <v>224.154758052356</v>
       </c>
       <c r="U34" t="n">
-        <v>288.6665082522452</v>
+        <v>288.6615765379532</v>
       </c>
       <c r="V34" t="n">
         <v>245.1090151844499</v>
@@ -25166,22 +25168,22 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G35" t="n">
-        <v>419.2448920946117</v>
+        <v>419.0433278923953</v>
       </c>
       <c r="H35" t="n">
-        <v>351.1867109187684</v>
+        <v>349.1224415328191</v>
       </c>
       <c r="I35" t="n">
-        <v>256.6898085504863</v>
+        <v>248.9190046445362</v>
       </c>
       <c r="J35" t="n">
-        <v>111.3013968910535</v>
+        <v>94.19388718318407</v>
       </c>
       <c r="K35" t="n">
-        <v>58.46339092876153</v>
+        <v>32.82366854106931</v>
       </c>
       <c r="L35" t="n">
-        <v>16.99055923469257</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -25190,25 +25192,25 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>33.96130047619883</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>73.5786919263081</v>
+        <v>44.59350769232816</v>
       </c>
       <c r="Q35" t="n">
-        <v>133.6328276992101</v>
+        <v>111.8661614571072</v>
       </c>
       <c r="R35" t="n">
-        <v>220.4301160555486</v>
+        <v>207.7686087380687</v>
       </c>
       <c r="S35" t="n">
-        <v>236.785106778059</v>
+        <v>232.1919625200514</v>
       </c>
       <c r="T35" t="n">
-        <v>224.246294399988</v>
+        <v>223.3639471047855</v>
       </c>
       <c r="U35" t="n">
-        <v>250.1830790232068</v>
+        <v>250.1669538870295</v>
       </c>
       <c r="V35" t="n">
         <v>320.879783609152</v>
@@ -25245,16 +25247,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>148.9622183950918</v>
+        <v>148.8543720391606</v>
       </c>
       <c r="H36" t="n">
-        <v>127.8372169228968</v>
+        <v>126.7956481695613</v>
       </c>
       <c r="I36" t="n">
-        <v>114.855819447717</v>
+        <v>111.1426883334193</v>
       </c>
       <c r="J36" t="n">
-        <v>73.03491363274843</v>
+        <v>62.8457980489157</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25275,19 +25277,19 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>34.64768193211606</v>
+        <v>20.88118919956569</v>
       </c>
       <c r="R36" t="n">
-        <v>148.2309527983001</v>
+        <v>141.5350185239054</v>
       </c>
       <c r="S36" t="n">
-        <v>195.63287444794</v>
+        <v>193.6296756875513</v>
       </c>
       <c r="T36" t="n">
-        <v>215.8480604164874</v>
+        <v>215.4133639204314</v>
       </c>
       <c r="U36" t="n">
-        <v>237.2423862021824</v>
+        <v>237.2352910471869</v>
       </c>
       <c r="V36" t="n">
         <v>240.6489209154022</v>
@@ -25324,49 +25326,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G37" t="n">
-        <v>168.883215127945</v>
+        <v>168.7928003659262</v>
       </c>
       <c r="H37" t="n">
-        <v>167.4464568944399</v>
+        <v>166.6425874648544</v>
       </c>
       <c r="I37" t="n">
-        <v>170.3394424699794</v>
+        <v>167.6204239903589</v>
       </c>
       <c r="J37" t="n">
-        <v>133.1381297789385</v>
+        <v>126.7458061042081</v>
       </c>
       <c r="K37" t="n">
-        <v>88.2262143767183</v>
+        <v>77.72166293489558</v>
       </c>
       <c r="L37" t="n">
-        <v>59.27569846418345</v>
+        <v>45.8334892091311</v>
       </c>
       <c r="M37" t="n">
-        <v>53.81519614675737</v>
+        <v>39.64227122411658</v>
       </c>
       <c r="N37" t="n">
-        <v>44.43848373237326</v>
+        <v>30.60255928634805</v>
       </c>
       <c r="O37" t="n">
-        <v>63.26597710615634</v>
+        <v>50.48626147098734</v>
       </c>
       <c r="P37" t="n">
-        <v>80.54391191246145</v>
+        <v>69.60865742247636</v>
       </c>
       <c r="Q37" t="n">
-        <v>142.493864959141</v>
+        <v>134.9228615686379</v>
       </c>
       <c r="R37" t="n">
-        <v>211.6331360021768</v>
+        <v>207.5677595208579</v>
       </c>
       <c r="S37" t="n">
-        <v>238.6174795018098</v>
+        <v>237.0417967855364</v>
       </c>
       <c r="T37" t="n">
-        <v>224.541075671891</v>
+        <v>224.154758052356</v>
       </c>
       <c r="U37" t="n">
-        <v>288.6665082522452</v>
+        <v>288.6615765379532</v>
       </c>
       <c r="V37" t="n">
         <v>245.1090151844499</v>
@@ -25403,22 +25405,22 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G38" t="n">
-        <v>419.2448920946117</v>
+        <v>419.0433278923953</v>
       </c>
       <c r="H38" t="n">
-        <v>351.1867109187684</v>
+        <v>349.1224415328191</v>
       </c>
       <c r="I38" t="n">
-        <v>256.6898085504863</v>
+        <v>248.9190046445362</v>
       </c>
       <c r="J38" t="n">
-        <v>111.3013968910535</v>
+        <v>94.19388718318407</v>
       </c>
       <c r="K38" t="n">
-        <v>58.46339092876153</v>
+        <v>32.82366854106931</v>
       </c>
       <c r="L38" t="n">
-        <v>16.99055923469257</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -25427,25 +25429,25 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>33.96130047619883</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>73.5786919263081</v>
+        <v>44.59350769232816</v>
       </c>
       <c r="Q38" t="n">
-        <v>133.6328276992101</v>
+        <v>111.8661614571072</v>
       </c>
       <c r="R38" t="n">
-        <v>220.4301160555486</v>
+        <v>207.7686087380687</v>
       </c>
       <c r="S38" t="n">
-        <v>236.785106778059</v>
+        <v>232.1919625200514</v>
       </c>
       <c r="T38" t="n">
-        <v>224.246294399988</v>
+        <v>223.3639471047855</v>
       </c>
       <c r="U38" t="n">
-        <v>250.1830790232068</v>
+        <v>250.1669538870295</v>
       </c>
       <c r="V38" t="n">
         <v>320.879783609152</v>
@@ -25482,16 +25484,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>148.9622183950918</v>
+        <v>148.8543720391606</v>
       </c>
       <c r="H39" t="n">
-        <v>127.8372169228968</v>
+        <v>126.7956481695613</v>
       </c>
       <c r="I39" t="n">
-        <v>114.855819447717</v>
+        <v>111.1426883334193</v>
       </c>
       <c r="J39" t="n">
-        <v>73.03491363274843</v>
+        <v>62.8457980489157</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25512,19 +25514,19 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>34.64768193211606</v>
+        <v>20.88118919956569</v>
       </c>
       <c r="R39" t="n">
-        <v>148.2309527983001</v>
+        <v>141.5350185239054</v>
       </c>
       <c r="S39" t="n">
-        <v>195.63287444794</v>
+        <v>193.6296756875513</v>
       </c>
       <c r="T39" t="n">
-        <v>215.8480604164874</v>
+        <v>215.4133639204314</v>
       </c>
       <c r="U39" t="n">
-        <v>237.2423862021824</v>
+        <v>237.2352910471869</v>
       </c>
       <c r="V39" t="n">
         <v>240.6489209154022</v>
@@ -25561,49 +25563,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G40" t="n">
-        <v>168.883215127945</v>
+        <v>168.7928003659262</v>
       </c>
       <c r="H40" t="n">
-        <v>167.4464568944399</v>
+        <v>166.6425874648544</v>
       </c>
       <c r="I40" t="n">
-        <v>170.3394424699794</v>
+        <v>167.6204239903589</v>
       </c>
       <c r="J40" t="n">
-        <v>133.1381297789385</v>
+        <v>126.7458061042081</v>
       </c>
       <c r="K40" t="n">
-        <v>88.2262143767183</v>
+        <v>77.72166293489558</v>
       </c>
       <c r="L40" t="n">
-        <v>59.27569846418345</v>
+        <v>45.8334892091311</v>
       </c>
       <c r="M40" t="n">
-        <v>53.81519614675737</v>
+        <v>39.64227122411658</v>
       </c>
       <c r="N40" t="n">
-        <v>44.43848373237326</v>
+        <v>30.60255928634805</v>
       </c>
       <c r="O40" t="n">
-        <v>63.26597710615634</v>
+        <v>50.48626147098734</v>
       </c>
       <c r="P40" t="n">
-        <v>80.54391191246145</v>
+        <v>69.60865742247636</v>
       </c>
       <c r="Q40" t="n">
-        <v>142.493864959141</v>
+        <v>134.9228615686379</v>
       </c>
       <c r="R40" t="n">
-        <v>211.6331360021768</v>
+        <v>207.5677595208579</v>
       </c>
       <c r="S40" t="n">
-        <v>238.6174795018098</v>
+        <v>237.0417967855364</v>
       </c>
       <c r="T40" t="n">
-        <v>224.541075671891</v>
+        <v>224.154758052356</v>
       </c>
       <c r="U40" t="n">
-        <v>288.6665082522452</v>
+        <v>288.6615765379532</v>
       </c>
       <c r="V40" t="n">
         <v>245.1090151844499</v>
@@ -25640,22 +25642,22 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G41" t="n">
-        <v>419.2448920946117</v>
+        <v>419.0433278923953</v>
       </c>
       <c r="H41" t="n">
-        <v>351.1867109187684</v>
+        <v>349.1224415328191</v>
       </c>
       <c r="I41" t="n">
-        <v>256.6898085504863</v>
+        <v>248.9190046445362</v>
       </c>
       <c r="J41" t="n">
-        <v>111.3013968910535</v>
+        <v>94.19388718318407</v>
       </c>
       <c r="K41" t="n">
-        <v>58.46339092876153</v>
+        <v>32.82366854106931</v>
       </c>
       <c r="L41" t="n">
-        <v>16.99055923469257</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -25664,25 +25666,25 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>33.96130047619883</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>73.5786919263081</v>
+        <v>44.59350769232816</v>
       </c>
       <c r="Q41" t="n">
-        <v>133.6328276992101</v>
+        <v>111.8661614571072</v>
       </c>
       <c r="R41" t="n">
-        <v>220.4301160555486</v>
+        <v>207.7686087380687</v>
       </c>
       <c r="S41" t="n">
-        <v>236.785106778059</v>
+        <v>232.1919625200514</v>
       </c>
       <c r="T41" t="n">
-        <v>224.246294399988</v>
+        <v>223.3639471047855</v>
       </c>
       <c r="U41" t="n">
-        <v>250.1830790232068</v>
+        <v>250.1669538870295</v>
       </c>
       <c r="V41" t="n">
         <v>320.879783609152</v>
@@ -25719,16 +25721,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
-        <v>148.9622183950918</v>
+        <v>148.8543720391606</v>
       </c>
       <c r="H42" t="n">
-        <v>127.8372169228968</v>
+        <v>126.7956481695613</v>
       </c>
       <c r="I42" t="n">
-        <v>114.855819447717</v>
+        <v>111.1426883334193</v>
       </c>
       <c r="J42" t="n">
-        <v>73.03491363274843</v>
+        <v>62.8457980489157</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25749,19 +25751,19 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>34.64768193211606</v>
+        <v>20.88118919956569</v>
       </c>
       <c r="R42" t="n">
-        <v>148.2309527983001</v>
+        <v>141.5350185239054</v>
       </c>
       <c r="S42" t="n">
-        <v>195.63287444794</v>
+        <v>193.6296756875513</v>
       </c>
       <c r="T42" t="n">
-        <v>215.8480604164874</v>
+        <v>215.4133639204314</v>
       </c>
       <c r="U42" t="n">
-        <v>237.2423862021824</v>
+        <v>237.2352910471869</v>
       </c>
       <c r="V42" t="n">
         <v>240.6489209154022</v>
@@ -25798,49 +25800,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G43" t="n">
-        <v>168.883215127945</v>
+        <v>168.7928003659262</v>
       </c>
       <c r="H43" t="n">
-        <v>167.4464568944399</v>
+        <v>166.6425874648544</v>
       </c>
       <c r="I43" t="n">
-        <v>170.3394424699794</v>
+        <v>167.6204239903589</v>
       </c>
       <c r="J43" t="n">
-        <v>133.1381297789385</v>
+        <v>126.7458061042081</v>
       </c>
       <c r="K43" t="n">
-        <v>88.2262143767183</v>
+        <v>77.72166293489558</v>
       </c>
       <c r="L43" t="n">
-        <v>59.27569846418345</v>
+        <v>45.8334892091311</v>
       </c>
       <c r="M43" t="n">
-        <v>53.81519614675737</v>
+        <v>39.64227122411658</v>
       </c>
       <c r="N43" t="n">
-        <v>44.43848373237326</v>
+        <v>30.60255928634805</v>
       </c>
       <c r="O43" t="n">
-        <v>63.26597710615634</v>
+        <v>50.48626147098734</v>
       </c>
       <c r="P43" t="n">
-        <v>80.54391191246145</v>
+        <v>69.60865742247636</v>
       </c>
       <c r="Q43" t="n">
-        <v>142.493864959141</v>
+        <v>134.9228615686379</v>
       </c>
       <c r="R43" t="n">
-        <v>211.6331360021768</v>
+        <v>207.5677595208579</v>
       </c>
       <c r="S43" t="n">
-        <v>238.6174795018098</v>
+        <v>237.0417967855364</v>
       </c>
       <c r="T43" t="n">
-        <v>224.541075671891</v>
+        <v>224.154758052356</v>
       </c>
       <c r="U43" t="n">
-        <v>288.6665082522452</v>
+        <v>288.6615765379532</v>
       </c>
       <c r="V43" t="n">
         <v>245.1090151844499</v>
@@ -25877,22 +25879,22 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G44" t="n">
-        <v>419.2448920946117</v>
+        <v>418.7852877910533</v>
       </c>
       <c r="H44" t="n">
-        <v>351.1867109187684</v>
+        <v>346.4797883449514</v>
       </c>
       <c r="I44" t="n">
-        <v>256.6898085504863</v>
+        <v>238.9709136375527</v>
       </c>
       <c r="J44" t="n">
-        <v>111.3013968910535</v>
+        <v>72.29305613191724</v>
       </c>
       <c r="K44" t="n">
-        <v>58.46339092876153</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>16.99055923469257</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -25901,25 +25903,25 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>33.96130047619883</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>73.5786919263081</v>
+        <v>7.487018569236724</v>
       </c>
       <c r="Q44" t="n">
-        <v>133.6328276992101</v>
+        <v>84.00073346332248</v>
       </c>
       <c r="R44" t="n">
-        <v>220.4301160555486</v>
+        <v>191.5594972221508</v>
       </c>
       <c r="S44" t="n">
-        <v>236.785106778059</v>
+        <v>226.3118737107229</v>
       </c>
       <c r="T44" t="n">
-        <v>224.246294399988</v>
+        <v>222.2343765611613</v>
       </c>
       <c r="U44" t="n">
-        <v>250.1830790232068</v>
+        <v>250.1463106789221</v>
       </c>
       <c r="V44" t="n">
         <v>320.879783609152</v>
@@ -25956,16 +25958,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>148.9622183950918</v>
+        <v>148.7163084132398</v>
       </c>
       <c r="H45" t="n">
-        <v>127.8372169228968</v>
+        <v>125.4622442034314</v>
       </c>
       <c r="I45" t="n">
-        <v>114.855819447717</v>
+        <v>106.3891819146546</v>
       </c>
       <c r="J45" t="n">
-        <v>73.03491363274843</v>
+        <v>49.80181311049407</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25986,19 +25988,19 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>34.64768193211606</v>
+        <v>3.257488459218298</v>
       </c>
       <c r="R45" t="n">
-        <v>148.2309527983001</v>
+        <v>132.9629628724363</v>
       </c>
       <c r="S45" t="n">
-        <v>195.63287444794</v>
+        <v>191.0652043902942</v>
       </c>
       <c r="T45" t="n">
-        <v>215.8480604164874</v>
+        <v>214.8568706212155</v>
       </c>
       <c r="U45" t="n">
-        <v>237.2423862021824</v>
+        <v>237.2262079139026</v>
       </c>
       <c r="V45" t="n">
         <v>240.6489209154022</v>
@@ -26035,49 +26037,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G46" t="n">
-        <v>168.883215127945</v>
+        <v>168.6770524598119</v>
       </c>
       <c r="H46" t="n">
-        <v>167.4464568944399</v>
+        <v>165.6134833541297</v>
       </c>
       <c r="I46" t="n">
-        <v>170.3394424699794</v>
+        <v>164.1395687773966</v>
       </c>
       <c r="J46" t="n">
-        <v>133.1381297789385</v>
+        <v>118.5624291419324</v>
       </c>
       <c r="K46" t="n">
-        <v>88.2262143767183</v>
+        <v>64.27386075180667</v>
       </c>
       <c r="L46" t="n">
-        <v>59.27569846418345</v>
+        <v>28.62493233102187</v>
       </c>
       <c r="M46" t="n">
-        <v>53.81519614675737</v>
+        <v>21.49826081386603</v>
       </c>
       <c r="N46" t="n">
-        <v>44.43848373237326</v>
+        <v>12.88997288979596</v>
       </c>
       <c r="O46" t="n">
-        <v>63.26597710615634</v>
+        <v>34.12582106858778</v>
       </c>
       <c r="P46" t="n">
-        <v>80.54391191246145</v>
+        <v>55.60947430480697</v>
       </c>
       <c r="Q46" t="n">
-        <v>142.493864959141</v>
+        <v>125.2305528121096</v>
       </c>
       <c r="R46" t="n">
-        <v>211.6331360021768</v>
+        <v>202.3633127604856</v>
       </c>
       <c r="S46" t="n">
-        <v>238.6174795018098</v>
+        <v>235.0246264580731</v>
       </c>
       <c r="T46" t="n">
-        <v>224.541075671891</v>
+        <v>223.6601988171407</v>
       </c>
       <c r="U46" t="n">
-        <v>288.6665082522452</v>
+        <v>288.6552630158016</v>
       </c>
       <c r="V46" t="n">
         <v>245.1090151844499</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>343752.7023853004</v>
+        <v>368741.7737435043</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>343752.7023853004</v>
+        <v>368741.7737435043</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>343752.7023853004</v>
+        <v>368741.7737435043</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>343752.7023853004</v>
+        <v>368741.7737435043</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>343752.7023853004</v>
+        <v>368741.7737435043</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>343752.7023853004</v>
+        <v>368741.7737435043</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>343752.7023853004</v>
+        <v>368741.7737435043</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>343752.7023853004</v>
+        <v>368741.7737435043</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>343752.7023853004</v>
+        <v>368741.7737435043</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>343752.7023853004</v>
+        <v>368741.7737435043</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>343752.7023853004</v>
+        <v>368741.7737435043</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>343752.7023853004</v>
+        <v>392295.2490771558</v>
       </c>
     </row>
   </sheetData>
@@ -26320,40 +26322,40 @@
         <v>52885.03113620008</v>
       </c>
       <c r="E2" t="n">
-        <v>52885.03113620008</v>
+        <v>57318.6244920368</v>
       </c>
       <c r="F2" t="n">
-        <v>52885.03113620008</v>
+        <v>57318.6244920368</v>
       </c>
       <c r="G2" t="n">
-        <v>52885.03113620008</v>
+        <v>57318.6244920368</v>
       </c>
       <c r="H2" t="n">
-        <v>52885.03113620008</v>
+        <v>57318.6244920368</v>
       </c>
       <c r="I2" t="n">
-        <v>52885.03113620008</v>
+        <v>57318.6244920368</v>
       </c>
       <c r="J2" t="n">
-        <v>52885.03113620008</v>
+        <v>57318.6244920368</v>
       </c>
       <c r="K2" t="n">
-        <v>52885.03113620008</v>
+        <v>57318.6244920368</v>
       </c>
       <c r="L2" t="n">
-        <v>52885.03113620008</v>
+        <v>57318.6244920368</v>
       </c>
       <c r="M2" t="n">
-        <v>52885.03113620008</v>
+        <v>57318.62449203681</v>
       </c>
       <c r="N2" t="n">
-        <v>52885.03113620008</v>
+        <v>57318.62449203682</v>
       </c>
       <c r="O2" t="n">
-        <v>52885.03113620008</v>
+        <v>57318.62449203683</v>
       </c>
       <c r="P2" t="n">
-        <v>52885.03113620008</v>
+        <v>61696.42159381811</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>40281.89958238632</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>42721.64299957015</v>
       </c>
     </row>
     <row r="4">
@@ -26424,40 +26426,40 @@
         <v>26442.51556810003</v>
       </c>
       <c r="E4" t="n">
-        <v>26442.51556810003</v>
+        <v>24830.02679128307</v>
       </c>
       <c r="F4" t="n">
-        <v>26442.51556810003</v>
+        <v>24830.02679128307</v>
       </c>
       <c r="G4" t="n">
-        <v>26442.51556810003</v>
+        <v>24830.02679128307</v>
       </c>
       <c r="H4" t="n">
-        <v>26442.51556810003</v>
+        <v>24830.02679128307</v>
       </c>
       <c r="I4" t="n">
-        <v>26442.51556810003</v>
+        <v>24830.02679128307</v>
       </c>
       <c r="J4" t="n">
-        <v>26442.51556810003</v>
+        <v>24830.02679128307</v>
       </c>
       <c r="K4" t="n">
-        <v>26442.51556810003</v>
+        <v>24830.02679128307</v>
       </c>
       <c r="L4" t="n">
-        <v>26442.51556810003</v>
+        <v>24830.02679128307</v>
       </c>
       <c r="M4" t="n">
-        <v>26442.51556810003</v>
+        <v>24830.02679128307</v>
       </c>
       <c r="N4" t="n">
-        <v>26442.51556810003</v>
+        <v>24830.02679128307</v>
       </c>
       <c r="O4" t="n">
-        <v>26442.51556810003</v>
+        <v>24830.02679128307</v>
       </c>
       <c r="P4" t="n">
-        <v>26442.51556810003</v>
+        <v>22116.7195142469</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1093.032277569317</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1093.032277569317</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1093.032277569317</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1093.032277569317</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1093.032277569317</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1093.032277569317</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>1093.032277569317</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1093.032277569317</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1093.032277569317</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>1093.032277569317</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1093.032277569317</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>2492.319237121088</v>
       </c>
     </row>
     <row r="6">
@@ -26528,40 +26530,40 @@
         <v>-7185.084431899952</v>
       </c>
       <c r="E6" t="n">
-        <v>26442.51556810005</v>
+        <v>-8886.33415920191</v>
       </c>
       <c r="F6" t="n">
-        <v>26442.51556810005</v>
+        <v>31395.56542318441</v>
       </c>
       <c r="G6" t="n">
-        <v>26442.51556810005</v>
+        <v>31395.56542318441</v>
       </c>
       <c r="H6" t="n">
-        <v>26442.51556810005</v>
+        <v>31395.56542318441</v>
       </c>
       <c r="I6" t="n">
-        <v>26442.51556810005</v>
+        <v>31395.56542318441</v>
       </c>
       <c r="J6" t="n">
-        <v>26442.51556810005</v>
+        <v>31395.56542318441</v>
       </c>
       <c r="K6" t="n">
-        <v>26442.51556810005</v>
+        <v>31395.56542318441</v>
       </c>
       <c r="L6" t="n">
-        <v>26442.51556810005</v>
+        <v>31395.56542318441</v>
       </c>
       <c r="M6" t="n">
-        <v>26442.51556810005</v>
+        <v>31395.56542318442</v>
       </c>
       <c r="N6" t="n">
-        <v>26442.51556810005</v>
+        <v>31395.56542318443</v>
       </c>
       <c r="O6" t="n">
-        <v>26442.51556810005</v>
+        <v>31395.56542318443</v>
       </c>
       <c r="P6" t="n">
-        <v>26442.51556810005</v>
+        <v>-5634.260157120027</v>
       </c>
     </row>
   </sheetData>
@@ -26744,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>50.1390953013448</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>50.1390953013448</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>50.1390953013448</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>50.1390953013448</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>50.1390953013448</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>50.1390953013448</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>50.1390953013448</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>50.1390953013448</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>50.1390953013448</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>50.1390953013448</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>50.1390953013448</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>114.3265705101416</v>
       </c>
     </row>
     <row r="4">
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>50.1390953013448</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>64.18747520879683</v>
       </c>
     </row>
     <row r="4">
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>0.2015642022164614</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2.064269385949336</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>7.770803905950134</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>17.1075097078694</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>25.63972238769222</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>31.80834284127425</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>35.39291022244124</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>35.96560451198877</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>33.96130047619883</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>28.98518423397994</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>21.76666624210291</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>12.6615073174798</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>4.593144258007618</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>0.8823472952025601</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>0.01612513617731691</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>0.1078463559311945</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1.041568753335484</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>3.713131114297705</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>10.18911558383272</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>17.41482143122275</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>23.41637653672712</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>27.32580693923292</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>28.04903973843817</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>25.65939153596275</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>20.59392387952783</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>13.76649273255037</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>6.695934274394691</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>2.003198760388633</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>0.4346964960559986</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>0.007095154995473324</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>0.09041476201881848</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>0.8038694295854959</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>2.71901847962047</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>6.392323674730466</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>10.50455144182273</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>13.44220925505234</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>14.17292492264079</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>13.83592444602521</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>12.779715635169</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>10.9352544899851</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>7.571003390503065</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>4.065376481318874</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>1.575682716273409</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>0.3863176195349516</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>0.004931714291935559</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.2015642022164614</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2.064269385949336</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>7.770803905950134</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>17.1075097078694</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>25.63972238769222</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>31.80834284127425</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>35.39291022244124</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>35.96560451198877</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>33.96130047619883</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>28.98518423397994</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>21.76666624210291</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>12.6615073174798</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>4.593144258007618</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>0.8823472952025601</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>0.01612513617731691</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>0.1078463559311945</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1.041568753335484</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>3.713131114297705</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>10.18911558383272</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>17.41482143122275</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>23.41637653672712</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>27.32580693923292</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>28.04903973843817</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>25.65939153596275</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>20.59392387952783</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>13.76649273255037</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>6.695934274394691</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>2.003198760388633</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>0.4346964960559986</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>0.007095154995473324</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.09041476201881848</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>0.8038694295854959</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>2.71901847962047</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>6.392323674730466</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>10.50455144182273</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>13.44220925505234</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>14.17292492264079</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>13.83592444602521</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>12.779715635169</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>10.9352544899851</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>7.571003390503065</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>4.065376481318874</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>1.575682716273409</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>0.3863176195349516</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>0.004931714291935559</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>0.2015642022164614</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2.064269385949336</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>7.770803905950134</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>17.1075097078694</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>25.63972238769222</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>31.80834284127425</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>35.39291022244124</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>35.96560451198877</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>33.96130047619883</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>28.98518423397994</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>21.76666624210291</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>12.6615073174798</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>4.593144258007618</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>0.8823472952025601</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>0.01612513617731691</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.1078463559311945</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1.041568753335484</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>3.713131114297705</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>10.18911558383272</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>17.41482143122275</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>23.41637653672712</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>27.32580693923292</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>28.04903973843817</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>25.65939153596275</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>20.59392387952783</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>13.76649273255037</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>6.695934274394691</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>2.003198760388633</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>0.4346964960559986</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>0.007095154995473324</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.09041476201881848</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>0.8038694295854959</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>2.71901847962047</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>6.392323674730466</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>10.50455144182273</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>13.44220925505234</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>14.17292492264079</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>13.83592444602521</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>12.779715635169</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>10.9352544899851</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>7.571003390503065</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>4.065376481318874</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>1.575682716273409</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>0.3863176195349516</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>0.004931714291935559</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>0.2015642022164614</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2.064269385949336</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>7.770803905950134</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>17.1075097078694</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>25.63972238769222</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>31.80834284127425</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>35.39291022244124</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>35.96560451198877</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>33.96130047619883</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>28.98518423397994</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>21.76666624210291</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>12.6615073174798</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>4.593144258007618</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>0.8823472952025601</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>0.01612513617731691</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>0.1078463559311945</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1.041568753335484</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>3.713131114297705</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>10.18911558383272</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>17.41482143122275</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>23.41637653672712</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>27.32580693923292</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>28.04903973843817</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>25.65939153596275</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>20.59392387952783</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>13.76649273255037</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>6.695934274394691</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>2.003198760388633</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>0.4346964960559986</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>0.007095154995473324</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.09041476201881848</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>0.8038694295854959</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>2.71901847962047</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>6.392323674730466</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>10.50455144182273</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>13.44220925505234</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>14.17292492264079</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>13.83592444602521</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>12.779715635169</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>10.9352544899851</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>7.571003390503065</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>4.065376481318874</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>1.575682716273409</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>0.3863176195349516</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>0.004931714291935559</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>0.2015642022164614</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2.064269385949336</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>7.770803905950134</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>17.1075097078694</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>25.63972238769222</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>31.80834284127425</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>35.39291022244124</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>35.96560451198877</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>33.96130047619883</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>28.98518423397994</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>21.76666624210291</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>12.6615073174798</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>4.593144258007618</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>0.8823472952025601</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>0.01612513617731691</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.1078463559311945</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1.041568753335484</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>3.713131114297705</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>10.18911558383272</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>17.41482143122275</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>23.41637653672712</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>27.32580693923292</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>28.04903973843817</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>25.65939153596275</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>20.59392387952783</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>13.76649273255037</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>6.695934274394691</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>2.003198760388633</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>0.4346964960559986</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>0.007095154995473324</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>0.09041476201881848</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>0.8038694295854959</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>2.71901847962047</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>6.392323674730466</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>10.50455144182273</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>13.44220925505234</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>14.17292492264079</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>13.83592444602521</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>12.779715635169</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>10.9352544899851</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>7.571003390503065</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>4.065376481318874</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>1.575682716273409</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>0.3863176195349516</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>0.004931714291935559</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>0.2015642022164614</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2.064269385949336</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>7.770803905950134</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>17.1075097078694</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>25.63972238769222</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>31.80834284127425</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>35.39291022244124</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>35.96560451198877</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>33.96130047619883</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>28.98518423397994</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>21.76666624210291</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>12.6615073174798</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>4.593144258007618</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>0.8823472952025601</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>0.01612513617731691</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>0.1078463559311945</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1.041568753335484</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>3.713131114297705</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>10.18911558383272</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>17.41482143122275</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>23.41637653672712</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>27.32580693923292</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>28.04903973843817</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>25.65939153596275</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>20.59392387952783</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>13.76649273255037</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>6.695934274394691</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>2.003198760388633</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>0.4346964960559986</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>0.007095154995473324</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.09041476201881848</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>0.8038694295854959</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>2.71901847962047</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>6.392323674730466</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>10.50455144182273</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>13.44220925505234</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>14.17292492264079</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>13.83592444602521</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>12.779715635169</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>10.9352544899851</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>7.571003390503065</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>4.065376481318874</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>1.575682716273409</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>0.3863176195349516</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>0.004931714291935559</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.2015642022164614</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2.064269385949336</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>7.770803905950134</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>17.1075097078694</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>25.63972238769222</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>31.80834284127425</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>35.39291022244124</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>35.96560451198877</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>33.96130047619883</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>28.98518423397994</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>21.76666624210291</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>12.6615073174798</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>4.593144258007618</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>0.8823472952025601</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>0.01612513617731691</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>0.1078463559311945</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1.041568753335484</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>3.713131114297705</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>10.18911558383272</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>17.41482143122275</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>23.41637653672712</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>27.32580693923292</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>28.04903973843817</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>25.65939153596275</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>20.59392387952783</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>13.76649273255037</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>6.695934274394691</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>2.003198760388633</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>0.4346964960559986</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>0.007095154995473324</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.09041476201881848</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>0.8038694295854959</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>2.71901847962047</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>6.392323674730466</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>10.50455144182273</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>13.44220925505234</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>14.17292492264079</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>13.83592444602521</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>12.779715635169</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>10.9352544899851</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>7.571003390503065</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>4.065376481318874</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>1.575682716273409</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>0.3863176195349516</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>0.004931714291935559</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.2015642022164613</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2.064269385949336</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>7.770803905950134</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>17.1075097078694</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>25.63972238769222</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>31.80834284127425</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>35.39291022244124</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>35.96560451198877</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>33.96130047619883</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>28.98518423397994</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>21.76666624210291</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>12.6615073174798</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>4.593144258007618</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>0.8823472952025601</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>0.01612513617731691</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.1078463559311945</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1.041568753335484</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>3.713131114297705</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>10.18911558383272</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>17.41482143122275</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>23.41637653672712</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>27.32580693923291</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>28.04903973843816</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>25.65939153596275</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>20.59392387952783</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>13.76649273255037</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>6.695934274394691</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>2.003198760388633</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>0.4346964960559986</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>0.007095154995473324</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.09041476201881848</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>0.8038694295854958</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>2.719018479620469</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>6.392323674730466</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>10.50455144182273</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>13.44220925505234</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>14.17292492264079</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>13.8359244460252</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>12.779715635169</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>10.9352544899851</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>7.571003390503064</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>4.065376481318873</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>1.575682716273409</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>0.3863176195349516</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>0.004931714291935559</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>0.2015642022164614</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2.064269385949336</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>7.770803905950134</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>17.1075097078694</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>25.63972238769222</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>31.80834284127425</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>35.39291022244124</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>35.96560451198877</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>33.96130047619883</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>28.98518423397994</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>21.76666624210291</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>12.6615073174798</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>4.593144258007618</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>0.8823472952025601</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>0.01612513617731691</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>0.1078463559311945</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1.041568753335484</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>3.713131114297705</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>10.18911558383272</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>17.41482143122275</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>23.41637653672712</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>27.32580693923292</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>28.04903973843817</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>25.65939153596275</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>20.59392387952783</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>13.76649273255037</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>6.695934274394691</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>2.003198760388633</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>0.4346964960559986</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>0.007095154995473324</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>0.09041476201881848</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>0.8038694295854959</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>2.71901847962047</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>6.392323674730466</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>10.50455144182273</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>13.44220925505234</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>14.17292492264079</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>13.83592444602521</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>12.779715635169</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>10.9352544899851</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>7.571003390503065</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>4.065376481318874</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>1.575682716273409</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>0.3863176195349516</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>0.004931714291935559</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>0.2015642022164614</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2.064269385949336</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>7.770803905950134</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>17.1075097078694</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>25.63972238769222</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>31.80834284127425</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>35.39291022244124</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>35.96560451198877</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>33.96130047619883</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>28.98518423397994</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>21.76666624210291</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>12.6615073174798</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>4.593144258007618</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>0.8823472952025601</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>0.01612513617731691</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>0.1078463559311945</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1.041568753335484</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>3.713131114297705</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>10.18911558383272</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>17.41482143122275</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>23.41637653672712</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>27.32580693923292</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>28.04903973843817</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>25.65939153596275</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>20.59392387952783</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>13.76649273255037</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>6.695934274394691</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>2.003198760388633</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>0.4346964960559986</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>0.007095154995473324</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>0.09041476201881848</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>0.8038694295854959</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>2.71901847962047</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>6.392323674730466</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>10.50455144182273</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>13.44220925505234</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>14.17292492264079</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>13.83592444602521</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>12.779715635169</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>10.9352544899851</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>7.571003390503065</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>4.065376481318874</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>1.575682716273409</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>0.3863176195349516</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>0.004931714291935559</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>0.2015642022164614</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2.064269385949336</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>7.770803905950134</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>17.1075097078694</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>25.63972238769222</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>31.80834284127425</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>35.39291022244124</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>35.96560451198877</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>33.96130047619883</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>28.98518423397994</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>21.76666624210291</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>12.6615073174798</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>4.593144258007618</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>0.8823472952025601</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>0.01612513617731691</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>0.1078463559311945</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1.041568753335484</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>3.713131114297705</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>10.18911558383272</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>17.41482143122275</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>23.41637653672712</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>27.32580693923292</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>28.04903973843817</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>25.65939153596275</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>20.59392387952783</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>13.76649273255037</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>6.695934274394691</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>2.003198760388633</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>0.4346964960559986</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>0.007095154995473324</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>0.09041476201881848</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>0.8038694295854959</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>2.71901847962047</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>6.392323674730466</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>10.50455144182273</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>13.44220925505234</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>14.17292492264079</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>13.83592444602521</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>12.779715635169</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>10.9352544899851</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>7.571003390503065</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>4.065376481318874</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>1.575682716273409</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>0.3863176195349516</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>0.004931714291935559</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>0.459604303558358</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>4.706922573817035</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>17.71889491293361</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>39.00834075913622</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>58.46339092876153</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>72.52900613378564</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>80.70249416719157</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>82.00834489467677</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>77.43815460116835</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>66.09167335707137</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>49.63209423588766</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>28.87061883339773</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>10.47323306733609</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>2.011917838826713</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>0.03676834428466863</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>0.2459099818520028</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2.374972719465396</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>8.466637533062377</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>23.23310052225435</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>39.70906930633854</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>53.3937440858921</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>62.30798092802719</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>63.95708778000839</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>58.50824028739296</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>46.9580210082127</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>31.39019347289776</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>15.26798992586383</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>4.56767005764575</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>0.9911897952718879</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>0.01617828827973703</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.2061626681330423</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1.832973540310141</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>6.199873692582764</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>14.57570063700609</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>23.95235362491163</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>30.65076613316158</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>32.31693533289134</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>31.5485108425773</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>29.14015603756857</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>24.93443760765448</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>17.26331214703139</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>9.269823241691153</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>3.592853043736745</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>0.8808768547502713</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>0.0112452364436205</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_5_10.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_5_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>131094.914153109</v>
+        <v>-6166.842840793715</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1241453.964023875</v>
+        <v>1838381.564971835</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>24630881.73804684</v>
+        <v>24149324.05685093</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4205287.178371388</v>
+        <v>4396059.804223499</v>
       </c>
     </row>
     <row r="11">
@@ -8695,16 +8695,16 @@
         <v>210.0462273461148</v>
       </c>
       <c r="L11" t="n">
-        <v>255.8266834221102</v>
+        <v>215.1060201295988</v>
       </c>
       <c r="M11" t="n">
-        <v>245.6294943148315</v>
+        <v>200.3199103700811</v>
       </c>
       <c r="N11" t="n">
-        <v>243.9183330758522</v>
+        <v>197.8755926931642</v>
       </c>
       <c r="O11" t="n">
-        <v>246.758517458259</v>
+        <v>203.2816633332895</v>
       </c>
       <c r="P11" t="n">
         <v>208.5255628951208</v>
@@ -8771,22 +8771,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K12" t="n">
-        <v>150.7517341174952</v>
+        <v>128.4574862423794</v>
       </c>
       <c r="L12" t="n">
-        <v>145.6199667947194</v>
+        <v>115.6425992455544</v>
       </c>
       <c r="M12" t="n">
-        <v>146.0777144456295</v>
+        <v>111.0955404568352</v>
       </c>
       <c r="N12" t="n">
-        <v>132.1878490032285</v>
+        <v>96.27980096165828</v>
       </c>
       <c r="O12" t="n">
-        <v>148.3080266862594</v>
+        <v>115.4591779348292</v>
       </c>
       <c r="P12" t="n">
-        <v>142.8548531659551</v>
+        <v>116.4907560372702</v>
       </c>
       <c r="Q12" t="n">
         <v>136.1300824528302</v>
@@ -8932,16 +8932,16 @@
         <v>210.0462273461148</v>
       </c>
       <c r="L14" t="n">
-        <v>255.8266834221102</v>
+        <v>215.1060201295988</v>
       </c>
       <c r="M14" t="n">
-        <v>245.6294943148315</v>
+        <v>200.3199103700811</v>
       </c>
       <c r="N14" t="n">
-        <v>243.9183330758522</v>
+        <v>197.8755926931642</v>
       </c>
       <c r="O14" t="n">
-        <v>246.758517458259</v>
+        <v>203.2816633332895</v>
       </c>
       <c r="P14" t="n">
         <v>208.5255628951208</v>
@@ -9008,22 +9008,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
-        <v>150.7517341174952</v>
+        <v>128.4574862423794</v>
       </c>
       <c r="L15" t="n">
-        <v>145.6199667947194</v>
+        <v>115.6425992455544</v>
       </c>
       <c r="M15" t="n">
-        <v>146.0777144456295</v>
+        <v>111.0955404568352</v>
       </c>
       <c r="N15" t="n">
-        <v>132.1878490032285</v>
+        <v>96.27980096165828</v>
       </c>
       <c r="O15" t="n">
-        <v>148.3080266862594</v>
+        <v>115.4591779348292</v>
       </c>
       <c r="P15" t="n">
-        <v>142.8548531659551</v>
+        <v>116.4907560372702</v>
       </c>
       <c r="Q15" t="n">
         <v>136.1300824528302</v>
@@ -9169,16 +9169,16 @@
         <v>210.0462273461148</v>
       </c>
       <c r="L17" t="n">
-        <v>255.8266834221102</v>
+        <v>215.1060201295988</v>
       </c>
       <c r="M17" t="n">
-        <v>245.6294943148315</v>
+        <v>200.3199103700811</v>
       </c>
       <c r="N17" t="n">
-        <v>243.9183330758522</v>
+        <v>197.8755926931642</v>
       </c>
       <c r="O17" t="n">
-        <v>246.758517458259</v>
+        <v>203.2816633332895</v>
       </c>
       <c r="P17" t="n">
         <v>208.5255628951208</v>
@@ -9245,22 +9245,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K18" t="n">
-        <v>150.7517341174952</v>
+        <v>128.4574862423794</v>
       </c>
       <c r="L18" t="n">
-        <v>145.6199667947194</v>
+        <v>115.6425992455544</v>
       </c>
       <c r="M18" t="n">
-        <v>146.0777144456295</v>
+        <v>111.0955404568352</v>
       </c>
       <c r="N18" t="n">
-        <v>132.1878490032285</v>
+        <v>96.27980096165828</v>
       </c>
       <c r="O18" t="n">
-        <v>148.3080266862594</v>
+        <v>115.4591779348292</v>
       </c>
       <c r="P18" t="n">
-        <v>142.8548531659551</v>
+        <v>116.4907560372702</v>
       </c>
       <c r="Q18" t="n">
         <v>136.1300824528302</v>
@@ -9406,16 +9406,16 @@
         <v>210.0462273461148</v>
       </c>
       <c r="L20" t="n">
-        <v>255.8266834221102</v>
+        <v>215.1060201295988</v>
       </c>
       <c r="M20" t="n">
-        <v>245.6294943148315</v>
+        <v>200.3199103700811</v>
       </c>
       <c r="N20" t="n">
-        <v>243.9183330758522</v>
+        <v>197.8755926931642</v>
       </c>
       <c r="O20" t="n">
-        <v>246.758517458259</v>
+        <v>203.2816633332895</v>
       </c>
       <c r="P20" t="n">
         <v>208.5255628951208</v>
@@ -9482,22 +9482,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K21" t="n">
-        <v>150.7517341174952</v>
+        <v>128.4574862423794</v>
       </c>
       <c r="L21" t="n">
-        <v>145.6199667947194</v>
+        <v>115.6425992455544</v>
       </c>
       <c r="M21" t="n">
-        <v>146.0777144456295</v>
+        <v>111.0955404568352</v>
       </c>
       <c r="N21" t="n">
-        <v>132.1878490032285</v>
+        <v>96.27980096165828</v>
       </c>
       <c r="O21" t="n">
-        <v>148.3080266862594</v>
+        <v>115.4591779348292</v>
       </c>
       <c r="P21" t="n">
-        <v>142.8548531659551</v>
+        <v>116.4907560372702</v>
       </c>
       <c r="Q21" t="n">
         <v>136.1300824528302</v>
@@ -9643,16 +9643,16 @@
         <v>210.0462273461148</v>
       </c>
       <c r="L23" t="n">
-        <v>255.8266834221102</v>
+        <v>215.1060201295988</v>
       </c>
       <c r="M23" t="n">
-        <v>245.6294943148315</v>
+        <v>200.3199103700811</v>
       </c>
       <c r="N23" t="n">
-        <v>243.9183330758522</v>
+        <v>197.8755926931642</v>
       </c>
       <c r="O23" t="n">
-        <v>246.758517458259</v>
+        <v>203.2816633332895</v>
       </c>
       <c r="P23" t="n">
         <v>208.5255628951208</v>
@@ -9719,22 +9719,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K24" t="n">
-        <v>150.7517341174952</v>
+        <v>128.4574862423794</v>
       </c>
       <c r="L24" t="n">
-        <v>145.6199667947194</v>
+        <v>115.6425992455544</v>
       </c>
       <c r="M24" t="n">
-        <v>146.0777144456295</v>
+        <v>111.0955404568352</v>
       </c>
       <c r="N24" t="n">
-        <v>132.1878490032285</v>
+        <v>96.27980096165828</v>
       </c>
       <c r="O24" t="n">
-        <v>148.3080266862594</v>
+        <v>115.4591779348292</v>
       </c>
       <c r="P24" t="n">
-        <v>142.8548531659551</v>
+        <v>116.4907560372702</v>
       </c>
       <c r="Q24" t="n">
         <v>136.1300824528302</v>
@@ -9880,16 +9880,16 @@
         <v>210.0462273461148</v>
       </c>
       <c r="L26" t="n">
-        <v>255.8266834221102</v>
+        <v>215.1060201295988</v>
       </c>
       <c r="M26" t="n">
-        <v>245.6294943148315</v>
+        <v>200.3199103700812</v>
       </c>
       <c r="N26" t="n">
-        <v>243.9183330758522</v>
+        <v>197.8755926931642</v>
       </c>
       <c r="O26" t="n">
-        <v>246.758517458259</v>
+        <v>203.2816633332895</v>
       </c>
       <c r="P26" t="n">
         <v>208.5255628951208</v>
@@ -9956,22 +9956,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K27" t="n">
-        <v>150.7517341174952</v>
+        <v>128.4574862423794</v>
       </c>
       <c r="L27" t="n">
-        <v>145.6199667947194</v>
+        <v>115.6425992455544</v>
       </c>
       <c r="M27" t="n">
-        <v>146.0777144456295</v>
+        <v>111.0955404568352</v>
       </c>
       <c r="N27" t="n">
-        <v>132.1878490032285</v>
+        <v>96.27980096165827</v>
       </c>
       <c r="O27" t="n">
-        <v>148.3080266862594</v>
+        <v>115.4591779348292</v>
       </c>
       <c r="P27" t="n">
-        <v>142.8548531659551</v>
+        <v>116.4907560372702</v>
       </c>
       <c r="Q27" t="n">
         <v>136.1300824528302</v>
@@ -10117,16 +10117,16 @@
         <v>210.0462273461148</v>
       </c>
       <c r="L29" t="n">
-        <v>255.8266834221102</v>
+        <v>215.1060201295988</v>
       </c>
       <c r="M29" t="n">
-        <v>245.6294943148315</v>
+        <v>200.3199103700811</v>
       </c>
       <c r="N29" t="n">
-        <v>243.9183330758522</v>
+        <v>197.8755926931642</v>
       </c>
       <c r="O29" t="n">
-        <v>246.758517458259</v>
+        <v>203.2816633332895</v>
       </c>
       <c r="P29" t="n">
         <v>208.5255628951208</v>
@@ -10193,22 +10193,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K30" t="n">
-        <v>150.7517341174952</v>
+        <v>128.4574862423794</v>
       </c>
       <c r="L30" t="n">
-        <v>145.6199667947194</v>
+        <v>115.6425992455544</v>
       </c>
       <c r="M30" t="n">
-        <v>146.0777144456295</v>
+        <v>111.0955404568352</v>
       </c>
       <c r="N30" t="n">
-        <v>132.1878490032285</v>
+        <v>96.27980096165828</v>
       </c>
       <c r="O30" t="n">
-        <v>148.3080266862594</v>
+        <v>115.4591779348292</v>
       </c>
       <c r="P30" t="n">
-        <v>142.8548531659551</v>
+        <v>116.4907560372702</v>
       </c>
       <c r="Q30" t="n">
         <v>136.1300824528302</v>
@@ -10354,16 +10354,16 @@
         <v>210.0462273461148</v>
       </c>
       <c r="L32" t="n">
-        <v>255.8266834221102</v>
+        <v>215.1060201295988</v>
       </c>
       <c r="M32" t="n">
-        <v>245.6294943148315</v>
+        <v>200.3199103700811</v>
       </c>
       <c r="N32" t="n">
-        <v>243.9183330758522</v>
+        <v>197.8755926931642</v>
       </c>
       <c r="O32" t="n">
-        <v>246.758517458259</v>
+        <v>203.2816633332895</v>
       </c>
       <c r="P32" t="n">
         <v>208.5255628951208</v>
@@ -10430,22 +10430,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K33" t="n">
-        <v>150.7517341174952</v>
+        <v>128.4574862423794</v>
       </c>
       <c r="L33" t="n">
-        <v>145.6199667947194</v>
+        <v>115.6425992455544</v>
       </c>
       <c r="M33" t="n">
-        <v>146.0777144456295</v>
+        <v>111.0955404568352</v>
       </c>
       <c r="N33" t="n">
-        <v>132.1878490032285</v>
+        <v>96.27980096165828</v>
       </c>
       <c r="O33" t="n">
-        <v>148.3080266862594</v>
+        <v>115.4591779348292</v>
       </c>
       <c r="P33" t="n">
-        <v>142.8548531659551</v>
+        <v>116.4907560372702</v>
       </c>
       <c r="Q33" t="n">
         <v>136.1300824528302</v>
@@ -10591,16 +10591,16 @@
         <v>210.0462273461148</v>
       </c>
       <c r="L35" t="n">
-        <v>255.8266834221102</v>
+        <v>215.1060201295988</v>
       </c>
       <c r="M35" t="n">
-        <v>245.6294943148315</v>
+        <v>200.3199103700811</v>
       </c>
       <c r="N35" t="n">
-        <v>243.9183330758522</v>
+        <v>197.8755926931642</v>
       </c>
       <c r="O35" t="n">
-        <v>246.758517458259</v>
+        <v>203.2816633332895</v>
       </c>
       <c r="P35" t="n">
         <v>208.5255628951208</v>
@@ -10667,22 +10667,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K36" t="n">
-        <v>150.7517341174952</v>
+        <v>128.4574862423794</v>
       </c>
       <c r="L36" t="n">
-        <v>145.6199667947194</v>
+        <v>115.6425992455544</v>
       </c>
       <c r="M36" t="n">
-        <v>146.0777144456295</v>
+        <v>111.0955404568352</v>
       </c>
       <c r="N36" t="n">
-        <v>132.1878490032285</v>
+        <v>96.27980096165828</v>
       </c>
       <c r="O36" t="n">
-        <v>148.3080266862594</v>
+        <v>115.4591779348292</v>
       </c>
       <c r="P36" t="n">
-        <v>142.8548531659551</v>
+        <v>116.4907560372702</v>
       </c>
       <c r="Q36" t="n">
         <v>136.1300824528302</v>
@@ -10828,16 +10828,16 @@
         <v>210.0462273461148</v>
       </c>
       <c r="L38" t="n">
-        <v>255.8266834221102</v>
+        <v>215.1060201295988</v>
       </c>
       <c r="M38" t="n">
-        <v>245.6294943148315</v>
+        <v>200.3199103700811</v>
       </c>
       <c r="N38" t="n">
-        <v>243.9183330758522</v>
+        <v>197.8755926931642</v>
       </c>
       <c r="O38" t="n">
-        <v>246.758517458259</v>
+        <v>203.2816633332895</v>
       </c>
       <c r="P38" t="n">
         <v>208.5255628951208</v>
@@ -10904,22 +10904,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K39" t="n">
-        <v>150.7517341174952</v>
+        <v>128.4574862423794</v>
       </c>
       <c r="L39" t="n">
-        <v>145.6199667947194</v>
+        <v>115.6425992455544</v>
       </c>
       <c r="M39" t="n">
-        <v>146.0777144456295</v>
+        <v>111.0955404568352</v>
       </c>
       <c r="N39" t="n">
-        <v>132.1878490032285</v>
+        <v>96.27980096165828</v>
       </c>
       <c r="O39" t="n">
-        <v>148.3080266862594</v>
+        <v>115.4591779348292</v>
       </c>
       <c r="P39" t="n">
-        <v>142.8548531659551</v>
+        <v>116.4907560372702</v>
       </c>
       <c r="Q39" t="n">
         <v>136.1300824528302</v>
@@ -11065,16 +11065,16 @@
         <v>210.0462273461148</v>
       </c>
       <c r="L41" t="n">
-        <v>255.8266834221102</v>
+        <v>215.1060201295988</v>
       </c>
       <c r="M41" t="n">
-        <v>245.6294943148315</v>
+        <v>200.3199103700811</v>
       </c>
       <c r="N41" t="n">
-        <v>243.9183330758522</v>
+        <v>197.8755926931642</v>
       </c>
       <c r="O41" t="n">
-        <v>246.758517458259</v>
+        <v>203.2816633332895</v>
       </c>
       <c r="P41" t="n">
         <v>208.5255628951208</v>
@@ -11141,22 +11141,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K42" t="n">
-        <v>150.7517341174952</v>
+        <v>128.4574862423794</v>
       </c>
       <c r="L42" t="n">
-        <v>145.6199667947194</v>
+        <v>115.6425992455544</v>
       </c>
       <c r="M42" t="n">
-        <v>146.0777144456295</v>
+        <v>111.0955404568352</v>
       </c>
       <c r="N42" t="n">
-        <v>132.1878490032285</v>
+        <v>96.27980096165828</v>
       </c>
       <c r="O42" t="n">
-        <v>148.3080266862594</v>
+        <v>115.4591779348292</v>
       </c>
       <c r="P42" t="n">
-        <v>142.8548531659551</v>
+        <v>116.4907560372702</v>
       </c>
       <c r="Q42" t="n">
         <v>136.1300824528302</v>
@@ -11305,7 +11305,7 @@
         <v>215.1060201295988</v>
       </c>
       <c r="M44" t="n">
-        <v>200.3199103700812</v>
+        <v>200.3199103700811</v>
       </c>
       <c r="N44" t="n">
         <v>197.8755926931642</v>
@@ -11387,7 +11387,7 @@
         <v>111.0955404568352</v>
       </c>
       <c r="N45" t="n">
-        <v>96.27980096165827</v>
+        <v>96.27980096165828</v>
       </c>
       <c r="O45" t="n">
         <v>115.4591779348292</v>
@@ -23272,19 +23272,19 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G11" t="n">
-        <v>419.0433278923953</v>
+        <v>418.7852877910533</v>
       </c>
       <c r="H11" t="n">
-        <v>349.1224415328191</v>
+        <v>346.4797883449514</v>
       </c>
       <c r="I11" t="n">
-        <v>248.9190046445362</v>
+        <v>238.9709136375527</v>
       </c>
       <c r="J11" t="n">
-        <v>94.19388718318407</v>
+        <v>72.29305613191724</v>
       </c>
       <c r="K11" t="n">
-        <v>32.82366854106931</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -23299,22 +23299,22 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>44.59350769232816</v>
+        <v>7.487018569236724</v>
       </c>
       <c r="Q11" t="n">
-        <v>111.8661614571072</v>
+        <v>84.00073346332248</v>
       </c>
       <c r="R11" t="n">
-        <v>207.7686087380687</v>
+        <v>191.5594972221508</v>
       </c>
       <c r="S11" t="n">
-        <v>232.1919625200514</v>
+        <v>226.3118737107229</v>
       </c>
       <c r="T11" t="n">
-        <v>223.3639471047855</v>
+        <v>222.2343765611613</v>
       </c>
       <c r="U11" t="n">
-        <v>250.1669538870295</v>
+        <v>250.1463106789221</v>
       </c>
       <c r="V11" t="n">
         <v>320.879783609152</v>
@@ -23351,16 +23351,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
-        <v>148.8543720391606</v>
+        <v>148.7163084132398</v>
       </c>
       <c r="H12" t="n">
-        <v>126.7956481695613</v>
+        <v>125.4622442034314</v>
       </c>
       <c r="I12" t="n">
-        <v>111.1426883334193</v>
+        <v>106.3891819146546</v>
       </c>
       <c r="J12" t="n">
-        <v>62.8457980489157</v>
+        <v>49.80181311049407</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23381,19 +23381,19 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>20.88118919956569</v>
+        <v>3.257488459218298</v>
       </c>
       <c r="R12" t="n">
-        <v>141.5350185239054</v>
+        <v>132.9629628724363</v>
       </c>
       <c r="S12" t="n">
-        <v>193.6296756875513</v>
+        <v>191.0652043902942</v>
       </c>
       <c r="T12" t="n">
-        <v>215.4133639204314</v>
+        <v>214.8568706212155</v>
       </c>
       <c r="U12" t="n">
-        <v>237.2352910471869</v>
+        <v>237.2262079139026</v>
       </c>
       <c r="V12" t="n">
         <v>240.6489209154022</v>
@@ -23430,49 +23430,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G13" t="n">
-        <v>168.7928003659262</v>
+        <v>168.6770524598119</v>
       </c>
       <c r="H13" t="n">
-        <v>166.6425874648544</v>
+        <v>165.6134833541297</v>
       </c>
       <c r="I13" t="n">
-        <v>167.6204239903589</v>
+        <v>164.1395687773966</v>
       </c>
       <c r="J13" t="n">
-        <v>126.7458061042081</v>
+        <v>118.5624291419324</v>
       </c>
       <c r="K13" t="n">
-        <v>77.72166293489558</v>
+        <v>64.27386075180667</v>
       </c>
       <c r="L13" t="n">
-        <v>45.8334892091311</v>
+        <v>28.62493233102187</v>
       </c>
       <c r="M13" t="n">
-        <v>39.64227122411658</v>
+        <v>21.49826081386603</v>
       </c>
       <c r="N13" t="n">
-        <v>30.60255928634805</v>
+        <v>12.88997288979596</v>
       </c>
       <c r="O13" t="n">
-        <v>50.48626147098734</v>
+        <v>34.12582106858778</v>
       </c>
       <c r="P13" t="n">
-        <v>69.60865742247636</v>
+        <v>55.60947430480697</v>
       </c>
       <c r="Q13" t="n">
-        <v>134.9228615686379</v>
+        <v>125.2305528121096</v>
       </c>
       <c r="R13" t="n">
-        <v>207.5677595208579</v>
+        <v>202.3633127604856</v>
       </c>
       <c r="S13" t="n">
-        <v>237.0417967855364</v>
+        <v>235.0246264580731</v>
       </c>
       <c r="T13" t="n">
-        <v>224.154758052356</v>
+        <v>223.6601988171407</v>
       </c>
       <c r="U13" t="n">
-        <v>288.6615765379532</v>
+        <v>288.6552630158016</v>
       </c>
       <c r="V13" t="n">
         <v>245.1090151844499</v>
@@ -23509,19 +23509,19 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G14" t="n">
-        <v>419.0433278923953</v>
+        <v>418.7852877910533</v>
       </c>
       <c r="H14" t="n">
-        <v>349.1224415328191</v>
+        <v>346.4797883449514</v>
       </c>
       <c r="I14" t="n">
-        <v>248.9190046445362</v>
+        <v>238.9709136375527</v>
       </c>
       <c r="J14" t="n">
-        <v>94.19388718318407</v>
+        <v>72.29305613191724</v>
       </c>
       <c r="K14" t="n">
-        <v>32.82366854106931</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -23536,22 +23536,22 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>44.59350769232816</v>
+        <v>7.487018569236724</v>
       </c>
       <c r="Q14" t="n">
-        <v>111.8661614571072</v>
+        <v>84.00073346332248</v>
       </c>
       <c r="R14" t="n">
-        <v>207.7686087380687</v>
+        <v>191.5594972221508</v>
       </c>
       <c r="S14" t="n">
-        <v>232.1919625200514</v>
+        <v>226.3118737107229</v>
       </c>
       <c r="T14" t="n">
-        <v>223.3639471047855</v>
+        <v>222.2343765611613</v>
       </c>
       <c r="U14" t="n">
-        <v>250.1669538870295</v>
+        <v>250.1463106789221</v>
       </c>
       <c r="V14" t="n">
         <v>320.879783609152</v>
@@ -23588,16 +23588,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
-        <v>148.8543720391606</v>
+        <v>148.7163084132398</v>
       </c>
       <c r="H15" t="n">
-        <v>126.7956481695613</v>
+        <v>125.4622442034314</v>
       </c>
       <c r="I15" t="n">
-        <v>111.1426883334193</v>
+        <v>106.3891819146546</v>
       </c>
       <c r="J15" t="n">
-        <v>62.8457980489157</v>
+        <v>49.80181311049407</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23618,19 +23618,19 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>20.88118919956569</v>
+        <v>3.257488459218298</v>
       </c>
       <c r="R15" t="n">
-        <v>141.5350185239054</v>
+        <v>132.9629628724363</v>
       </c>
       <c r="S15" t="n">
-        <v>193.6296756875513</v>
+        <v>191.0652043902942</v>
       </c>
       <c r="T15" t="n">
-        <v>215.4133639204314</v>
+        <v>214.8568706212155</v>
       </c>
       <c r="U15" t="n">
-        <v>237.2352910471869</v>
+        <v>237.2262079139026</v>
       </c>
       <c r="V15" t="n">
         <v>240.6489209154022</v>
@@ -23667,49 +23667,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
-        <v>168.7928003659262</v>
+        <v>168.6770524598119</v>
       </c>
       <c r="H16" t="n">
-        <v>166.6425874648544</v>
+        <v>165.6134833541297</v>
       </c>
       <c r="I16" t="n">
-        <v>167.6204239903589</v>
+        <v>164.1395687773966</v>
       </c>
       <c r="J16" t="n">
-        <v>126.7458061042081</v>
+        <v>118.5624291419324</v>
       </c>
       <c r="K16" t="n">
-        <v>77.72166293489558</v>
+        <v>64.27386075180667</v>
       </c>
       <c r="L16" t="n">
-        <v>45.8334892091311</v>
+        <v>28.62493233102187</v>
       </c>
       <c r="M16" t="n">
-        <v>39.64227122411658</v>
+        <v>21.49826081386603</v>
       </c>
       <c r="N16" t="n">
-        <v>30.60255928634805</v>
+        <v>12.88997288979596</v>
       </c>
       <c r="O16" t="n">
-        <v>50.48626147098734</v>
+        <v>34.12582106858778</v>
       </c>
       <c r="P16" t="n">
-        <v>69.60865742247636</v>
+        <v>55.60947430480697</v>
       </c>
       <c r="Q16" t="n">
-        <v>134.9228615686379</v>
+        <v>125.2305528121096</v>
       </c>
       <c r="R16" t="n">
-        <v>207.5677595208579</v>
+        <v>202.3633127604856</v>
       </c>
       <c r="S16" t="n">
-        <v>237.0417967855364</v>
+        <v>235.0246264580731</v>
       </c>
       <c r="T16" t="n">
-        <v>224.154758052356</v>
+        <v>223.6601988171407</v>
       </c>
       <c r="U16" t="n">
-        <v>288.6615765379532</v>
+        <v>288.6552630158016</v>
       </c>
       <c r="V16" t="n">
         <v>245.1090151844499</v>
@@ -23746,19 +23746,19 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G17" t="n">
-        <v>419.0433278923953</v>
+        <v>418.7852877910533</v>
       </c>
       <c r="H17" t="n">
-        <v>349.1224415328191</v>
+        <v>346.4797883449514</v>
       </c>
       <c r="I17" t="n">
-        <v>248.9190046445362</v>
+        <v>238.9709136375527</v>
       </c>
       <c r="J17" t="n">
-        <v>94.19388718318407</v>
+        <v>72.29305613191724</v>
       </c>
       <c r="K17" t="n">
-        <v>32.82366854106931</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -23773,22 +23773,22 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>44.59350769232816</v>
+        <v>7.487018569236724</v>
       </c>
       <c r="Q17" t="n">
-        <v>111.8661614571072</v>
+        <v>84.00073346332248</v>
       </c>
       <c r="R17" t="n">
-        <v>207.7686087380687</v>
+        <v>191.5594972221508</v>
       </c>
       <c r="S17" t="n">
-        <v>232.1919625200514</v>
+        <v>226.3118737107229</v>
       </c>
       <c r="T17" t="n">
-        <v>223.3639471047855</v>
+        <v>222.2343765611613</v>
       </c>
       <c r="U17" t="n">
-        <v>250.1669538870295</v>
+        <v>250.1463106789221</v>
       </c>
       <c r="V17" t="n">
         <v>320.879783609152</v>
@@ -23825,16 +23825,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>148.8543720391606</v>
+        <v>148.7163084132398</v>
       </c>
       <c r="H18" t="n">
-        <v>126.7956481695613</v>
+        <v>125.4622442034314</v>
       </c>
       <c r="I18" t="n">
-        <v>111.1426883334193</v>
+        <v>106.3891819146546</v>
       </c>
       <c r="J18" t="n">
-        <v>62.8457980489157</v>
+        <v>49.80181311049407</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23855,19 +23855,19 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>20.88118919956569</v>
+        <v>3.257488459218298</v>
       </c>
       <c r="R18" t="n">
-        <v>141.5350185239054</v>
+        <v>132.9629628724363</v>
       </c>
       <c r="S18" t="n">
-        <v>193.6296756875513</v>
+        <v>191.0652043902942</v>
       </c>
       <c r="T18" t="n">
-        <v>215.4133639204314</v>
+        <v>214.8568706212155</v>
       </c>
       <c r="U18" t="n">
-        <v>237.2352910471869</v>
+        <v>237.2262079139026</v>
       </c>
       <c r="V18" t="n">
         <v>240.6489209154022</v>
@@ -23904,49 +23904,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G19" t="n">
-        <v>168.7928003659262</v>
+        <v>168.6770524598119</v>
       </c>
       <c r="H19" t="n">
-        <v>166.6425874648544</v>
+        <v>165.6134833541297</v>
       </c>
       <c r="I19" t="n">
-        <v>167.6204239903589</v>
+        <v>164.1395687773966</v>
       </c>
       <c r="J19" t="n">
-        <v>126.7458061042081</v>
+        <v>118.5624291419324</v>
       </c>
       <c r="K19" t="n">
-        <v>77.72166293489558</v>
+        <v>64.27386075180667</v>
       </c>
       <c r="L19" t="n">
-        <v>45.8334892091311</v>
+        <v>28.62493233102187</v>
       </c>
       <c r="M19" t="n">
-        <v>39.64227122411658</v>
+        <v>21.49826081386603</v>
       </c>
       <c r="N19" t="n">
-        <v>30.60255928634805</v>
+        <v>12.88997288979596</v>
       </c>
       <c r="O19" t="n">
-        <v>50.48626147098734</v>
+        <v>34.12582106858778</v>
       </c>
       <c r="P19" t="n">
-        <v>69.60865742247636</v>
+        <v>55.60947430480697</v>
       </c>
       <c r="Q19" t="n">
-        <v>134.9228615686379</v>
+        <v>125.2305528121096</v>
       </c>
       <c r="R19" t="n">
-        <v>207.5677595208579</v>
+        <v>202.3633127604856</v>
       </c>
       <c r="S19" t="n">
-        <v>237.0417967855364</v>
+        <v>235.0246264580731</v>
       </c>
       <c r="T19" t="n">
-        <v>224.154758052356</v>
+        <v>223.6601988171407</v>
       </c>
       <c r="U19" t="n">
-        <v>288.6615765379532</v>
+        <v>288.6552630158016</v>
       </c>
       <c r="V19" t="n">
         <v>245.1090151844499</v>
@@ -23983,19 +23983,19 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G20" t="n">
-        <v>419.0433278923953</v>
+        <v>418.7852877910533</v>
       </c>
       <c r="H20" t="n">
-        <v>349.1224415328191</v>
+        <v>346.4797883449514</v>
       </c>
       <c r="I20" t="n">
-        <v>248.9190046445362</v>
+        <v>238.9709136375527</v>
       </c>
       <c r="J20" t="n">
-        <v>94.19388718318407</v>
+        <v>72.29305613191724</v>
       </c>
       <c r="K20" t="n">
-        <v>32.82366854106931</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -24010,22 +24010,22 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>44.59350769232816</v>
+        <v>7.487018569236724</v>
       </c>
       <c r="Q20" t="n">
-        <v>111.8661614571072</v>
+        <v>84.00073346332248</v>
       </c>
       <c r="R20" t="n">
-        <v>207.7686087380687</v>
+        <v>191.5594972221508</v>
       </c>
       <c r="S20" t="n">
-        <v>232.1919625200514</v>
+        <v>226.3118737107229</v>
       </c>
       <c r="T20" t="n">
-        <v>223.3639471047855</v>
+        <v>222.2343765611613</v>
       </c>
       <c r="U20" t="n">
-        <v>250.1669538870295</v>
+        <v>250.1463106789221</v>
       </c>
       <c r="V20" t="n">
         <v>320.879783609152</v>
@@ -24062,16 +24062,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>148.8543720391606</v>
+        <v>148.7163084132398</v>
       </c>
       <c r="H21" t="n">
-        <v>126.7956481695613</v>
+        <v>125.4622442034314</v>
       </c>
       <c r="I21" t="n">
-        <v>111.1426883334193</v>
+        <v>106.3891819146546</v>
       </c>
       <c r="J21" t="n">
-        <v>62.8457980489157</v>
+        <v>49.80181311049407</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24092,19 +24092,19 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>20.88118919956569</v>
+        <v>3.257488459218298</v>
       </c>
       <c r="R21" t="n">
-        <v>141.5350185239054</v>
+        <v>132.9629628724363</v>
       </c>
       <c r="S21" t="n">
-        <v>193.6296756875513</v>
+        <v>191.0652043902942</v>
       </c>
       <c r="T21" t="n">
-        <v>215.4133639204314</v>
+        <v>214.8568706212155</v>
       </c>
       <c r="U21" t="n">
-        <v>237.2352910471869</v>
+        <v>237.2262079139026</v>
       </c>
       <c r="V21" t="n">
         <v>240.6489209154022</v>
@@ -24141,49 +24141,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G22" t="n">
-        <v>168.7928003659262</v>
+        <v>168.6770524598119</v>
       </c>
       <c r="H22" t="n">
-        <v>166.6425874648544</v>
+        <v>165.6134833541297</v>
       </c>
       <c r="I22" t="n">
-        <v>167.6204239903589</v>
+        <v>164.1395687773966</v>
       </c>
       <c r="J22" t="n">
-        <v>126.7458061042081</v>
+        <v>118.5624291419324</v>
       </c>
       <c r="K22" t="n">
-        <v>77.72166293489558</v>
+        <v>64.27386075180667</v>
       </c>
       <c r="L22" t="n">
-        <v>45.8334892091311</v>
+        <v>28.62493233102187</v>
       </c>
       <c r="M22" t="n">
-        <v>39.64227122411658</v>
+        <v>21.49826081386603</v>
       </c>
       <c r="N22" t="n">
-        <v>30.60255928634805</v>
+        <v>12.88997288979596</v>
       </c>
       <c r="O22" t="n">
-        <v>50.48626147098734</v>
+        <v>34.12582106858778</v>
       </c>
       <c r="P22" t="n">
-        <v>69.60865742247636</v>
+        <v>55.60947430480697</v>
       </c>
       <c r="Q22" t="n">
-        <v>134.9228615686379</v>
+        <v>125.2305528121096</v>
       </c>
       <c r="R22" t="n">
-        <v>207.5677595208579</v>
+        <v>202.3633127604856</v>
       </c>
       <c r="S22" t="n">
-        <v>237.0417967855364</v>
+        <v>235.0246264580731</v>
       </c>
       <c r="T22" t="n">
-        <v>224.154758052356</v>
+        <v>223.6601988171407</v>
       </c>
       <c r="U22" t="n">
-        <v>288.6615765379532</v>
+        <v>288.6552630158016</v>
       </c>
       <c r="V22" t="n">
         <v>245.1090151844499</v>
@@ -24220,19 +24220,19 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G23" t="n">
-        <v>419.0433278923953</v>
+        <v>418.7852877910533</v>
       </c>
       <c r="H23" t="n">
-        <v>349.1224415328191</v>
+        <v>346.4797883449514</v>
       </c>
       <c r="I23" t="n">
-        <v>248.9190046445362</v>
+        <v>238.9709136375527</v>
       </c>
       <c r="J23" t="n">
-        <v>94.19388718318407</v>
+        <v>72.29305613191724</v>
       </c>
       <c r="K23" t="n">
-        <v>32.82366854106931</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -24247,22 +24247,22 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>44.59350769232816</v>
+        <v>7.487018569236724</v>
       </c>
       <c r="Q23" t="n">
-        <v>111.8661614571072</v>
+        <v>84.00073346332248</v>
       </c>
       <c r="R23" t="n">
-        <v>207.7686087380687</v>
+        <v>191.5594972221508</v>
       </c>
       <c r="S23" t="n">
-        <v>232.1919625200514</v>
+        <v>226.3118737107229</v>
       </c>
       <c r="T23" t="n">
-        <v>223.3639471047855</v>
+        <v>222.2343765611613</v>
       </c>
       <c r="U23" t="n">
-        <v>250.1669538870295</v>
+        <v>250.1463106789221</v>
       </c>
       <c r="V23" t="n">
         <v>320.879783609152</v>
@@ -24299,16 +24299,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>148.8543720391606</v>
+        <v>148.7163084132398</v>
       </c>
       <c r="H24" t="n">
-        <v>126.7956481695613</v>
+        <v>125.4622442034314</v>
       </c>
       <c r="I24" t="n">
-        <v>111.1426883334193</v>
+        <v>106.3891819146546</v>
       </c>
       <c r="J24" t="n">
-        <v>62.8457980489157</v>
+        <v>49.80181311049407</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24329,19 +24329,19 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>20.88118919956569</v>
+        <v>3.257488459218298</v>
       </c>
       <c r="R24" t="n">
-        <v>141.5350185239054</v>
+        <v>132.9629628724363</v>
       </c>
       <c r="S24" t="n">
-        <v>193.6296756875513</v>
+        <v>191.0652043902942</v>
       </c>
       <c r="T24" t="n">
-        <v>215.4133639204314</v>
+        <v>214.8568706212155</v>
       </c>
       <c r="U24" t="n">
-        <v>237.2352910471869</v>
+        <v>237.2262079139026</v>
       </c>
       <c r="V24" t="n">
         <v>240.6489209154022</v>
@@ -24378,49 +24378,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G25" t="n">
-        <v>168.7928003659262</v>
+        <v>168.6770524598119</v>
       </c>
       <c r="H25" t="n">
-        <v>166.6425874648544</v>
+        <v>165.6134833541297</v>
       </c>
       <c r="I25" t="n">
-        <v>167.6204239903589</v>
+        <v>164.1395687773966</v>
       </c>
       <c r="J25" t="n">
-        <v>126.7458061042081</v>
+        <v>118.5624291419324</v>
       </c>
       <c r="K25" t="n">
-        <v>77.72166293489558</v>
+        <v>64.27386075180667</v>
       </c>
       <c r="L25" t="n">
-        <v>45.8334892091311</v>
+        <v>28.62493233102187</v>
       </c>
       <c r="M25" t="n">
-        <v>39.64227122411658</v>
+        <v>21.49826081386603</v>
       </c>
       <c r="N25" t="n">
-        <v>30.60255928634805</v>
+        <v>12.88997288979596</v>
       </c>
       <c r="O25" t="n">
-        <v>50.48626147098734</v>
+        <v>34.12582106858778</v>
       </c>
       <c r="P25" t="n">
-        <v>69.60865742247636</v>
+        <v>55.60947430480697</v>
       </c>
       <c r="Q25" t="n">
-        <v>134.9228615686379</v>
+        <v>125.2305528121096</v>
       </c>
       <c r="R25" t="n">
-        <v>207.5677595208579</v>
+        <v>202.3633127604856</v>
       </c>
       <c r="S25" t="n">
-        <v>237.0417967855364</v>
+        <v>235.0246264580731</v>
       </c>
       <c r="T25" t="n">
-        <v>224.154758052356</v>
+        <v>223.6601988171407</v>
       </c>
       <c r="U25" t="n">
-        <v>288.6615765379532</v>
+        <v>288.6552630158016</v>
       </c>
       <c r="V25" t="n">
         <v>245.1090151844499</v>
@@ -24457,19 +24457,19 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G26" t="n">
-        <v>419.0433278923953</v>
+        <v>418.7852877910533</v>
       </c>
       <c r="H26" t="n">
-        <v>349.1224415328191</v>
+        <v>346.4797883449514</v>
       </c>
       <c r="I26" t="n">
-        <v>248.9190046445362</v>
+        <v>238.9709136375527</v>
       </c>
       <c r="J26" t="n">
-        <v>94.19388718318407</v>
+        <v>72.29305613191724</v>
       </c>
       <c r="K26" t="n">
-        <v>32.82366854106931</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -24484,22 +24484,22 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>44.59350769232816</v>
+        <v>7.487018569236724</v>
       </c>
       <c r="Q26" t="n">
-        <v>111.8661614571072</v>
+        <v>84.00073346332248</v>
       </c>
       <c r="R26" t="n">
-        <v>207.7686087380687</v>
+        <v>191.5594972221508</v>
       </c>
       <c r="S26" t="n">
-        <v>232.1919625200514</v>
+        <v>226.3118737107229</v>
       </c>
       <c r="T26" t="n">
-        <v>223.3639471047855</v>
+        <v>222.2343765611613</v>
       </c>
       <c r="U26" t="n">
-        <v>250.1669538870295</v>
+        <v>250.1463106789221</v>
       </c>
       <c r="V26" t="n">
         <v>320.879783609152</v>
@@ -24536,16 +24536,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>148.8543720391606</v>
+        <v>148.7163084132398</v>
       </c>
       <c r="H27" t="n">
-        <v>126.7956481695613</v>
+        <v>125.4622442034314</v>
       </c>
       <c r="I27" t="n">
-        <v>111.1426883334193</v>
+        <v>106.3891819146546</v>
       </c>
       <c r="J27" t="n">
-        <v>62.8457980489157</v>
+        <v>49.80181311049407</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24566,19 +24566,19 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>20.88118919956569</v>
+        <v>3.257488459218298</v>
       </c>
       <c r="R27" t="n">
-        <v>141.5350185239054</v>
+        <v>132.9629628724363</v>
       </c>
       <c r="S27" t="n">
-        <v>193.6296756875513</v>
+        <v>191.0652043902942</v>
       </c>
       <c r="T27" t="n">
-        <v>215.4133639204314</v>
+        <v>214.8568706212155</v>
       </c>
       <c r="U27" t="n">
-        <v>237.2352910471869</v>
+        <v>237.2262079139026</v>
       </c>
       <c r="V27" t="n">
         <v>240.6489209154022</v>
@@ -24615,49 +24615,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
-        <v>168.7928003659262</v>
+        <v>168.6770524598119</v>
       </c>
       <c r="H28" t="n">
-        <v>166.6425874648544</v>
+        <v>165.6134833541297</v>
       </c>
       <c r="I28" t="n">
-        <v>167.6204239903589</v>
+        <v>164.1395687773966</v>
       </c>
       <c r="J28" t="n">
-        <v>126.7458061042081</v>
+        <v>118.5624291419324</v>
       </c>
       <c r="K28" t="n">
-        <v>77.72166293489558</v>
+        <v>64.27386075180667</v>
       </c>
       <c r="L28" t="n">
-        <v>45.8334892091311</v>
+        <v>28.62493233102187</v>
       </c>
       <c r="M28" t="n">
-        <v>39.64227122411658</v>
+        <v>21.49826081386603</v>
       </c>
       <c r="N28" t="n">
-        <v>30.60255928634805</v>
+        <v>12.88997288979596</v>
       </c>
       <c r="O28" t="n">
-        <v>50.48626147098734</v>
+        <v>34.12582106858778</v>
       </c>
       <c r="P28" t="n">
-        <v>69.60865742247636</v>
+        <v>55.60947430480697</v>
       </c>
       <c r="Q28" t="n">
-        <v>134.9228615686379</v>
+        <v>125.2305528121096</v>
       </c>
       <c r="R28" t="n">
-        <v>207.5677595208579</v>
+        <v>202.3633127604856</v>
       </c>
       <c r="S28" t="n">
-        <v>237.0417967855364</v>
+        <v>235.0246264580731</v>
       </c>
       <c r="T28" t="n">
-        <v>224.154758052356</v>
+        <v>223.6601988171407</v>
       </c>
       <c r="U28" t="n">
-        <v>288.6615765379532</v>
+        <v>288.6552630158016</v>
       </c>
       <c r="V28" t="n">
         <v>245.1090151844499</v>
@@ -24694,19 +24694,19 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G29" t="n">
-        <v>419.0433278923953</v>
+        <v>418.7852877910533</v>
       </c>
       <c r="H29" t="n">
-        <v>349.1224415328191</v>
+        <v>346.4797883449514</v>
       </c>
       <c r="I29" t="n">
-        <v>248.9190046445362</v>
+        <v>238.9709136375527</v>
       </c>
       <c r="J29" t="n">
-        <v>94.19388718318407</v>
+        <v>72.29305613191724</v>
       </c>
       <c r="K29" t="n">
-        <v>32.82366854106931</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -24721,22 +24721,22 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>44.59350769232816</v>
+        <v>7.487018569236724</v>
       </c>
       <c r="Q29" t="n">
-        <v>111.8661614571072</v>
+        <v>84.00073346332248</v>
       </c>
       <c r="R29" t="n">
-        <v>207.7686087380687</v>
+        <v>191.5594972221508</v>
       </c>
       <c r="S29" t="n">
-        <v>232.1919625200514</v>
+        <v>226.3118737107229</v>
       </c>
       <c r="T29" t="n">
-        <v>223.3639471047855</v>
+        <v>222.2343765611613</v>
       </c>
       <c r="U29" t="n">
-        <v>250.1669538870295</v>
+        <v>250.1463106789221</v>
       </c>
       <c r="V29" t="n">
         <v>320.879783609152</v>
@@ -24773,16 +24773,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>148.8543720391606</v>
+        <v>148.7163084132398</v>
       </c>
       <c r="H30" t="n">
-        <v>126.7956481695613</v>
+        <v>125.4622442034314</v>
       </c>
       <c r="I30" t="n">
-        <v>111.1426883334193</v>
+        <v>106.3891819146546</v>
       </c>
       <c r="J30" t="n">
-        <v>62.8457980489157</v>
+        <v>49.80181311049407</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24803,19 +24803,19 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>20.88118919956569</v>
+        <v>3.257488459218298</v>
       </c>
       <c r="R30" t="n">
-        <v>141.5350185239054</v>
+        <v>132.9629628724363</v>
       </c>
       <c r="S30" t="n">
-        <v>193.6296756875513</v>
+        <v>191.0652043902942</v>
       </c>
       <c r="T30" t="n">
-        <v>215.4133639204314</v>
+        <v>214.8568706212155</v>
       </c>
       <c r="U30" t="n">
-        <v>237.2352910471869</v>
+        <v>237.2262079139026</v>
       </c>
       <c r="V30" t="n">
         <v>240.6489209154022</v>
@@ -24852,49 +24852,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G31" t="n">
-        <v>168.7928003659262</v>
+        <v>168.6770524598119</v>
       </c>
       <c r="H31" t="n">
-        <v>166.6425874648544</v>
+        <v>165.6134833541297</v>
       </c>
       <c r="I31" t="n">
-        <v>167.6204239903589</v>
+        <v>164.1395687773966</v>
       </c>
       <c r="J31" t="n">
-        <v>126.7458061042081</v>
+        <v>118.5624291419324</v>
       </c>
       <c r="K31" t="n">
-        <v>77.72166293489558</v>
+        <v>64.27386075180667</v>
       </c>
       <c r="L31" t="n">
-        <v>45.8334892091311</v>
+        <v>28.62493233102187</v>
       </c>
       <c r="M31" t="n">
-        <v>39.64227122411658</v>
+        <v>21.49826081386603</v>
       </c>
       <c r="N31" t="n">
-        <v>30.60255928634805</v>
+        <v>12.88997288979596</v>
       </c>
       <c r="O31" t="n">
-        <v>50.48626147098734</v>
+        <v>34.12582106858778</v>
       </c>
       <c r="P31" t="n">
-        <v>69.60865742247636</v>
+        <v>55.60947430480697</v>
       </c>
       <c r="Q31" t="n">
-        <v>134.9228615686379</v>
+        <v>125.2305528121096</v>
       </c>
       <c r="R31" t="n">
-        <v>207.5677595208579</v>
+        <v>202.3633127604856</v>
       </c>
       <c r="S31" t="n">
-        <v>237.0417967855364</v>
+        <v>235.0246264580731</v>
       </c>
       <c r="T31" t="n">
-        <v>224.154758052356</v>
+        <v>223.6601988171407</v>
       </c>
       <c r="U31" t="n">
-        <v>288.6615765379532</v>
+        <v>288.6552630158016</v>
       </c>
       <c r="V31" t="n">
         <v>245.1090151844499</v>
@@ -24931,19 +24931,19 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G32" t="n">
-        <v>419.0433278923953</v>
+        <v>418.7852877910533</v>
       </c>
       <c r="H32" t="n">
-        <v>349.1224415328191</v>
+        <v>346.4797883449514</v>
       </c>
       <c r="I32" t="n">
-        <v>248.9190046445362</v>
+        <v>238.9709136375527</v>
       </c>
       <c r="J32" t="n">
-        <v>94.19388718318407</v>
+        <v>72.29305613191724</v>
       </c>
       <c r="K32" t="n">
-        <v>32.82366854106931</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -24958,22 +24958,22 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>44.59350769232816</v>
+        <v>7.487018569236724</v>
       </c>
       <c r="Q32" t="n">
-        <v>111.8661614571072</v>
+        <v>84.00073346332248</v>
       </c>
       <c r="R32" t="n">
-        <v>207.7686087380687</v>
+        <v>191.5594972221508</v>
       </c>
       <c r="S32" t="n">
-        <v>232.1919625200514</v>
+        <v>226.3118737107229</v>
       </c>
       <c r="T32" t="n">
-        <v>223.3639471047855</v>
+        <v>222.2343765611613</v>
       </c>
       <c r="U32" t="n">
-        <v>250.1669538870295</v>
+        <v>250.1463106789221</v>
       </c>
       <c r="V32" t="n">
         <v>320.879783609152</v>
@@ -25010,16 +25010,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
-        <v>148.8543720391606</v>
+        <v>148.7163084132398</v>
       </c>
       <c r="H33" t="n">
-        <v>126.7956481695613</v>
+        <v>125.4622442034314</v>
       </c>
       <c r="I33" t="n">
-        <v>111.1426883334193</v>
+        <v>106.3891819146546</v>
       </c>
       <c r="J33" t="n">
-        <v>62.8457980489157</v>
+        <v>49.80181311049407</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25040,19 +25040,19 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>20.88118919956569</v>
+        <v>3.257488459218298</v>
       </c>
       <c r="R33" t="n">
-        <v>141.5350185239054</v>
+        <v>132.9629628724363</v>
       </c>
       <c r="S33" t="n">
-        <v>193.6296756875513</v>
+        <v>191.0652043902942</v>
       </c>
       <c r="T33" t="n">
-        <v>215.4133639204314</v>
+        <v>214.8568706212155</v>
       </c>
       <c r="U33" t="n">
-        <v>237.2352910471869</v>
+        <v>237.2262079139026</v>
       </c>
       <c r="V33" t="n">
         <v>240.6489209154022</v>
@@ -25089,49 +25089,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
-        <v>168.7928003659262</v>
+        <v>168.6770524598119</v>
       </c>
       <c r="H34" t="n">
-        <v>166.6425874648544</v>
+        <v>165.6134833541297</v>
       </c>
       <c r="I34" t="n">
-        <v>167.6204239903589</v>
+        <v>164.1395687773966</v>
       </c>
       <c r="J34" t="n">
-        <v>126.7458061042081</v>
+        <v>118.5624291419324</v>
       </c>
       <c r="K34" t="n">
-        <v>77.72166293489558</v>
+        <v>64.27386075180667</v>
       </c>
       <c r="L34" t="n">
-        <v>45.83348920913111</v>
+        <v>28.62493233102187</v>
       </c>
       <c r="M34" t="n">
-        <v>39.64227122411658</v>
+        <v>21.49826081386603</v>
       </c>
       <c r="N34" t="n">
-        <v>30.60255928634805</v>
+        <v>12.88997288979596</v>
       </c>
       <c r="O34" t="n">
-        <v>50.48626147098734</v>
+        <v>34.12582106858778</v>
       </c>
       <c r="P34" t="n">
-        <v>69.60865742247636</v>
+        <v>55.60947430480697</v>
       </c>
       <c r="Q34" t="n">
-        <v>134.9228615686379</v>
+        <v>125.2305528121096</v>
       </c>
       <c r="R34" t="n">
-        <v>207.5677595208579</v>
+        <v>202.3633127604856</v>
       </c>
       <c r="S34" t="n">
-        <v>237.0417967855364</v>
+        <v>235.0246264580731</v>
       </c>
       <c r="T34" t="n">
-        <v>224.154758052356</v>
+        <v>223.6601988171407</v>
       </c>
       <c r="U34" t="n">
-        <v>288.6615765379532</v>
+        <v>288.6552630158016</v>
       </c>
       <c r="V34" t="n">
         <v>245.1090151844499</v>
@@ -25168,19 +25168,19 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G35" t="n">
-        <v>419.0433278923953</v>
+        <v>418.7852877910533</v>
       </c>
       <c r="H35" t="n">
-        <v>349.1224415328191</v>
+        <v>346.4797883449514</v>
       </c>
       <c r="I35" t="n">
-        <v>248.9190046445362</v>
+        <v>238.9709136375527</v>
       </c>
       <c r="J35" t="n">
-        <v>94.19388718318407</v>
+        <v>72.29305613191724</v>
       </c>
       <c r="K35" t="n">
-        <v>32.82366854106931</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -25195,22 +25195,22 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>44.59350769232816</v>
+        <v>7.487018569236724</v>
       </c>
       <c r="Q35" t="n">
-        <v>111.8661614571072</v>
+        <v>84.00073346332248</v>
       </c>
       <c r="R35" t="n">
-        <v>207.7686087380687</v>
+        <v>191.5594972221508</v>
       </c>
       <c r="S35" t="n">
-        <v>232.1919625200514</v>
+        <v>226.3118737107229</v>
       </c>
       <c r="T35" t="n">
-        <v>223.3639471047855</v>
+        <v>222.2343765611613</v>
       </c>
       <c r="U35" t="n">
-        <v>250.1669538870295</v>
+        <v>250.1463106789221</v>
       </c>
       <c r="V35" t="n">
         <v>320.879783609152</v>
@@ -25247,16 +25247,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>148.8543720391606</v>
+        <v>148.7163084132398</v>
       </c>
       <c r="H36" t="n">
-        <v>126.7956481695613</v>
+        <v>125.4622442034314</v>
       </c>
       <c r="I36" t="n">
-        <v>111.1426883334193</v>
+        <v>106.3891819146546</v>
       </c>
       <c r="J36" t="n">
-        <v>62.8457980489157</v>
+        <v>49.80181311049407</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25277,19 +25277,19 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>20.88118919956569</v>
+        <v>3.257488459218298</v>
       </c>
       <c r="R36" t="n">
-        <v>141.5350185239054</v>
+        <v>132.9629628724363</v>
       </c>
       <c r="S36" t="n">
-        <v>193.6296756875513</v>
+        <v>191.0652043902942</v>
       </c>
       <c r="T36" t="n">
-        <v>215.4133639204314</v>
+        <v>214.8568706212155</v>
       </c>
       <c r="U36" t="n">
-        <v>237.2352910471869</v>
+        <v>237.2262079139026</v>
       </c>
       <c r="V36" t="n">
         <v>240.6489209154022</v>
@@ -25326,49 +25326,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G37" t="n">
-        <v>168.7928003659262</v>
+        <v>168.6770524598119</v>
       </c>
       <c r="H37" t="n">
-        <v>166.6425874648544</v>
+        <v>165.6134833541297</v>
       </c>
       <c r="I37" t="n">
-        <v>167.6204239903589</v>
+        <v>164.1395687773966</v>
       </c>
       <c r="J37" t="n">
-        <v>126.7458061042081</v>
+        <v>118.5624291419324</v>
       </c>
       <c r="K37" t="n">
-        <v>77.72166293489558</v>
+        <v>64.27386075180667</v>
       </c>
       <c r="L37" t="n">
-        <v>45.8334892091311</v>
+        <v>28.62493233102187</v>
       </c>
       <c r="M37" t="n">
-        <v>39.64227122411658</v>
+        <v>21.49826081386603</v>
       </c>
       <c r="N37" t="n">
-        <v>30.60255928634805</v>
+        <v>12.88997288979596</v>
       </c>
       <c r="O37" t="n">
-        <v>50.48626147098734</v>
+        <v>34.12582106858778</v>
       </c>
       <c r="P37" t="n">
-        <v>69.60865742247636</v>
+        <v>55.60947430480697</v>
       </c>
       <c r="Q37" t="n">
-        <v>134.9228615686379</v>
+        <v>125.2305528121096</v>
       </c>
       <c r="R37" t="n">
-        <v>207.5677595208579</v>
+        <v>202.3633127604856</v>
       </c>
       <c r="S37" t="n">
-        <v>237.0417967855364</v>
+        <v>235.0246264580731</v>
       </c>
       <c r="T37" t="n">
-        <v>224.154758052356</v>
+        <v>223.6601988171407</v>
       </c>
       <c r="U37" t="n">
-        <v>288.6615765379532</v>
+        <v>288.6552630158016</v>
       </c>
       <c r="V37" t="n">
         <v>245.1090151844499</v>
@@ -25405,19 +25405,19 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G38" t="n">
-        <v>419.0433278923953</v>
+        <v>418.7852877910533</v>
       </c>
       <c r="H38" t="n">
-        <v>349.1224415328191</v>
+        <v>346.4797883449514</v>
       </c>
       <c r="I38" t="n">
-        <v>248.9190046445362</v>
+        <v>238.9709136375527</v>
       </c>
       <c r="J38" t="n">
-        <v>94.19388718318407</v>
+        <v>72.29305613191724</v>
       </c>
       <c r="K38" t="n">
-        <v>32.82366854106931</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -25432,22 +25432,22 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>44.59350769232816</v>
+        <v>7.487018569236724</v>
       </c>
       <c r="Q38" t="n">
-        <v>111.8661614571072</v>
+        <v>84.00073346332248</v>
       </c>
       <c r="R38" t="n">
-        <v>207.7686087380687</v>
+        <v>191.5594972221508</v>
       </c>
       <c r="S38" t="n">
-        <v>232.1919625200514</v>
+        <v>226.3118737107229</v>
       </c>
       <c r="T38" t="n">
-        <v>223.3639471047855</v>
+        <v>222.2343765611613</v>
       </c>
       <c r="U38" t="n">
-        <v>250.1669538870295</v>
+        <v>250.1463106789221</v>
       </c>
       <c r="V38" t="n">
         <v>320.879783609152</v>
@@ -25484,16 +25484,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>148.8543720391606</v>
+        <v>148.7163084132398</v>
       </c>
       <c r="H39" t="n">
-        <v>126.7956481695613</v>
+        <v>125.4622442034314</v>
       </c>
       <c r="I39" t="n">
-        <v>111.1426883334193</v>
+        <v>106.3891819146546</v>
       </c>
       <c r="J39" t="n">
-        <v>62.8457980489157</v>
+        <v>49.80181311049407</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25514,19 +25514,19 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>20.88118919956569</v>
+        <v>3.257488459218298</v>
       </c>
       <c r="R39" t="n">
-        <v>141.5350185239054</v>
+        <v>132.9629628724363</v>
       </c>
       <c r="S39" t="n">
-        <v>193.6296756875513</v>
+        <v>191.0652043902942</v>
       </c>
       <c r="T39" t="n">
-        <v>215.4133639204314</v>
+        <v>214.8568706212155</v>
       </c>
       <c r="U39" t="n">
-        <v>237.2352910471869</v>
+        <v>237.2262079139026</v>
       </c>
       <c r="V39" t="n">
         <v>240.6489209154022</v>
@@ -25563,49 +25563,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G40" t="n">
-        <v>168.7928003659262</v>
+        <v>168.6770524598119</v>
       </c>
       <c r="H40" t="n">
-        <v>166.6425874648544</v>
+        <v>165.6134833541297</v>
       </c>
       <c r="I40" t="n">
-        <v>167.6204239903589</v>
+        <v>164.1395687773966</v>
       </c>
       <c r="J40" t="n">
-        <v>126.7458061042081</v>
+        <v>118.5624291419324</v>
       </c>
       <c r="K40" t="n">
-        <v>77.72166293489558</v>
+        <v>64.27386075180667</v>
       </c>
       <c r="L40" t="n">
-        <v>45.8334892091311</v>
+        <v>28.62493233102187</v>
       </c>
       <c r="M40" t="n">
-        <v>39.64227122411658</v>
+        <v>21.49826081386603</v>
       </c>
       <c r="N40" t="n">
-        <v>30.60255928634805</v>
+        <v>12.88997288979596</v>
       </c>
       <c r="O40" t="n">
-        <v>50.48626147098734</v>
+        <v>34.12582106858778</v>
       </c>
       <c r="P40" t="n">
-        <v>69.60865742247636</v>
+        <v>55.60947430480697</v>
       </c>
       <c r="Q40" t="n">
-        <v>134.9228615686379</v>
+        <v>125.2305528121096</v>
       </c>
       <c r="R40" t="n">
-        <v>207.5677595208579</v>
+        <v>202.3633127604856</v>
       </c>
       <c r="S40" t="n">
-        <v>237.0417967855364</v>
+        <v>235.0246264580731</v>
       </c>
       <c r="T40" t="n">
-        <v>224.154758052356</v>
+        <v>223.6601988171407</v>
       </c>
       <c r="U40" t="n">
-        <v>288.6615765379532</v>
+        <v>288.6552630158016</v>
       </c>
       <c r="V40" t="n">
         <v>245.1090151844499</v>
@@ -25642,19 +25642,19 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G41" t="n">
-        <v>419.0433278923953</v>
+        <v>418.7852877910533</v>
       </c>
       <c r="H41" t="n">
-        <v>349.1224415328191</v>
+        <v>346.4797883449514</v>
       </c>
       <c r="I41" t="n">
-        <v>248.9190046445362</v>
+        <v>238.9709136375527</v>
       </c>
       <c r="J41" t="n">
-        <v>94.19388718318407</v>
+        <v>72.29305613191724</v>
       </c>
       <c r="K41" t="n">
-        <v>32.82366854106931</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -25669,22 +25669,22 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>44.59350769232816</v>
+        <v>7.487018569236724</v>
       </c>
       <c r="Q41" t="n">
-        <v>111.8661614571072</v>
+        <v>84.00073346332248</v>
       </c>
       <c r="R41" t="n">
-        <v>207.7686087380687</v>
+        <v>191.5594972221508</v>
       </c>
       <c r="S41" t="n">
-        <v>232.1919625200514</v>
+        <v>226.3118737107229</v>
       </c>
       <c r="T41" t="n">
-        <v>223.3639471047855</v>
+        <v>222.2343765611613</v>
       </c>
       <c r="U41" t="n">
-        <v>250.1669538870295</v>
+        <v>250.1463106789221</v>
       </c>
       <c r="V41" t="n">
         <v>320.879783609152</v>
@@ -25721,16 +25721,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
-        <v>148.8543720391606</v>
+        <v>148.7163084132398</v>
       </c>
       <c r="H42" t="n">
-        <v>126.7956481695613</v>
+        <v>125.4622442034314</v>
       </c>
       <c r="I42" t="n">
-        <v>111.1426883334193</v>
+        <v>106.3891819146546</v>
       </c>
       <c r="J42" t="n">
-        <v>62.8457980489157</v>
+        <v>49.80181311049407</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25751,19 +25751,19 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>20.88118919956569</v>
+        <v>3.257488459218298</v>
       </c>
       <c r="R42" t="n">
-        <v>141.5350185239054</v>
+        <v>132.9629628724363</v>
       </c>
       <c r="S42" t="n">
-        <v>193.6296756875513</v>
+        <v>191.0652043902942</v>
       </c>
       <c r="T42" t="n">
-        <v>215.4133639204314</v>
+        <v>214.8568706212155</v>
       </c>
       <c r="U42" t="n">
-        <v>237.2352910471869</v>
+        <v>237.2262079139026</v>
       </c>
       <c r="V42" t="n">
         <v>240.6489209154022</v>
@@ -25800,49 +25800,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G43" t="n">
-        <v>168.7928003659262</v>
+        <v>168.6770524598119</v>
       </c>
       <c r="H43" t="n">
-        <v>166.6425874648544</v>
+        <v>165.6134833541297</v>
       </c>
       <c r="I43" t="n">
-        <v>167.6204239903589</v>
+        <v>164.1395687773966</v>
       </c>
       <c r="J43" t="n">
-        <v>126.7458061042081</v>
+        <v>118.5624291419324</v>
       </c>
       <c r="K43" t="n">
-        <v>77.72166293489558</v>
+        <v>64.27386075180667</v>
       </c>
       <c r="L43" t="n">
-        <v>45.8334892091311</v>
+        <v>28.62493233102187</v>
       </c>
       <c r="M43" t="n">
-        <v>39.64227122411658</v>
+        <v>21.49826081386603</v>
       </c>
       <c r="N43" t="n">
-        <v>30.60255928634805</v>
+        <v>12.88997288979596</v>
       </c>
       <c r="O43" t="n">
-        <v>50.48626147098734</v>
+        <v>34.12582106858778</v>
       </c>
       <c r="P43" t="n">
-        <v>69.60865742247636</v>
+        <v>55.60947430480697</v>
       </c>
       <c r="Q43" t="n">
-        <v>134.9228615686379</v>
+        <v>125.2305528121096</v>
       </c>
       <c r="R43" t="n">
-        <v>207.5677595208579</v>
+        <v>202.3633127604856</v>
       </c>
       <c r="S43" t="n">
-        <v>237.0417967855364</v>
+        <v>235.0246264580731</v>
       </c>
       <c r="T43" t="n">
-        <v>224.154758052356</v>
+        <v>223.6601988171407</v>
       </c>
       <c r="U43" t="n">
-        <v>288.6615765379532</v>
+        <v>288.6552630158016</v>
       </c>
       <c r="V43" t="n">
         <v>245.1090151844499</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>368741.7737435043</v>
+        <v>392295.2490771558</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>368741.7737435043</v>
+        <v>392295.2490771558</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>368741.7737435043</v>
+        <v>392295.2490771558</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>368741.7737435043</v>
+        <v>392295.2490771558</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>368741.7737435043</v>
+        <v>392295.2490771558</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>368741.7737435043</v>
+        <v>392295.2490771558</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>368741.7737435043</v>
+        <v>392295.2490771558</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>368741.7737435043</v>
+        <v>392295.2490771558</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>368741.7737435043</v>
+        <v>392295.2490771558</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>368741.7737435043</v>
+        <v>392295.2490771558</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>368741.7737435043</v>
+        <v>392295.2490771558</v>
       </c>
     </row>
     <row r="16">
@@ -26322,40 +26322,40 @@
         <v>52885.03113620008</v>
       </c>
       <c r="E2" t="n">
-        <v>57318.6244920368</v>
+        <v>61696.42159381812</v>
       </c>
       <c r="F2" t="n">
-        <v>57318.6244920368</v>
+        <v>61696.42159381812</v>
       </c>
       <c r="G2" t="n">
-        <v>57318.6244920368</v>
+        <v>61696.42159381812</v>
       </c>
       <c r="H2" t="n">
-        <v>57318.6244920368</v>
+        <v>61696.42159381812</v>
       </c>
       <c r="I2" t="n">
-        <v>57318.6244920368</v>
+        <v>61696.42159381812</v>
       </c>
       <c r="J2" t="n">
-        <v>57318.6244920368</v>
+        <v>61696.42159381812</v>
       </c>
       <c r="K2" t="n">
-        <v>57318.6244920368</v>
+        <v>61696.42159381812</v>
       </c>
       <c r="L2" t="n">
-        <v>57318.6244920368</v>
+        <v>61696.42159381812</v>
       </c>
       <c r="M2" t="n">
-        <v>57318.62449203681</v>
+        <v>61696.42159381812</v>
       </c>
       <c r="N2" t="n">
-        <v>57318.62449203682</v>
+        <v>61696.42159381812</v>
       </c>
       <c r="O2" t="n">
-        <v>57318.62449203683</v>
+        <v>61696.42159381812</v>
       </c>
       <c r="P2" t="n">
-        <v>61696.42159381811</v>
+        <v>61696.42159381812</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>40281.89958238632</v>
+        <v>91850.30972755932</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>42721.64299957015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26426,37 +26426,37 @@
         <v>26442.51556810003</v>
       </c>
       <c r="E4" t="n">
-        <v>24830.02679128307</v>
+        <v>22116.7195142469</v>
       </c>
       <c r="F4" t="n">
-        <v>24830.02679128307</v>
+        <v>22116.7195142469</v>
       </c>
       <c r="G4" t="n">
-        <v>24830.02679128307</v>
+        <v>22116.7195142469</v>
       </c>
       <c r="H4" t="n">
-        <v>24830.02679128307</v>
+        <v>22116.7195142469</v>
       </c>
       <c r="I4" t="n">
-        <v>24830.02679128307</v>
+        <v>22116.7195142469</v>
       </c>
       <c r="J4" t="n">
-        <v>24830.02679128307</v>
+        <v>22116.7195142469</v>
       </c>
       <c r="K4" t="n">
-        <v>24830.02679128307</v>
+        <v>22116.7195142469</v>
       </c>
       <c r="L4" t="n">
-        <v>24830.02679128307</v>
+        <v>22116.7195142469</v>
       </c>
       <c r="M4" t="n">
-        <v>24830.02679128307</v>
+        <v>22116.7195142469</v>
       </c>
       <c r="N4" t="n">
-        <v>24830.02679128307</v>
+        <v>22116.7195142469</v>
       </c>
       <c r="O4" t="n">
-        <v>24830.02679128307</v>
+        <v>22116.7195142469</v>
       </c>
       <c r="P4" t="n">
         <v>22116.7195142469</v>
@@ -26478,37 +26478,37 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>1093.032277569317</v>
+        <v>2492.319237121088</v>
       </c>
       <c r="F5" t="n">
-        <v>1093.032277569317</v>
+        <v>2492.319237121088</v>
       </c>
       <c r="G5" t="n">
-        <v>1093.032277569317</v>
+        <v>2492.319237121088</v>
       </c>
       <c r="H5" t="n">
-        <v>1093.032277569317</v>
+        <v>2492.319237121088</v>
       </c>
       <c r="I5" t="n">
-        <v>1093.032277569317</v>
+        <v>2492.319237121088</v>
       </c>
       <c r="J5" t="n">
-        <v>1093.032277569317</v>
+        <v>2492.319237121088</v>
       </c>
       <c r="K5" t="n">
-        <v>1093.032277569317</v>
+        <v>2492.319237121088</v>
       </c>
       <c r="L5" t="n">
-        <v>1093.032277569317</v>
+        <v>2492.319237121088</v>
       </c>
       <c r="M5" t="n">
-        <v>1093.032277569317</v>
+        <v>2492.319237121088</v>
       </c>
       <c r="N5" t="n">
-        <v>1093.032277569317</v>
+        <v>2492.319237121088</v>
       </c>
       <c r="O5" t="n">
-        <v>1093.032277569317</v>
+        <v>2492.319237121088</v>
       </c>
       <c r="P5" t="n">
         <v>2492.319237121088</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-7185.084431899952</v>
+        <v>-23989.54503974334</v>
       </c>
       <c r="C6" t="n">
-        <v>-7185.084431899952</v>
+        <v>-23989.54503974334</v>
       </c>
       <c r="D6" t="n">
-        <v>-7185.084431899952</v>
+        <v>-23989.54503974334</v>
       </c>
       <c r="E6" t="n">
-        <v>-8886.33415920191</v>
+        <v>-70686.24844719077</v>
       </c>
       <c r="F6" t="n">
-        <v>31395.56542318441</v>
+        <v>21164.06128036854</v>
       </c>
       <c r="G6" t="n">
-        <v>31395.56542318441</v>
+        <v>21164.06128036854</v>
       </c>
       <c r="H6" t="n">
-        <v>31395.56542318441</v>
+        <v>21164.06128036854</v>
       </c>
       <c r="I6" t="n">
-        <v>31395.56542318441</v>
+        <v>21164.06128036854</v>
       </c>
       <c r="J6" t="n">
-        <v>31395.56542318441</v>
+        <v>21164.06128036854</v>
       </c>
       <c r="K6" t="n">
-        <v>31395.56542318441</v>
+        <v>21164.06128036854</v>
       </c>
       <c r="L6" t="n">
-        <v>31395.56542318441</v>
+        <v>21164.06128036854</v>
       </c>
       <c r="M6" t="n">
-        <v>31395.56542318442</v>
+        <v>21164.06128036854</v>
       </c>
       <c r="N6" t="n">
-        <v>31395.56542318443</v>
+        <v>21164.06128036854</v>
       </c>
       <c r="O6" t="n">
-        <v>31395.56542318443</v>
+        <v>21164.06128036854</v>
       </c>
       <c r="P6" t="n">
-        <v>-5634.260157120027</v>
+        <v>21164.06128036854</v>
       </c>
     </row>
   </sheetData>
@@ -26746,37 +26746,37 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>50.1390953013448</v>
+        <v>114.3265705101416</v>
       </c>
       <c r="F3" t="n">
-        <v>50.1390953013448</v>
+        <v>114.3265705101416</v>
       </c>
       <c r="G3" t="n">
-        <v>50.1390953013448</v>
+        <v>114.3265705101416</v>
       </c>
       <c r="H3" t="n">
-        <v>50.1390953013448</v>
+        <v>114.3265705101416</v>
       </c>
       <c r="I3" t="n">
-        <v>50.1390953013448</v>
+        <v>114.3265705101416</v>
       </c>
       <c r="J3" t="n">
-        <v>50.1390953013448</v>
+        <v>114.3265705101416</v>
       </c>
       <c r="K3" t="n">
-        <v>50.1390953013448</v>
+        <v>114.3265705101416</v>
       </c>
       <c r="L3" t="n">
-        <v>50.1390953013448</v>
+        <v>114.3265705101416</v>
       </c>
       <c r="M3" t="n">
-        <v>50.1390953013448</v>
+        <v>114.3265705101416</v>
       </c>
       <c r="N3" t="n">
-        <v>50.1390953013448</v>
+        <v>114.3265705101416</v>
       </c>
       <c r="O3" t="n">
-        <v>50.1390953013448</v>
+        <v>114.3265705101416</v>
       </c>
       <c r="P3" t="n">
         <v>114.3265705101416</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>50.1390953013448</v>
+        <v>114.3265705101416</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>64.18747520879683</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2015642022164614</v>
+        <v>0.459604303558358</v>
       </c>
       <c r="H11" t="n">
-        <v>2.064269385949336</v>
+        <v>4.706922573817035</v>
       </c>
       <c r="I11" t="n">
-        <v>7.770803905950134</v>
+        <v>17.71889491293361</v>
       </c>
       <c r="J11" t="n">
-        <v>17.1075097078694</v>
+        <v>39.00834075913622</v>
       </c>
       <c r="K11" t="n">
-        <v>25.63972238769222</v>
+        <v>58.46339092876153</v>
       </c>
       <c r="L11" t="n">
-        <v>31.80834284127425</v>
+        <v>72.52900613378564</v>
       </c>
       <c r="M11" t="n">
-        <v>35.39291022244124</v>
+        <v>80.70249416719159</v>
       </c>
       <c r="N11" t="n">
-        <v>35.96560451198877</v>
+        <v>82.00834489467678</v>
       </c>
       <c r="O11" t="n">
-        <v>33.96130047619883</v>
+        <v>77.43815460116835</v>
       </c>
       <c r="P11" t="n">
-        <v>28.98518423397994</v>
+        <v>66.09167335707137</v>
       </c>
       <c r="Q11" t="n">
-        <v>21.76666624210291</v>
+        <v>49.63209423588766</v>
       </c>
       <c r="R11" t="n">
-        <v>12.6615073174798</v>
+        <v>28.87061883339773</v>
       </c>
       <c r="S11" t="n">
-        <v>4.593144258007618</v>
+        <v>10.47323306733609</v>
       </c>
       <c r="T11" t="n">
-        <v>0.8823472952025601</v>
+        <v>2.011917838826713</v>
       </c>
       <c r="U11" t="n">
-        <v>0.01612513617731691</v>
+        <v>0.03676834428466863</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1078463559311945</v>
+        <v>0.2459099818520028</v>
       </c>
       <c r="H12" t="n">
-        <v>1.041568753335484</v>
+        <v>2.374972719465395</v>
       </c>
       <c r="I12" t="n">
-        <v>3.713131114297705</v>
+        <v>8.466637533062377</v>
       </c>
       <c r="J12" t="n">
-        <v>10.18911558383272</v>
+        <v>23.23310052225435</v>
       </c>
       <c r="K12" t="n">
-        <v>17.41482143122275</v>
+        <v>39.70906930633853</v>
       </c>
       <c r="L12" t="n">
-        <v>23.41637653672712</v>
+        <v>53.3937440858921</v>
       </c>
       <c r="M12" t="n">
-        <v>27.32580693923292</v>
+        <v>62.30798092802718</v>
       </c>
       <c r="N12" t="n">
-        <v>28.04903973843817</v>
+        <v>63.95708778000839</v>
       </c>
       <c r="O12" t="n">
-        <v>25.65939153596275</v>
+        <v>58.50824028739296</v>
       </c>
       <c r="P12" t="n">
-        <v>20.59392387952783</v>
+        <v>46.95802100821271</v>
       </c>
       <c r="Q12" t="n">
-        <v>13.76649273255037</v>
+        <v>31.39019347289776</v>
       </c>
       <c r="R12" t="n">
-        <v>6.695934274394691</v>
+        <v>15.26798992586383</v>
       </c>
       <c r="S12" t="n">
-        <v>2.003198760388633</v>
+        <v>4.56767005764575</v>
       </c>
       <c r="T12" t="n">
-        <v>0.4346964960559986</v>
+        <v>0.991189795271888</v>
       </c>
       <c r="U12" t="n">
-        <v>0.007095154995473324</v>
+        <v>0.01617828827973703</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.09041476201881848</v>
+        <v>0.2061626681330423</v>
       </c>
       <c r="H13" t="n">
-        <v>0.8038694295854959</v>
+        <v>1.832973540310141</v>
       </c>
       <c r="I13" t="n">
-        <v>2.71901847962047</v>
+        <v>6.199873692582764</v>
       </c>
       <c r="J13" t="n">
-        <v>6.392323674730466</v>
+        <v>14.57570063700609</v>
       </c>
       <c r="K13" t="n">
-        <v>10.50455144182273</v>
+        <v>23.95235362491163</v>
       </c>
       <c r="L13" t="n">
-        <v>13.44220925505234</v>
+        <v>30.65076613316158</v>
       </c>
       <c r="M13" t="n">
-        <v>14.17292492264079</v>
+        <v>32.31693533289134</v>
       </c>
       <c r="N13" t="n">
-        <v>13.83592444602521</v>
+        <v>31.5485108425773</v>
       </c>
       <c r="O13" t="n">
-        <v>12.779715635169</v>
+        <v>29.14015603756857</v>
       </c>
       <c r="P13" t="n">
-        <v>10.9352544899851</v>
+        <v>24.93443760765448</v>
       </c>
       <c r="Q13" t="n">
-        <v>7.571003390503065</v>
+        <v>17.26331214703139</v>
       </c>
       <c r="R13" t="n">
-        <v>4.065376481318874</v>
+        <v>9.269823241691153</v>
       </c>
       <c r="S13" t="n">
-        <v>1.575682716273409</v>
+        <v>3.592853043736744</v>
       </c>
       <c r="T13" t="n">
-        <v>0.3863176195349516</v>
+        <v>0.8808768547502713</v>
       </c>
       <c r="U13" t="n">
-        <v>0.004931714291935559</v>
+        <v>0.0112452364436205</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2015642022164614</v>
+        <v>0.459604303558358</v>
       </c>
       <c r="H14" t="n">
-        <v>2.064269385949336</v>
+        <v>4.706922573817035</v>
       </c>
       <c r="I14" t="n">
-        <v>7.770803905950134</v>
+        <v>17.71889491293361</v>
       </c>
       <c r="J14" t="n">
-        <v>17.1075097078694</v>
+        <v>39.00834075913622</v>
       </c>
       <c r="K14" t="n">
-        <v>25.63972238769222</v>
+        <v>58.46339092876153</v>
       </c>
       <c r="L14" t="n">
-        <v>31.80834284127425</v>
+        <v>72.52900613378564</v>
       </c>
       <c r="M14" t="n">
-        <v>35.39291022244124</v>
+        <v>80.70249416719159</v>
       </c>
       <c r="N14" t="n">
-        <v>35.96560451198877</v>
+        <v>82.00834489467678</v>
       </c>
       <c r="O14" t="n">
-        <v>33.96130047619883</v>
+        <v>77.43815460116835</v>
       </c>
       <c r="P14" t="n">
-        <v>28.98518423397994</v>
+        <v>66.09167335707137</v>
       </c>
       <c r="Q14" t="n">
-        <v>21.76666624210291</v>
+        <v>49.63209423588766</v>
       </c>
       <c r="R14" t="n">
-        <v>12.6615073174798</v>
+        <v>28.87061883339773</v>
       </c>
       <c r="S14" t="n">
-        <v>4.593144258007618</v>
+        <v>10.47323306733609</v>
       </c>
       <c r="T14" t="n">
-        <v>0.8823472952025601</v>
+        <v>2.011917838826713</v>
       </c>
       <c r="U14" t="n">
-        <v>0.01612513617731691</v>
+        <v>0.03676834428466863</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1078463559311945</v>
+        <v>0.2459099818520028</v>
       </c>
       <c r="H15" t="n">
-        <v>1.041568753335484</v>
+        <v>2.374972719465395</v>
       </c>
       <c r="I15" t="n">
-        <v>3.713131114297705</v>
+        <v>8.466637533062377</v>
       </c>
       <c r="J15" t="n">
-        <v>10.18911558383272</v>
+        <v>23.23310052225435</v>
       </c>
       <c r="K15" t="n">
-        <v>17.41482143122275</v>
+        <v>39.70906930633853</v>
       </c>
       <c r="L15" t="n">
-        <v>23.41637653672712</v>
+        <v>53.3937440858921</v>
       </c>
       <c r="M15" t="n">
-        <v>27.32580693923292</v>
+        <v>62.30798092802718</v>
       </c>
       <c r="N15" t="n">
-        <v>28.04903973843817</v>
+        <v>63.95708778000839</v>
       </c>
       <c r="O15" t="n">
-        <v>25.65939153596275</v>
+        <v>58.50824028739296</v>
       </c>
       <c r="P15" t="n">
-        <v>20.59392387952783</v>
+        <v>46.95802100821271</v>
       </c>
       <c r="Q15" t="n">
-        <v>13.76649273255037</v>
+        <v>31.39019347289776</v>
       </c>
       <c r="R15" t="n">
-        <v>6.695934274394691</v>
+        <v>15.26798992586383</v>
       </c>
       <c r="S15" t="n">
-        <v>2.003198760388633</v>
+        <v>4.56767005764575</v>
       </c>
       <c r="T15" t="n">
-        <v>0.4346964960559986</v>
+        <v>0.991189795271888</v>
       </c>
       <c r="U15" t="n">
-        <v>0.007095154995473324</v>
+        <v>0.01617828827973703</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.09041476201881848</v>
+        <v>0.2061626681330423</v>
       </c>
       <c r="H16" t="n">
-        <v>0.8038694295854959</v>
+        <v>1.832973540310141</v>
       </c>
       <c r="I16" t="n">
-        <v>2.71901847962047</v>
+        <v>6.199873692582764</v>
       </c>
       <c r="J16" t="n">
-        <v>6.392323674730466</v>
+        <v>14.57570063700609</v>
       </c>
       <c r="K16" t="n">
-        <v>10.50455144182273</v>
+        <v>23.95235362491163</v>
       </c>
       <c r="L16" t="n">
-        <v>13.44220925505234</v>
+        <v>30.65076613316158</v>
       </c>
       <c r="M16" t="n">
-        <v>14.17292492264079</v>
+        <v>32.31693533289134</v>
       </c>
       <c r="N16" t="n">
-        <v>13.83592444602521</v>
+        <v>31.5485108425773</v>
       </c>
       <c r="O16" t="n">
-        <v>12.779715635169</v>
+        <v>29.14015603756857</v>
       </c>
       <c r="P16" t="n">
-        <v>10.9352544899851</v>
+        <v>24.93443760765448</v>
       </c>
       <c r="Q16" t="n">
-        <v>7.571003390503065</v>
+        <v>17.26331214703139</v>
       </c>
       <c r="R16" t="n">
-        <v>4.065376481318874</v>
+        <v>9.269823241691153</v>
       </c>
       <c r="S16" t="n">
-        <v>1.575682716273409</v>
+        <v>3.592853043736744</v>
       </c>
       <c r="T16" t="n">
-        <v>0.3863176195349516</v>
+        <v>0.8808768547502713</v>
       </c>
       <c r="U16" t="n">
-        <v>0.004931714291935559</v>
+        <v>0.0112452364436205</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2015642022164614</v>
+        <v>0.459604303558358</v>
       </c>
       <c r="H17" t="n">
-        <v>2.064269385949336</v>
+        <v>4.706922573817035</v>
       </c>
       <c r="I17" t="n">
-        <v>7.770803905950134</v>
+        <v>17.71889491293361</v>
       </c>
       <c r="J17" t="n">
-        <v>17.1075097078694</v>
+        <v>39.00834075913622</v>
       </c>
       <c r="K17" t="n">
-        <v>25.63972238769222</v>
+        <v>58.46339092876153</v>
       </c>
       <c r="L17" t="n">
-        <v>31.80834284127425</v>
+        <v>72.52900613378564</v>
       </c>
       <c r="M17" t="n">
-        <v>35.39291022244124</v>
+        <v>80.70249416719159</v>
       </c>
       <c r="N17" t="n">
-        <v>35.96560451198877</v>
+        <v>82.00834489467678</v>
       </c>
       <c r="O17" t="n">
-        <v>33.96130047619883</v>
+        <v>77.43815460116835</v>
       </c>
       <c r="P17" t="n">
-        <v>28.98518423397994</v>
+        <v>66.09167335707137</v>
       </c>
       <c r="Q17" t="n">
-        <v>21.76666624210291</v>
+        <v>49.63209423588766</v>
       </c>
       <c r="R17" t="n">
-        <v>12.6615073174798</v>
+        <v>28.87061883339773</v>
       </c>
       <c r="S17" t="n">
-        <v>4.593144258007618</v>
+        <v>10.47323306733609</v>
       </c>
       <c r="T17" t="n">
-        <v>0.8823472952025601</v>
+        <v>2.011917838826713</v>
       </c>
       <c r="U17" t="n">
-        <v>0.01612513617731691</v>
+        <v>0.03676834428466863</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1078463559311945</v>
+        <v>0.2459099818520028</v>
       </c>
       <c r="H18" t="n">
-        <v>1.041568753335484</v>
+        <v>2.374972719465395</v>
       </c>
       <c r="I18" t="n">
-        <v>3.713131114297705</v>
+        <v>8.466637533062377</v>
       </c>
       <c r="J18" t="n">
-        <v>10.18911558383272</v>
+        <v>23.23310052225435</v>
       </c>
       <c r="K18" t="n">
-        <v>17.41482143122275</v>
+        <v>39.70906930633853</v>
       </c>
       <c r="L18" t="n">
-        <v>23.41637653672712</v>
+        <v>53.3937440858921</v>
       </c>
       <c r="M18" t="n">
-        <v>27.32580693923292</v>
+        <v>62.30798092802718</v>
       </c>
       <c r="N18" t="n">
-        <v>28.04903973843817</v>
+        <v>63.95708778000839</v>
       </c>
       <c r="O18" t="n">
-        <v>25.65939153596275</v>
+        <v>58.50824028739296</v>
       </c>
       <c r="P18" t="n">
-        <v>20.59392387952783</v>
+        <v>46.95802100821271</v>
       </c>
       <c r="Q18" t="n">
-        <v>13.76649273255037</v>
+        <v>31.39019347289776</v>
       </c>
       <c r="R18" t="n">
-        <v>6.695934274394691</v>
+        <v>15.26798992586383</v>
       </c>
       <c r="S18" t="n">
-        <v>2.003198760388633</v>
+        <v>4.56767005764575</v>
       </c>
       <c r="T18" t="n">
-        <v>0.4346964960559986</v>
+        <v>0.991189795271888</v>
       </c>
       <c r="U18" t="n">
-        <v>0.007095154995473324</v>
+        <v>0.01617828827973703</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.09041476201881848</v>
+        <v>0.2061626681330423</v>
       </c>
       <c r="H19" t="n">
-        <v>0.8038694295854959</v>
+        <v>1.832973540310141</v>
       </c>
       <c r="I19" t="n">
-        <v>2.71901847962047</v>
+        <v>6.199873692582764</v>
       </c>
       <c r="J19" t="n">
-        <v>6.392323674730466</v>
+        <v>14.57570063700609</v>
       </c>
       <c r="K19" t="n">
-        <v>10.50455144182273</v>
+        <v>23.95235362491163</v>
       </c>
       <c r="L19" t="n">
-        <v>13.44220925505234</v>
+        <v>30.65076613316158</v>
       </c>
       <c r="M19" t="n">
-        <v>14.17292492264079</v>
+        <v>32.31693533289134</v>
       </c>
       <c r="N19" t="n">
-        <v>13.83592444602521</v>
+        <v>31.5485108425773</v>
       </c>
       <c r="O19" t="n">
-        <v>12.779715635169</v>
+        <v>29.14015603756857</v>
       </c>
       <c r="P19" t="n">
-        <v>10.9352544899851</v>
+        <v>24.93443760765448</v>
       </c>
       <c r="Q19" t="n">
-        <v>7.571003390503065</v>
+        <v>17.26331214703139</v>
       </c>
       <c r="R19" t="n">
-        <v>4.065376481318874</v>
+        <v>9.269823241691153</v>
       </c>
       <c r="S19" t="n">
-        <v>1.575682716273409</v>
+        <v>3.592853043736744</v>
       </c>
       <c r="T19" t="n">
-        <v>0.3863176195349516</v>
+        <v>0.8808768547502713</v>
       </c>
       <c r="U19" t="n">
-        <v>0.004931714291935559</v>
+        <v>0.0112452364436205</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2015642022164614</v>
+        <v>0.459604303558358</v>
       </c>
       <c r="H20" t="n">
-        <v>2.064269385949336</v>
+        <v>4.706922573817035</v>
       </c>
       <c r="I20" t="n">
-        <v>7.770803905950134</v>
+        <v>17.71889491293361</v>
       </c>
       <c r="J20" t="n">
-        <v>17.1075097078694</v>
+        <v>39.00834075913622</v>
       </c>
       <c r="K20" t="n">
-        <v>25.63972238769222</v>
+        <v>58.46339092876153</v>
       </c>
       <c r="L20" t="n">
-        <v>31.80834284127425</v>
+        <v>72.52900613378564</v>
       </c>
       <c r="M20" t="n">
-        <v>35.39291022244124</v>
+        <v>80.70249416719159</v>
       </c>
       <c r="N20" t="n">
-        <v>35.96560451198877</v>
+        <v>82.00834489467678</v>
       </c>
       <c r="O20" t="n">
-        <v>33.96130047619883</v>
+        <v>77.43815460116835</v>
       </c>
       <c r="P20" t="n">
-        <v>28.98518423397994</v>
+        <v>66.09167335707137</v>
       </c>
       <c r="Q20" t="n">
-        <v>21.76666624210291</v>
+        <v>49.63209423588766</v>
       </c>
       <c r="R20" t="n">
-        <v>12.6615073174798</v>
+        <v>28.87061883339773</v>
       </c>
       <c r="S20" t="n">
-        <v>4.593144258007618</v>
+        <v>10.47323306733609</v>
       </c>
       <c r="T20" t="n">
-        <v>0.8823472952025601</v>
+        <v>2.011917838826713</v>
       </c>
       <c r="U20" t="n">
-        <v>0.01612513617731691</v>
+        <v>0.03676834428466863</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1078463559311945</v>
+        <v>0.2459099818520028</v>
       </c>
       <c r="H21" t="n">
-        <v>1.041568753335484</v>
+        <v>2.374972719465395</v>
       </c>
       <c r="I21" t="n">
-        <v>3.713131114297705</v>
+        <v>8.466637533062377</v>
       </c>
       <c r="J21" t="n">
-        <v>10.18911558383272</v>
+        <v>23.23310052225435</v>
       </c>
       <c r="K21" t="n">
-        <v>17.41482143122275</v>
+        <v>39.70906930633853</v>
       </c>
       <c r="L21" t="n">
-        <v>23.41637653672712</v>
+        <v>53.3937440858921</v>
       </c>
       <c r="M21" t="n">
-        <v>27.32580693923292</v>
+        <v>62.30798092802718</v>
       </c>
       <c r="N21" t="n">
-        <v>28.04903973843817</v>
+        <v>63.95708778000839</v>
       </c>
       <c r="O21" t="n">
-        <v>25.65939153596275</v>
+        <v>58.50824028739296</v>
       </c>
       <c r="P21" t="n">
-        <v>20.59392387952783</v>
+        <v>46.95802100821271</v>
       </c>
       <c r="Q21" t="n">
-        <v>13.76649273255037</v>
+        <v>31.39019347289776</v>
       </c>
       <c r="R21" t="n">
-        <v>6.695934274394691</v>
+        <v>15.26798992586383</v>
       </c>
       <c r="S21" t="n">
-        <v>2.003198760388633</v>
+        <v>4.56767005764575</v>
       </c>
       <c r="T21" t="n">
-        <v>0.4346964960559986</v>
+        <v>0.991189795271888</v>
       </c>
       <c r="U21" t="n">
-        <v>0.007095154995473324</v>
+        <v>0.01617828827973703</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.09041476201881848</v>
+        <v>0.2061626681330423</v>
       </c>
       <c r="H22" t="n">
-        <v>0.8038694295854959</v>
+        <v>1.832973540310141</v>
       </c>
       <c r="I22" t="n">
-        <v>2.71901847962047</v>
+        <v>6.199873692582764</v>
       </c>
       <c r="J22" t="n">
-        <v>6.392323674730466</v>
+        <v>14.57570063700609</v>
       </c>
       <c r="K22" t="n">
-        <v>10.50455144182273</v>
+        <v>23.95235362491163</v>
       </c>
       <c r="L22" t="n">
-        <v>13.44220925505234</v>
+        <v>30.65076613316158</v>
       </c>
       <c r="M22" t="n">
-        <v>14.17292492264079</v>
+        <v>32.31693533289134</v>
       </c>
       <c r="N22" t="n">
-        <v>13.83592444602521</v>
+        <v>31.5485108425773</v>
       </c>
       <c r="O22" t="n">
-        <v>12.779715635169</v>
+        <v>29.14015603756857</v>
       </c>
       <c r="P22" t="n">
-        <v>10.9352544899851</v>
+        <v>24.93443760765448</v>
       </c>
       <c r="Q22" t="n">
-        <v>7.571003390503065</v>
+        <v>17.26331214703139</v>
       </c>
       <c r="R22" t="n">
-        <v>4.065376481318874</v>
+        <v>9.269823241691153</v>
       </c>
       <c r="S22" t="n">
-        <v>1.575682716273409</v>
+        <v>3.592853043736744</v>
       </c>
       <c r="T22" t="n">
-        <v>0.3863176195349516</v>
+        <v>0.8808768547502713</v>
       </c>
       <c r="U22" t="n">
-        <v>0.004931714291935559</v>
+        <v>0.0112452364436205</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2015642022164614</v>
+        <v>0.459604303558358</v>
       </c>
       <c r="H23" t="n">
-        <v>2.064269385949336</v>
+        <v>4.706922573817035</v>
       </c>
       <c r="I23" t="n">
-        <v>7.770803905950134</v>
+        <v>17.71889491293361</v>
       </c>
       <c r="J23" t="n">
-        <v>17.1075097078694</v>
+        <v>39.00834075913622</v>
       </c>
       <c r="K23" t="n">
-        <v>25.63972238769222</v>
+        <v>58.46339092876153</v>
       </c>
       <c r="L23" t="n">
-        <v>31.80834284127425</v>
+        <v>72.52900613378564</v>
       </c>
       <c r="M23" t="n">
-        <v>35.39291022244124</v>
+        <v>80.70249416719159</v>
       </c>
       <c r="N23" t="n">
-        <v>35.96560451198877</v>
+        <v>82.00834489467678</v>
       </c>
       <c r="O23" t="n">
-        <v>33.96130047619883</v>
+        <v>77.43815460116835</v>
       </c>
       <c r="P23" t="n">
-        <v>28.98518423397994</v>
+        <v>66.09167335707137</v>
       </c>
       <c r="Q23" t="n">
-        <v>21.76666624210291</v>
+        <v>49.63209423588766</v>
       </c>
       <c r="R23" t="n">
-        <v>12.6615073174798</v>
+        <v>28.87061883339773</v>
       </c>
       <c r="S23" t="n">
-        <v>4.593144258007618</v>
+        <v>10.47323306733609</v>
       </c>
       <c r="T23" t="n">
-        <v>0.8823472952025601</v>
+        <v>2.011917838826713</v>
       </c>
       <c r="U23" t="n">
-        <v>0.01612513617731691</v>
+        <v>0.03676834428466863</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1078463559311945</v>
+        <v>0.2459099818520028</v>
       </c>
       <c r="H24" t="n">
-        <v>1.041568753335484</v>
+        <v>2.374972719465395</v>
       </c>
       <c r="I24" t="n">
-        <v>3.713131114297705</v>
+        <v>8.466637533062377</v>
       </c>
       <c r="J24" t="n">
-        <v>10.18911558383272</v>
+        <v>23.23310052225435</v>
       </c>
       <c r="K24" t="n">
-        <v>17.41482143122275</v>
+        <v>39.70906930633853</v>
       </c>
       <c r="L24" t="n">
-        <v>23.41637653672712</v>
+        <v>53.3937440858921</v>
       </c>
       <c r="M24" t="n">
-        <v>27.32580693923292</v>
+        <v>62.30798092802718</v>
       </c>
       <c r="N24" t="n">
-        <v>28.04903973843817</v>
+        <v>63.95708778000839</v>
       </c>
       <c r="O24" t="n">
-        <v>25.65939153596275</v>
+        <v>58.50824028739296</v>
       </c>
       <c r="P24" t="n">
-        <v>20.59392387952783</v>
+        <v>46.95802100821271</v>
       </c>
       <c r="Q24" t="n">
-        <v>13.76649273255037</v>
+        <v>31.39019347289776</v>
       </c>
       <c r="R24" t="n">
-        <v>6.695934274394691</v>
+        <v>15.26798992586383</v>
       </c>
       <c r="S24" t="n">
-        <v>2.003198760388633</v>
+        <v>4.56767005764575</v>
       </c>
       <c r="T24" t="n">
-        <v>0.4346964960559986</v>
+        <v>0.991189795271888</v>
       </c>
       <c r="U24" t="n">
-        <v>0.007095154995473324</v>
+        <v>0.01617828827973703</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.09041476201881848</v>
+        <v>0.2061626681330423</v>
       </c>
       <c r="H25" t="n">
-        <v>0.8038694295854959</v>
+        <v>1.832973540310141</v>
       </c>
       <c r="I25" t="n">
-        <v>2.71901847962047</v>
+        <v>6.199873692582764</v>
       </c>
       <c r="J25" t="n">
-        <v>6.392323674730466</v>
+        <v>14.57570063700609</v>
       </c>
       <c r="K25" t="n">
-        <v>10.50455144182273</v>
+        <v>23.95235362491163</v>
       </c>
       <c r="L25" t="n">
-        <v>13.44220925505234</v>
+        <v>30.65076613316158</v>
       </c>
       <c r="M25" t="n">
-        <v>14.17292492264079</v>
+        <v>32.31693533289134</v>
       </c>
       <c r="N25" t="n">
-        <v>13.83592444602521</v>
+        <v>31.5485108425773</v>
       </c>
       <c r="O25" t="n">
-        <v>12.779715635169</v>
+        <v>29.14015603756857</v>
       </c>
       <c r="P25" t="n">
-        <v>10.9352544899851</v>
+        <v>24.93443760765448</v>
       </c>
       <c r="Q25" t="n">
-        <v>7.571003390503065</v>
+        <v>17.26331214703139</v>
       </c>
       <c r="R25" t="n">
-        <v>4.065376481318874</v>
+        <v>9.269823241691153</v>
       </c>
       <c r="S25" t="n">
-        <v>1.575682716273409</v>
+        <v>3.592853043736744</v>
       </c>
       <c r="T25" t="n">
-        <v>0.3863176195349516</v>
+        <v>0.8808768547502713</v>
       </c>
       <c r="U25" t="n">
-        <v>0.004931714291935559</v>
+        <v>0.0112452364436205</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2015642022164614</v>
+        <v>0.459604303558358</v>
       </c>
       <c r="H26" t="n">
-        <v>2.064269385949336</v>
+        <v>4.706922573817035</v>
       </c>
       <c r="I26" t="n">
-        <v>7.770803905950134</v>
+        <v>17.71889491293361</v>
       </c>
       <c r="J26" t="n">
-        <v>17.1075097078694</v>
+        <v>39.00834075913622</v>
       </c>
       <c r="K26" t="n">
-        <v>25.63972238769222</v>
+        <v>58.46339092876153</v>
       </c>
       <c r="L26" t="n">
-        <v>31.80834284127425</v>
+        <v>72.52900613378564</v>
       </c>
       <c r="M26" t="n">
-        <v>35.39291022244124</v>
+        <v>80.70249416719157</v>
       </c>
       <c r="N26" t="n">
-        <v>35.96560451198877</v>
+        <v>82.00834489467677</v>
       </c>
       <c r="O26" t="n">
-        <v>33.96130047619883</v>
+        <v>77.43815460116835</v>
       </c>
       <c r="P26" t="n">
-        <v>28.98518423397994</v>
+        <v>66.09167335707137</v>
       </c>
       <c r="Q26" t="n">
-        <v>21.76666624210291</v>
+        <v>49.63209423588766</v>
       </c>
       <c r="R26" t="n">
-        <v>12.6615073174798</v>
+        <v>28.87061883339773</v>
       </c>
       <c r="S26" t="n">
-        <v>4.593144258007618</v>
+        <v>10.47323306733609</v>
       </c>
       <c r="T26" t="n">
-        <v>0.8823472952025601</v>
+        <v>2.011917838826713</v>
       </c>
       <c r="U26" t="n">
-        <v>0.01612513617731691</v>
+        <v>0.03676834428466863</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1078463559311945</v>
+        <v>0.2459099818520028</v>
       </c>
       <c r="H27" t="n">
-        <v>1.041568753335484</v>
+        <v>2.374972719465396</v>
       </c>
       <c r="I27" t="n">
-        <v>3.713131114297705</v>
+        <v>8.466637533062377</v>
       </c>
       <c r="J27" t="n">
-        <v>10.18911558383272</v>
+        <v>23.23310052225435</v>
       </c>
       <c r="K27" t="n">
-        <v>17.41482143122275</v>
+        <v>39.70906930633854</v>
       </c>
       <c r="L27" t="n">
-        <v>23.41637653672712</v>
+        <v>53.3937440858921</v>
       </c>
       <c r="M27" t="n">
-        <v>27.32580693923292</v>
+        <v>62.30798092802719</v>
       </c>
       <c r="N27" t="n">
-        <v>28.04903973843817</v>
+        <v>63.95708778000839</v>
       </c>
       <c r="O27" t="n">
-        <v>25.65939153596275</v>
+        <v>58.50824028739296</v>
       </c>
       <c r="P27" t="n">
-        <v>20.59392387952783</v>
+        <v>46.9580210082127</v>
       </c>
       <c r="Q27" t="n">
-        <v>13.76649273255037</v>
+        <v>31.39019347289776</v>
       </c>
       <c r="R27" t="n">
-        <v>6.695934274394691</v>
+        <v>15.26798992586383</v>
       </c>
       <c r="S27" t="n">
-        <v>2.003198760388633</v>
+        <v>4.56767005764575</v>
       </c>
       <c r="T27" t="n">
-        <v>0.4346964960559986</v>
+        <v>0.9911897952718879</v>
       </c>
       <c r="U27" t="n">
-        <v>0.007095154995473324</v>
+        <v>0.01617828827973703</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.09041476201881848</v>
+        <v>0.2061626681330423</v>
       </c>
       <c r="H28" t="n">
-        <v>0.8038694295854959</v>
+        <v>1.832973540310141</v>
       </c>
       <c r="I28" t="n">
-        <v>2.71901847962047</v>
+        <v>6.199873692582764</v>
       </c>
       <c r="J28" t="n">
-        <v>6.392323674730466</v>
+        <v>14.57570063700609</v>
       </c>
       <c r="K28" t="n">
-        <v>10.50455144182273</v>
+        <v>23.95235362491163</v>
       </c>
       <c r="L28" t="n">
-        <v>13.44220925505234</v>
+        <v>30.65076613316158</v>
       </c>
       <c r="M28" t="n">
-        <v>14.17292492264079</v>
+        <v>32.31693533289134</v>
       </c>
       <c r="N28" t="n">
-        <v>13.83592444602521</v>
+        <v>31.5485108425773</v>
       </c>
       <c r="O28" t="n">
-        <v>12.779715635169</v>
+        <v>29.14015603756857</v>
       </c>
       <c r="P28" t="n">
-        <v>10.9352544899851</v>
+        <v>24.93443760765448</v>
       </c>
       <c r="Q28" t="n">
-        <v>7.571003390503065</v>
+        <v>17.26331214703139</v>
       </c>
       <c r="R28" t="n">
-        <v>4.065376481318874</v>
+        <v>9.269823241691153</v>
       </c>
       <c r="S28" t="n">
-        <v>1.575682716273409</v>
+        <v>3.592853043736745</v>
       </c>
       <c r="T28" t="n">
-        <v>0.3863176195349516</v>
+        <v>0.8808768547502713</v>
       </c>
       <c r="U28" t="n">
-        <v>0.004931714291935559</v>
+        <v>0.0112452364436205</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.2015642022164614</v>
+        <v>0.459604303558358</v>
       </c>
       <c r="H29" t="n">
-        <v>2.064269385949336</v>
+        <v>4.706922573817035</v>
       </c>
       <c r="I29" t="n">
-        <v>7.770803905950134</v>
+        <v>17.71889491293361</v>
       </c>
       <c r="J29" t="n">
-        <v>17.1075097078694</v>
+        <v>39.00834075913622</v>
       </c>
       <c r="K29" t="n">
-        <v>25.63972238769222</v>
+        <v>58.46339092876153</v>
       </c>
       <c r="L29" t="n">
-        <v>31.80834284127425</v>
+        <v>72.52900613378564</v>
       </c>
       <c r="M29" t="n">
-        <v>35.39291022244124</v>
+        <v>80.70249416719159</v>
       </c>
       <c r="N29" t="n">
-        <v>35.96560451198877</v>
+        <v>82.00834489467678</v>
       </c>
       <c r="O29" t="n">
-        <v>33.96130047619883</v>
+        <v>77.43815460116835</v>
       </c>
       <c r="P29" t="n">
-        <v>28.98518423397994</v>
+        <v>66.09167335707137</v>
       </c>
       <c r="Q29" t="n">
-        <v>21.76666624210291</v>
+        <v>49.63209423588766</v>
       </c>
       <c r="R29" t="n">
-        <v>12.6615073174798</v>
+        <v>28.87061883339773</v>
       </c>
       <c r="S29" t="n">
-        <v>4.593144258007618</v>
+        <v>10.47323306733609</v>
       </c>
       <c r="T29" t="n">
-        <v>0.8823472952025601</v>
+        <v>2.011917838826713</v>
       </c>
       <c r="U29" t="n">
-        <v>0.01612513617731691</v>
+        <v>0.03676834428466863</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.1078463559311945</v>
+        <v>0.2459099818520028</v>
       </c>
       <c r="H30" t="n">
-        <v>1.041568753335484</v>
+        <v>2.374972719465395</v>
       </c>
       <c r="I30" t="n">
-        <v>3.713131114297705</v>
+        <v>8.466637533062377</v>
       </c>
       <c r="J30" t="n">
-        <v>10.18911558383272</v>
+        <v>23.23310052225435</v>
       </c>
       <c r="K30" t="n">
-        <v>17.41482143122275</v>
+        <v>39.70906930633853</v>
       </c>
       <c r="L30" t="n">
-        <v>23.41637653672712</v>
+        <v>53.3937440858921</v>
       </c>
       <c r="M30" t="n">
-        <v>27.32580693923292</v>
+        <v>62.30798092802718</v>
       </c>
       <c r="N30" t="n">
-        <v>28.04903973843817</v>
+        <v>63.95708778000839</v>
       </c>
       <c r="O30" t="n">
-        <v>25.65939153596275</v>
+        <v>58.50824028739296</v>
       </c>
       <c r="P30" t="n">
-        <v>20.59392387952783</v>
+        <v>46.95802100821271</v>
       </c>
       <c r="Q30" t="n">
-        <v>13.76649273255037</v>
+        <v>31.39019347289776</v>
       </c>
       <c r="R30" t="n">
-        <v>6.695934274394691</v>
+        <v>15.26798992586383</v>
       </c>
       <c r="S30" t="n">
-        <v>2.003198760388633</v>
+        <v>4.56767005764575</v>
       </c>
       <c r="T30" t="n">
-        <v>0.4346964960559986</v>
+        <v>0.991189795271888</v>
       </c>
       <c r="U30" t="n">
-        <v>0.007095154995473324</v>
+        <v>0.01617828827973703</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.09041476201881848</v>
+        <v>0.2061626681330423</v>
       </c>
       <c r="H31" t="n">
-        <v>0.8038694295854959</v>
+        <v>1.832973540310141</v>
       </c>
       <c r="I31" t="n">
-        <v>2.71901847962047</v>
+        <v>6.199873692582764</v>
       </c>
       <c r="J31" t="n">
-        <v>6.392323674730466</v>
+        <v>14.57570063700609</v>
       </c>
       <c r="K31" t="n">
-        <v>10.50455144182273</v>
+        <v>23.95235362491163</v>
       </c>
       <c r="L31" t="n">
-        <v>13.44220925505234</v>
+        <v>30.65076613316158</v>
       </c>
       <c r="M31" t="n">
-        <v>14.17292492264079</v>
+        <v>32.31693533289134</v>
       </c>
       <c r="N31" t="n">
-        <v>13.83592444602521</v>
+        <v>31.5485108425773</v>
       </c>
       <c r="O31" t="n">
-        <v>12.779715635169</v>
+        <v>29.14015603756857</v>
       </c>
       <c r="P31" t="n">
-        <v>10.9352544899851</v>
+        <v>24.93443760765448</v>
       </c>
       <c r="Q31" t="n">
-        <v>7.571003390503065</v>
+        <v>17.26331214703139</v>
       </c>
       <c r="R31" t="n">
-        <v>4.065376481318874</v>
+        <v>9.269823241691153</v>
       </c>
       <c r="S31" t="n">
-        <v>1.575682716273409</v>
+        <v>3.592853043736744</v>
       </c>
       <c r="T31" t="n">
-        <v>0.3863176195349516</v>
+        <v>0.8808768547502713</v>
       </c>
       <c r="U31" t="n">
-        <v>0.004931714291935559</v>
+        <v>0.0112452364436205</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.2015642022164613</v>
+        <v>0.459604303558358</v>
       </c>
       <c r="H32" t="n">
-        <v>2.064269385949336</v>
+        <v>4.706922573817035</v>
       </c>
       <c r="I32" t="n">
-        <v>7.770803905950134</v>
+        <v>17.71889491293361</v>
       </c>
       <c r="J32" t="n">
-        <v>17.1075097078694</v>
+        <v>39.00834075913622</v>
       </c>
       <c r="K32" t="n">
-        <v>25.63972238769222</v>
+        <v>58.46339092876153</v>
       </c>
       <c r="L32" t="n">
-        <v>31.80834284127425</v>
+        <v>72.52900613378564</v>
       </c>
       <c r="M32" t="n">
-        <v>35.39291022244124</v>
+        <v>80.70249416719159</v>
       </c>
       <c r="N32" t="n">
-        <v>35.96560451198877</v>
+        <v>82.00834489467678</v>
       </c>
       <c r="O32" t="n">
-        <v>33.96130047619883</v>
+        <v>77.43815460116835</v>
       </c>
       <c r="P32" t="n">
-        <v>28.98518423397994</v>
+        <v>66.09167335707137</v>
       </c>
       <c r="Q32" t="n">
-        <v>21.76666624210291</v>
+        <v>49.63209423588766</v>
       </c>
       <c r="R32" t="n">
-        <v>12.6615073174798</v>
+        <v>28.87061883339773</v>
       </c>
       <c r="S32" t="n">
-        <v>4.593144258007618</v>
+        <v>10.47323306733609</v>
       </c>
       <c r="T32" t="n">
-        <v>0.8823472952025601</v>
+        <v>2.011917838826713</v>
       </c>
       <c r="U32" t="n">
-        <v>0.01612513617731691</v>
+        <v>0.03676834428466863</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1078463559311945</v>
+        <v>0.2459099818520028</v>
       </c>
       <c r="H33" t="n">
-        <v>1.041568753335484</v>
+        <v>2.374972719465395</v>
       </c>
       <c r="I33" t="n">
-        <v>3.713131114297705</v>
+        <v>8.466637533062377</v>
       </c>
       <c r="J33" t="n">
-        <v>10.18911558383272</v>
+        <v>23.23310052225435</v>
       </c>
       <c r="K33" t="n">
-        <v>17.41482143122275</v>
+        <v>39.70906930633853</v>
       </c>
       <c r="L33" t="n">
-        <v>23.41637653672712</v>
+        <v>53.3937440858921</v>
       </c>
       <c r="M33" t="n">
-        <v>27.32580693923291</v>
+        <v>62.30798092802718</v>
       </c>
       <c r="N33" t="n">
-        <v>28.04903973843816</v>
+        <v>63.95708778000839</v>
       </c>
       <c r="O33" t="n">
-        <v>25.65939153596275</v>
+        <v>58.50824028739296</v>
       </c>
       <c r="P33" t="n">
-        <v>20.59392387952783</v>
+        <v>46.95802100821271</v>
       </c>
       <c r="Q33" t="n">
-        <v>13.76649273255037</v>
+        <v>31.39019347289776</v>
       </c>
       <c r="R33" t="n">
-        <v>6.695934274394691</v>
+        <v>15.26798992586383</v>
       </c>
       <c r="S33" t="n">
-        <v>2.003198760388633</v>
+        <v>4.56767005764575</v>
       </c>
       <c r="T33" t="n">
-        <v>0.4346964960559986</v>
+        <v>0.991189795271888</v>
       </c>
       <c r="U33" t="n">
-        <v>0.007095154995473324</v>
+        <v>0.01617828827973703</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.09041476201881848</v>
+        <v>0.2061626681330423</v>
       </c>
       <c r="H34" t="n">
-        <v>0.8038694295854958</v>
+        <v>1.832973540310141</v>
       </c>
       <c r="I34" t="n">
-        <v>2.719018479620469</v>
+        <v>6.199873692582764</v>
       </c>
       <c r="J34" t="n">
-        <v>6.392323674730466</v>
+        <v>14.57570063700609</v>
       </c>
       <c r="K34" t="n">
-        <v>10.50455144182273</v>
+        <v>23.95235362491163</v>
       </c>
       <c r="L34" t="n">
-        <v>13.44220925505234</v>
+        <v>30.65076613316158</v>
       </c>
       <c r="M34" t="n">
-        <v>14.17292492264079</v>
+        <v>32.31693533289134</v>
       </c>
       <c r="N34" t="n">
-        <v>13.8359244460252</v>
+        <v>31.5485108425773</v>
       </c>
       <c r="O34" t="n">
-        <v>12.779715635169</v>
+        <v>29.14015603756857</v>
       </c>
       <c r="P34" t="n">
-        <v>10.9352544899851</v>
+        <v>24.93443760765448</v>
       </c>
       <c r="Q34" t="n">
-        <v>7.571003390503064</v>
+        <v>17.26331214703139</v>
       </c>
       <c r="R34" t="n">
-        <v>4.065376481318873</v>
+        <v>9.269823241691153</v>
       </c>
       <c r="S34" t="n">
-        <v>1.575682716273409</v>
+        <v>3.592853043736744</v>
       </c>
       <c r="T34" t="n">
-        <v>0.3863176195349516</v>
+        <v>0.8808768547502713</v>
       </c>
       <c r="U34" t="n">
-        <v>0.004931714291935559</v>
+        <v>0.0112452364436205</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.2015642022164614</v>
+        <v>0.459604303558358</v>
       </c>
       <c r="H35" t="n">
-        <v>2.064269385949336</v>
+        <v>4.706922573817035</v>
       </c>
       <c r="I35" t="n">
-        <v>7.770803905950134</v>
+        <v>17.71889491293361</v>
       </c>
       <c r="J35" t="n">
-        <v>17.1075097078694</v>
+        <v>39.00834075913622</v>
       </c>
       <c r="K35" t="n">
-        <v>25.63972238769222</v>
+        <v>58.46339092876153</v>
       </c>
       <c r="L35" t="n">
-        <v>31.80834284127425</v>
+        <v>72.52900613378564</v>
       </c>
       <c r="M35" t="n">
-        <v>35.39291022244124</v>
+        <v>80.70249416719159</v>
       </c>
       <c r="N35" t="n">
-        <v>35.96560451198877</v>
+        <v>82.00834489467678</v>
       </c>
       <c r="O35" t="n">
-        <v>33.96130047619883</v>
+        <v>77.43815460116835</v>
       </c>
       <c r="P35" t="n">
-        <v>28.98518423397994</v>
+        <v>66.09167335707137</v>
       </c>
       <c r="Q35" t="n">
-        <v>21.76666624210291</v>
+        <v>49.63209423588766</v>
       </c>
       <c r="R35" t="n">
-        <v>12.6615073174798</v>
+        <v>28.87061883339773</v>
       </c>
       <c r="S35" t="n">
-        <v>4.593144258007618</v>
+        <v>10.47323306733609</v>
       </c>
       <c r="T35" t="n">
-        <v>0.8823472952025601</v>
+        <v>2.011917838826713</v>
       </c>
       <c r="U35" t="n">
-        <v>0.01612513617731691</v>
+        <v>0.03676834428466863</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.1078463559311945</v>
+        <v>0.2459099818520028</v>
       </c>
       <c r="H36" t="n">
-        <v>1.041568753335484</v>
+        <v>2.374972719465395</v>
       </c>
       <c r="I36" t="n">
-        <v>3.713131114297705</v>
+        <v>8.466637533062377</v>
       </c>
       <c r="J36" t="n">
-        <v>10.18911558383272</v>
+        <v>23.23310052225435</v>
       </c>
       <c r="K36" t="n">
-        <v>17.41482143122275</v>
+        <v>39.70906930633853</v>
       </c>
       <c r="L36" t="n">
-        <v>23.41637653672712</v>
+        <v>53.3937440858921</v>
       </c>
       <c r="M36" t="n">
-        <v>27.32580693923292</v>
+        <v>62.30798092802718</v>
       </c>
       <c r="N36" t="n">
-        <v>28.04903973843817</v>
+        <v>63.95708778000839</v>
       </c>
       <c r="O36" t="n">
-        <v>25.65939153596275</v>
+        <v>58.50824028739296</v>
       </c>
       <c r="P36" t="n">
-        <v>20.59392387952783</v>
+        <v>46.95802100821271</v>
       </c>
       <c r="Q36" t="n">
-        <v>13.76649273255037</v>
+        <v>31.39019347289776</v>
       </c>
       <c r="R36" t="n">
-        <v>6.695934274394691</v>
+        <v>15.26798992586383</v>
       </c>
       <c r="S36" t="n">
-        <v>2.003198760388633</v>
+        <v>4.56767005764575</v>
       </c>
       <c r="T36" t="n">
-        <v>0.4346964960559986</v>
+        <v>0.991189795271888</v>
       </c>
       <c r="U36" t="n">
-        <v>0.007095154995473324</v>
+        <v>0.01617828827973703</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.09041476201881848</v>
+        <v>0.2061626681330423</v>
       </c>
       <c r="H37" t="n">
-        <v>0.8038694295854959</v>
+        <v>1.832973540310141</v>
       </c>
       <c r="I37" t="n">
-        <v>2.71901847962047</v>
+        <v>6.199873692582764</v>
       </c>
       <c r="J37" t="n">
-        <v>6.392323674730466</v>
+        <v>14.57570063700609</v>
       </c>
       <c r="K37" t="n">
-        <v>10.50455144182273</v>
+        <v>23.95235362491163</v>
       </c>
       <c r="L37" t="n">
-        <v>13.44220925505234</v>
+        <v>30.65076613316158</v>
       </c>
       <c r="M37" t="n">
-        <v>14.17292492264079</v>
+        <v>32.31693533289134</v>
       </c>
       <c r="N37" t="n">
-        <v>13.83592444602521</v>
+        <v>31.5485108425773</v>
       </c>
       <c r="O37" t="n">
-        <v>12.779715635169</v>
+        <v>29.14015603756857</v>
       </c>
       <c r="P37" t="n">
-        <v>10.9352544899851</v>
+        <v>24.93443760765448</v>
       </c>
       <c r="Q37" t="n">
-        <v>7.571003390503065</v>
+        <v>17.26331214703139</v>
       </c>
       <c r="R37" t="n">
-        <v>4.065376481318874</v>
+        <v>9.269823241691153</v>
       </c>
       <c r="S37" t="n">
-        <v>1.575682716273409</v>
+        <v>3.592853043736744</v>
       </c>
       <c r="T37" t="n">
-        <v>0.3863176195349516</v>
+        <v>0.8808768547502713</v>
       </c>
       <c r="U37" t="n">
-        <v>0.004931714291935559</v>
+        <v>0.0112452364436205</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.2015642022164614</v>
+        <v>0.459604303558358</v>
       </c>
       <c r="H38" t="n">
-        <v>2.064269385949336</v>
+        <v>4.706922573817035</v>
       </c>
       <c r="I38" t="n">
-        <v>7.770803905950134</v>
+        <v>17.71889491293361</v>
       </c>
       <c r="J38" t="n">
-        <v>17.1075097078694</v>
+        <v>39.00834075913622</v>
       </c>
       <c r="K38" t="n">
-        <v>25.63972238769222</v>
+        <v>58.46339092876153</v>
       </c>
       <c r="L38" t="n">
-        <v>31.80834284127425</v>
+        <v>72.52900613378564</v>
       </c>
       <c r="M38" t="n">
-        <v>35.39291022244124</v>
+        <v>80.70249416719159</v>
       </c>
       <c r="N38" t="n">
-        <v>35.96560451198877</v>
+        <v>82.00834489467678</v>
       </c>
       <c r="O38" t="n">
-        <v>33.96130047619883</v>
+        <v>77.43815460116835</v>
       </c>
       <c r="P38" t="n">
-        <v>28.98518423397994</v>
+        <v>66.09167335707137</v>
       </c>
       <c r="Q38" t="n">
-        <v>21.76666624210291</v>
+        <v>49.63209423588766</v>
       </c>
       <c r="R38" t="n">
-        <v>12.6615073174798</v>
+        <v>28.87061883339773</v>
       </c>
       <c r="S38" t="n">
-        <v>4.593144258007618</v>
+        <v>10.47323306733609</v>
       </c>
       <c r="T38" t="n">
-        <v>0.8823472952025601</v>
+        <v>2.011917838826713</v>
       </c>
       <c r="U38" t="n">
-        <v>0.01612513617731691</v>
+        <v>0.03676834428466863</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.1078463559311945</v>
+        <v>0.2459099818520028</v>
       </c>
       <c r="H39" t="n">
-        <v>1.041568753335484</v>
+        <v>2.374972719465395</v>
       </c>
       <c r="I39" t="n">
-        <v>3.713131114297705</v>
+        <v>8.466637533062377</v>
       </c>
       <c r="J39" t="n">
-        <v>10.18911558383272</v>
+        <v>23.23310052225435</v>
       </c>
       <c r="K39" t="n">
-        <v>17.41482143122275</v>
+        <v>39.70906930633853</v>
       </c>
       <c r="L39" t="n">
-        <v>23.41637653672712</v>
+        <v>53.3937440858921</v>
       </c>
       <c r="M39" t="n">
-        <v>27.32580693923292</v>
+        <v>62.30798092802718</v>
       </c>
       <c r="N39" t="n">
-        <v>28.04903973843817</v>
+        <v>63.95708778000839</v>
       </c>
       <c r="O39" t="n">
-        <v>25.65939153596275</v>
+        <v>58.50824028739296</v>
       </c>
       <c r="P39" t="n">
-        <v>20.59392387952783</v>
+        <v>46.95802100821271</v>
       </c>
       <c r="Q39" t="n">
-        <v>13.76649273255037</v>
+        <v>31.39019347289776</v>
       </c>
       <c r="R39" t="n">
-        <v>6.695934274394691</v>
+        <v>15.26798992586383</v>
       </c>
       <c r="S39" t="n">
-        <v>2.003198760388633</v>
+        <v>4.56767005764575</v>
       </c>
       <c r="T39" t="n">
-        <v>0.4346964960559986</v>
+        <v>0.991189795271888</v>
       </c>
       <c r="U39" t="n">
-        <v>0.007095154995473324</v>
+        <v>0.01617828827973703</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.09041476201881848</v>
+        <v>0.2061626681330423</v>
       </c>
       <c r="H40" t="n">
-        <v>0.8038694295854959</v>
+        <v>1.832973540310141</v>
       </c>
       <c r="I40" t="n">
-        <v>2.71901847962047</v>
+        <v>6.199873692582764</v>
       </c>
       <c r="J40" t="n">
-        <v>6.392323674730466</v>
+        <v>14.57570063700609</v>
       </c>
       <c r="K40" t="n">
-        <v>10.50455144182273</v>
+        <v>23.95235362491163</v>
       </c>
       <c r="L40" t="n">
-        <v>13.44220925505234</v>
+        <v>30.65076613316158</v>
       </c>
       <c r="M40" t="n">
-        <v>14.17292492264079</v>
+        <v>32.31693533289134</v>
       </c>
       <c r="N40" t="n">
-        <v>13.83592444602521</v>
+        <v>31.5485108425773</v>
       </c>
       <c r="O40" t="n">
-        <v>12.779715635169</v>
+        <v>29.14015603756857</v>
       </c>
       <c r="P40" t="n">
-        <v>10.9352544899851</v>
+        <v>24.93443760765448</v>
       </c>
       <c r="Q40" t="n">
-        <v>7.571003390503065</v>
+        <v>17.26331214703139</v>
       </c>
       <c r="R40" t="n">
-        <v>4.065376481318874</v>
+        <v>9.269823241691153</v>
       </c>
       <c r="S40" t="n">
-        <v>1.575682716273409</v>
+        <v>3.592853043736744</v>
       </c>
       <c r="T40" t="n">
-        <v>0.3863176195349516</v>
+        <v>0.8808768547502713</v>
       </c>
       <c r="U40" t="n">
-        <v>0.004931714291935559</v>
+        <v>0.0112452364436205</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.2015642022164614</v>
+        <v>0.459604303558358</v>
       </c>
       <c r="H41" t="n">
-        <v>2.064269385949336</v>
+        <v>4.706922573817035</v>
       </c>
       <c r="I41" t="n">
-        <v>7.770803905950134</v>
+        <v>17.71889491293361</v>
       </c>
       <c r="J41" t="n">
-        <v>17.1075097078694</v>
+        <v>39.00834075913622</v>
       </c>
       <c r="K41" t="n">
-        <v>25.63972238769222</v>
+        <v>58.46339092876153</v>
       </c>
       <c r="L41" t="n">
-        <v>31.80834284127425</v>
+        <v>72.52900613378564</v>
       </c>
       <c r="M41" t="n">
-        <v>35.39291022244124</v>
+        <v>80.70249416719159</v>
       </c>
       <c r="N41" t="n">
-        <v>35.96560451198877</v>
+        <v>82.00834489467678</v>
       </c>
       <c r="O41" t="n">
-        <v>33.96130047619883</v>
+        <v>77.43815460116835</v>
       </c>
       <c r="P41" t="n">
-        <v>28.98518423397994</v>
+        <v>66.09167335707137</v>
       </c>
       <c r="Q41" t="n">
-        <v>21.76666624210291</v>
+        <v>49.63209423588766</v>
       </c>
       <c r="R41" t="n">
-        <v>12.6615073174798</v>
+        <v>28.87061883339773</v>
       </c>
       <c r="S41" t="n">
-        <v>4.593144258007618</v>
+        <v>10.47323306733609</v>
       </c>
       <c r="T41" t="n">
-        <v>0.8823472952025601</v>
+        <v>2.011917838826713</v>
       </c>
       <c r="U41" t="n">
-        <v>0.01612513617731691</v>
+        <v>0.03676834428466863</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1078463559311945</v>
+        <v>0.2459099818520028</v>
       </c>
       <c r="H42" t="n">
-        <v>1.041568753335484</v>
+        <v>2.374972719465395</v>
       </c>
       <c r="I42" t="n">
-        <v>3.713131114297705</v>
+        <v>8.466637533062377</v>
       </c>
       <c r="J42" t="n">
-        <v>10.18911558383272</v>
+        <v>23.23310052225435</v>
       </c>
       <c r="K42" t="n">
-        <v>17.41482143122275</v>
+        <v>39.70906930633853</v>
       </c>
       <c r="L42" t="n">
-        <v>23.41637653672712</v>
+        <v>53.3937440858921</v>
       </c>
       <c r="M42" t="n">
-        <v>27.32580693923292</v>
+        <v>62.30798092802718</v>
       </c>
       <c r="N42" t="n">
-        <v>28.04903973843817</v>
+        <v>63.95708778000839</v>
       </c>
       <c r="O42" t="n">
-        <v>25.65939153596275</v>
+        <v>58.50824028739296</v>
       </c>
       <c r="P42" t="n">
-        <v>20.59392387952783</v>
+        <v>46.95802100821271</v>
       </c>
       <c r="Q42" t="n">
-        <v>13.76649273255037</v>
+        <v>31.39019347289776</v>
       </c>
       <c r="R42" t="n">
-        <v>6.695934274394691</v>
+        <v>15.26798992586383</v>
       </c>
       <c r="S42" t="n">
-        <v>2.003198760388633</v>
+        <v>4.56767005764575</v>
       </c>
       <c r="T42" t="n">
-        <v>0.4346964960559986</v>
+        <v>0.991189795271888</v>
       </c>
       <c r="U42" t="n">
-        <v>0.007095154995473324</v>
+        <v>0.01617828827973703</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.09041476201881848</v>
+        <v>0.2061626681330423</v>
       </c>
       <c r="H43" t="n">
-        <v>0.8038694295854959</v>
+        <v>1.832973540310141</v>
       </c>
       <c r="I43" t="n">
-        <v>2.71901847962047</v>
+        <v>6.199873692582764</v>
       </c>
       <c r="J43" t="n">
-        <v>6.392323674730466</v>
+        <v>14.57570063700609</v>
       </c>
       <c r="K43" t="n">
-        <v>10.50455144182273</v>
+        <v>23.95235362491163</v>
       </c>
       <c r="L43" t="n">
-        <v>13.44220925505234</v>
+        <v>30.65076613316158</v>
       </c>
       <c r="M43" t="n">
-        <v>14.17292492264079</v>
+        <v>32.31693533289134</v>
       </c>
       <c r="N43" t="n">
-        <v>13.83592444602521</v>
+        <v>31.5485108425773</v>
       </c>
       <c r="O43" t="n">
-        <v>12.779715635169</v>
+        <v>29.14015603756857</v>
       </c>
       <c r="P43" t="n">
-        <v>10.9352544899851</v>
+        <v>24.93443760765448</v>
       </c>
       <c r="Q43" t="n">
-        <v>7.571003390503065</v>
+        <v>17.26331214703139</v>
       </c>
       <c r="R43" t="n">
-        <v>4.065376481318874</v>
+        <v>9.269823241691153</v>
       </c>
       <c r="S43" t="n">
-        <v>1.575682716273409</v>
+        <v>3.592853043736744</v>
       </c>
       <c r="T43" t="n">
-        <v>0.3863176195349516</v>
+        <v>0.8808768547502713</v>
       </c>
       <c r="U43" t="n">
-        <v>0.004931714291935559</v>
+        <v>0.0112452364436205</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34377,10 +34377,10 @@
         <v>72.52900613378564</v>
       </c>
       <c r="M44" t="n">
-        <v>80.70249416719157</v>
+        <v>80.70249416719159</v>
       </c>
       <c r="N44" t="n">
-        <v>82.00834489467677</v>
+        <v>82.00834489467678</v>
       </c>
       <c r="O44" t="n">
         <v>77.43815460116835</v>
@@ -34441,7 +34441,7 @@
         <v>0.2459099818520028</v>
       </c>
       <c r="H45" t="n">
-        <v>2.374972719465396</v>
+        <v>2.374972719465395</v>
       </c>
       <c r="I45" t="n">
         <v>8.466637533062377</v>
@@ -34450,13 +34450,13 @@
         <v>23.23310052225435</v>
       </c>
       <c r="K45" t="n">
-        <v>39.70906930633854</v>
+        <v>39.70906930633853</v>
       </c>
       <c r="L45" t="n">
         <v>53.3937440858921</v>
       </c>
       <c r="M45" t="n">
-        <v>62.30798092802719</v>
+        <v>62.30798092802718</v>
       </c>
       <c r="N45" t="n">
         <v>63.95708778000839</v>
@@ -34465,7 +34465,7 @@
         <v>58.50824028739296</v>
       </c>
       <c r="P45" t="n">
-        <v>46.9580210082127</v>
+        <v>46.95802100821271</v>
       </c>
       <c r="Q45" t="n">
         <v>31.39019347289776</v>
@@ -34477,7 +34477,7 @@
         <v>4.56767005764575</v>
       </c>
       <c r="T45" t="n">
-        <v>0.9911897952718879</v>
+        <v>0.991189795271888</v>
       </c>
       <c r="U45" t="n">
         <v>0.01617828827973703</v>
@@ -34553,7 +34553,7 @@
         <v>9.269823241691153</v>
       </c>
       <c r="S46" t="n">
-        <v>3.592853043736745</v>
+        <v>3.592853043736744</v>
       </c>
       <c r="T46" t="n">
         <v>0.8808768547502713</v>
